--- a/Projects/CARLSBRGHK/Data/Template.xlsx
+++ b/Projects/CARLSBRGHK/Data/Template.xlsx
@@ -5,12 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="kpis" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="details" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="exclude_include" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -22,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="38">
   <si>
     <t xml:space="preserve">kpi_name</t>
   </si>
@@ -67,18 +66,6 @@
   </si>
   <si>
     <t xml:space="preserve">FSOS_ALL_MAN_ALL_CAT_ALL_SCENETYPE_ALL_BRAND_ALL_SKU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COUNT_SKU_FACINGS_IN_FLOOR_STACK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Count</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COUNT_SKU_IN_STOCK</t>
   </si>
   <si>
     <t xml:space="preserve">kpi_parent</t>
@@ -141,9 +128,6 @@
     <t xml:space="preserve">scene_type</t>
   </si>
   <si>
-    <t xml:space="preserve">from_external_targets</t>
-  </si>
-  <si>
     <t xml:space="preserve">brand</t>
   </si>
   <si>
@@ -151,45 +135,6 @@
   </si>
   <si>
     <t xml:space="preserve">category</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COUNT_SKU_FACINGS_FLOOR_STACK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Floor Stack</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stacking</t>
-  </si>
-  <si>
-    <t xml:space="preserve">others</t>
-  </si>
-  <si>
-    <t xml:space="preserve">irrelevant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">empty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">scene_types_to_exclude</t>
-  </si>
-  <si>
-    <t xml:space="preserve">categories_to_exclude</t>
-  </si>
-  <si>
-    <t xml:space="preserve">brands_to_exclude</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ean_codes_to_exclude</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FSOS_ALL_MAN_ALL_CAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FSOS_ALL_MAN_ALL_CAT_ALL_BRAND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FSOS_ALL_MAN_ALL_CAT_ALL_BRAND_ALL_SKU</t>
   </si>
 </sst>
 </file>
@@ -222,7 +167,7 @@
       <family val="0"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -271,12 +216,6 @@
         <bgColor rgb="FFF69ABE"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF8F8C9"/>
-        <bgColor rgb="FFFFFF99"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
@@ -319,7 +258,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="17">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -346,10 +285,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -392,62 +327,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -477,7 +356,7 @@
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFF8F8C9"/>
+      <rgbColor rgb="FFFFFFCC"/>
       <rgbColor rgb="FFC5F9CB"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF977D"/>
@@ -525,19 +404,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="112.178571428571"/>
-    <col collapsed="false" hidden="false" max="7" min="4" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="22.0051020408163"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="110.826530612245"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="21.734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -652,31 +530,9 @@
       </c>
       <c r="D11" s="5"/>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="5"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="1">
     <mergeCell ref="B2:B11"/>
-    <mergeCell ref="B12:B13"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -693,110 +549,108 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:13"/>
+  <dimension ref="1:11"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="0" topLeftCell="B1" activePane="topRight" state="frozen"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="D19" activeCellId="0" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="8" width="51.2959183673469"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="8" width="60.3418367346939"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="8" width="11.8775510204082"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="8" width="10.3928571428571"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="8" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="8" width="13.5"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="8" width="29.4285714285714"/>
-    <col collapsed="false" hidden="false" max="12" min="11" style="8" width="13.5"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="8" width="11.8775510204082"/>
-    <col collapsed="false" hidden="false" max="17" min="15" style="8" width="19.7091836734694"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="8" width="11.8775510204082"/>
-    <col collapsed="false" hidden="false" max="1025" min="19" style="8" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="7" width="58.3520408163265"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="7" width="59.530612244898"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="7" width="11.6071428571429"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="7" width="10.2602040816327"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="7" width="8.10204081632653"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="7" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="7" width="29.0255102040816"/>
+    <col collapsed="false" hidden="false" max="12" min="11" style="7" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="7" width="11.6071428571429"/>
+    <col collapsed="false" hidden="false" max="17" min="15" style="7" width="19.4387755102041"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="7" width="11.6071428571429"/>
+    <col collapsed="false" hidden="false" max="1025" min="19" style="7" width="10.3928571428571"/>
   </cols>
   <sheetData>
-    <row r="1" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="9" t="s">
+    <row r="1" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="9" t="s">
+      <c r="G1" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="H1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="I1" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="J1" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="K1" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="L1" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="M1" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="N1" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="O1" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="P1" s="9" t="s">
         <v>29</v>
-      </c>
-      <c r="M1" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="N1" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="O1" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="P1" s="10" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="12"/>
+      <c r="A2" s="11"/>
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2" s="14"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="I2" s="14"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
+      <c r="C2" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="13"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" s="13"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
       <c r="M2" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="O2" s="12" t="s">
-        <v>37</v>
+        <v>32</v>
+      </c>
+      <c r="O2" s="11" t="s">
+        <v>33</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="Q2" s="0"/>
       <c r="R2" s="0"/>
@@ -1808,41 +1662,39 @@
       <c r="AMJ2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="16" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="E3" s="15"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="I3" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="J3" s="15"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" s="13"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
       <c r="M3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="N3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="O3" s="12" t="s">
-        <v>37</v>
+      <c r="O3" s="11" t="s">
+        <v>33</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="Q3" s="0"/>
       <c r="R3" s="0"/>
@@ -2854,39 +2706,37 @@
       <c r="AMJ3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="16" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="15"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="J4" s="15"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
       <c r="M4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="N4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="O4" s="12" t="s">
-        <v>37</v>
+      <c r="O4" s="11" t="s">
+        <v>33</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="Q4" s="0"/>
       <c r="R4" s="0"/>
@@ -3898,41 +3748,39 @@
       <c r="AMJ4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="16" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="J5" s="15"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
+      <c r="E5" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
       <c r="M5" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="O5" s="12" t="s">
-        <v>37</v>
+        <v>34</v>
+      </c>
+      <c r="O5" s="11" t="s">
+        <v>33</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="Q5" s="0"/>
       <c r="R5" s="0"/>
@@ -4944,43 +4792,41 @@
       <c r="AMJ5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="16" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="G6" s="16"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="J6" s="15"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
+      <c r="E6" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" s="15"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
       <c r="M6" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="O6" s="12" t="s">
-        <v>37</v>
+        <v>34</v>
+      </c>
+      <c r="O6" s="11" t="s">
+        <v>33</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="0"/>
       <c r="R6" s="0"/>
@@ -5991,38 +5837,38 @@
       <c r="AMI6" s="0"/>
       <c r="AMJ6" s="0"/>
     </row>
-    <row r="7" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="12"/>
+    <row r="7" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="11"/>
       <c r="B7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="E7" s="15"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="I7" s="14"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
+      <c r="C7" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="14"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7" s="13"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
       <c r="M7" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="O7" s="12" t="s">
         <v>37</v>
       </c>
+      <c r="O7" s="11" t="s">
+        <v>33</v>
+      </c>
       <c r="P7" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="Q7" s="0"/>
       <c r="R7" s="0"/>
@@ -6034,40 +5880,1044 @@
       <c r="B8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="K8" s="16"/>
-      <c r="L8" s="16"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="I8" s="13"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
       <c r="M8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N8" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="N8" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="O8" s="12" t="s">
+      <c r="O8" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="P8" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="P8" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="Q8" s="0"/>
       <c r="R8" s="0"/>
+      <c r="S8" s="0"/>
+      <c r="T8" s="0"/>
+      <c r="U8" s="0"/>
+      <c r="V8" s="0"/>
+      <c r="W8" s="0"/>
+      <c r="X8" s="0"/>
+      <c r="Y8" s="0"/>
+      <c r="Z8" s="0"/>
+      <c r="AA8" s="0"/>
+      <c r="AB8" s="0"/>
+      <c r="AC8" s="0"/>
+      <c r="AD8" s="0"/>
+      <c r="AE8" s="0"/>
+      <c r="AF8" s="0"/>
+      <c r="AG8" s="0"/>
+      <c r="AH8" s="0"/>
+      <c r="AI8" s="0"/>
+      <c r="AJ8" s="0"/>
+      <c r="AK8" s="0"/>
+      <c r="AL8" s="0"/>
+      <c r="AM8" s="0"/>
+      <c r="AN8" s="0"/>
+      <c r="AO8" s="0"/>
+      <c r="AP8" s="0"/>
+      <c r="AQ8" s="0"/>
+      <c r="AR8" s="0"/>
+      <c r="AS8" s="0"/>
+      <c r="AT8" s="0"/>
+      <c r="AU8" s="0"/>
+      <c r="AV8" s="0"/>
+      <c r="AW8" s="0"/>
+      <c r="AX8" s="0"/>
+      <c r="AY8" s="0"/>
+      <c r="AZ8" s="0"/>
+      <c r="BA8" s="0"/>
+      <c r="BB8" s="0"/>
+      <c r="BC8" s="0"/>
+      <c r="BD8" s="0"/>
+      <c r="BE8" s="0"/>
+      <c r="BF8" s="0"/>
+      <c r="BG8" s="0"/>
+      <c r="BH8" s="0"/>
+      <c r="BI8" s="0"/>
+      <c r="BJ8" s="0"/>
+      <c r="BK8" s="0"/>
+      <c r="BL8" s="0"/>
+      <c r="BM8" s="0"/>
+      <c r="BN8" s="0"/>
+      <c r="BO8" s="0"/>
+      <c r="BP8" s="0"/>
+      <c r="BQ8" s="0"/>
+      <c r="BR8" s="0"/>
+      <c r="BS8" s="0"/>
+      <c r="BT8" s="0"/>
+      <c r="BU8" s="0"/>
+      <c r="BV8" s="0"/>
+      <c r="BW8" s="0"/>
+      <c r="BX8" s="0"/>
+      <c r="BY8" s="0"/>
+      <c r="BZ8" s="0"/>
+      <c r="CA8" s="0"/>
+      <c r="CB8" s="0"/>
+      <c r="CC8" s="0"/>
+      <c r="CD8" s="0"/>
+      <c r="CE8" s="0"/>
+      <c r="CF8" s="0"/>
+      <c r="CG8" s="0"/>
+      <c r="CH8" s="0"/>
+      <c r="CI8" s="0"/>
+      <c r="CJ8" s="0"/>
+      <c r="CK8" s="0"/>
+      <c r="CL8" s="0"/>
+      <c r="CM8" s="0"/>
+      <c r="CN8" s="0"/>
+      <c r="CO8" s="0"/>
+      <c r="CP8" s="0"/>
+      <c r="CQ8" s="0"/>
+      <c r="CR8" s="0"/>
+      <c r="CS8" s="0"/>
+      <c r="CT8" s="0"/>
+      <c r="CU8" s="0"/>
+      <c r="CV8" s="0"/>
+      <c r="CW8" s="0"/>
+      <c r="CX8" s="0"/>
+      <c r="CY8" s="0"/>
+      <c r="CZ8" s="0"/>
+      <c r="DA8" s="0"/>
+      <c r="DB8" s="0"/>
+      <c r="DC8" s="0"/>
+      <c r="DD8" s="0"/>
+      <c r="DE8" s="0"/>
+      <c r="DF8" s="0"/>
+      <c r="DG8" s="0"/>
+      <c r="DH8" s="0"/>
+      <c r="DI8" s="0"/>
+      <c r="DJ8" s="0"/>
+      <c r="DK8" s="0"/>
+      <c r="DL8" s="0"/>
+      <c r="DM8" s="0"/>
+      <c r="DN8" s="0"/>
+      <c r="DO8" s="0"/>
+      <c r="DP8" s="0"/>
+      <c r="DQ8" s="0"/>
+      <c r="DR8" s="0"/>
+      <c r="DS8" s="0"/>
+      <c r="DT8" s="0"/>
+      <c r="DU8" s="0"/>
+      <c r="DV8" s="0"/>
+      <c r="DW8" s="0"/>
+      <c r="DX8" s="0"/>
+      <c r="DY8" s="0"/>
+      <c r="DZ8" s="0"/>
+      <c r="EA8" s="0"/>
+      <c r="EB8" s="0"/>
+      <c r="EC8" s="0"/>
+      <c r="ED8" s="0"/>
+      <c r="EE8" s="0"/>
+      <c r="EF8" s="0"/>
+      <c r="EG8" s="0"/>
+      <c r="EH8" s="0"/>
+      <c r="EI8" s="0"/>
+      <c r="EJ8" s="0"/>
+      <c r="EK8" s="0"/>
+      <c r="EL8" s="0"/>
+      <c r="EM8" s="0"/>
+      <c r="EN8" s="0"/>
+      <c r="EO8" s="0"/>
+      <c r="EP8" s="0"/>
+      <c r="EQ8" s="0"/>
+      <c r="ER8" s="0"/>
+      <c r="ES8" s="0"/>
+      <c r="ET8" s="0"/>
+      <c r="EU8" s="0"/>
+      <c r="EV8" s="0"/>
+      <c r="EW8" s="0"/>
+      <c r="EX8" s="0"/>
+      <c r="EY8" s="0"/>
+      <c r="EZ8" s="0"/>
+      <c r="FA8" s="0"/>
+      <c r="FB8" s="0"/>
+      <c r="FC8" s="0"/>
+      <c r="FD8" s="0"/>
+      <c r="FE8" s="0"/>
+      <c r="FF8" s="0"/>
+      <c r="FG8" s="0"/>
+      <c r="FH8" s="0"/>
+      <c r="FI8" s="0"/>
+      <c r="FJ8" s="0"/>
+      <c r="FK8" s="0"/>
+      <c r="FL8" s="0"/>
+      <c r="FM8" s="0"/>
+      <c r="FN8" s="0"/>
+      <c r="FO8" s="0"/>
+      <c r="FP8" s="0"/>
+      <c r="FQ8" s="0"/>
+      <c r="FR8" s="0"/>
+      <c r="FS8" s="0"/>
+      <c r="FT8" s="0"/>
+      <c r="FU8" s="0"/>
+      <c r="FV8" s="0"/>
+      <c r="FW8" s="0"/>
+      <c r="FX8" s="0"/>
+      <c r="FY8" s="0"/>
+      <c r="FZ8" s="0"/>
+      <c r="GA8" s="0"/>
+      <c r="GB8" s="0"/>
+      <c r="GC8" s="0"/>
+      <c r="GD8" s="0"/>
+      <c r="GE8" s="0"/>
+      <c r="GF8" s="0"/>
+      <c r="GG8" s="0"/>
+      <c r="GH8" s="0"/>
+      <c r="GI8" s="0"/>
+      <c r="GJ8" s="0"/>
+      <c r="GK8" s="0"/>
+      <c r="GL8" s="0"/>
+      <c r="GM8" s="0"/>
+      <c r="GN8" s="0"/>
+      <c r="GO8" s="0"/>
+      <c r="GP8" s="0"/>
+      <c r="GQ8" s="0"/>
+      <c r="GR8" s="0"/>
+      <c r="GS8" s="0"/>
+      <c r="GT8" s="0"/>
+      <c r="GU8" s="0"/>
+      <c r="GV8" s="0"/>
+      <c r="GW8" s="0"/>
+      <c r="GX8" s="0"/>
+      <c r="GY8" s="0"/>
+      <c r="GZ8" s="0"/>
+      <c r="HA8" s="0"/>
+      <c r="HB8" s="0"/>
+      <c r="HC8" s="0"/>
+      <c r="HD8" s="0"/>
+      <c r="HE8" s="0"/>
+      <c r="HF8" s="0"/>
+      <c r="HG8" s="0"/>
+      <c r="HH8" s="0"/>
+      <c r="HI8" s="0"/>
+      <c r="HJ8" s="0"/>
+      <c r="HK8" s="0"/>
+      <c r="HL8" s="0"/>
+      <c r="HM8" s="0"/>
+      <c r="HN8" s="0"/>
+      <c r="HO8" s="0"/>
+      <c r="HP8" s="0"/>
+      <c r="HQ8" s="0"/>
+      <c r="HR8" s="0"/>
+      <c r="HS8" s="0"/>
+      <c r="HT8" s="0"/>
+      <c r="HU8" s="0"/>
+      <c r="HV8" s="0"/>
+      <c r="HW8" s="0"/>
+      <c r="HX8" s="0"/>
+      <c r="HY8" s="0"/>
+      <c r="HZ8" s="0"/>
+      <c r="IA8" s="0"/>
+      <c r="IB8" s="0"/>
+      <c r="IC8" s="0"/>
+      <c r="ID8" s="0"/>
+      <c r="IE8" s="0"/>
+      <c r="IF8" s="0"/>
+      <c r="IG8" s="0"/>
+      <c r="IH8" s="0"/>
+      <c r="II8" s="0"/>
+      <c r="IJ8" s="0"/>
+      <c r="IK8" s="0"/>
+      <c r="IL8" s="0"/>
+      <c r="IM8" s="0"/>
+      <c r="IN8" s="0"/>
+      <c r="IO8" s="0"/>
+      <c r="IP8" s="0"/>
+      <c r="IQ8" s="0"/>
+      <c r="IR8" s="0"/>
+      <c r="IS8" s="0"/>
+      <c r="IT8" s="0"/>
+      <c r="IU8" s="0"/>
+      <c r="IV8" s="0"/>
+      <c r="IW8" s="0"/>
+      <c r="IX8" s="0"/>
+      <c r="IY8" s="0"/>
+      <c r="IZ8" s="0"/>
+      <c r="JA8" s="0"/>
+      <c r="JB8" s="0"/>
+      <c r="JC8" s="0"/>
+      <c r="JD8" s="0"/>
+      <c r="JE8" s="0"/>
+      <c r="JF8" s="0"/>
+      <c r="JG8" s="0"/>
+      <c r="JH8" s="0"/>
+      <c r="JI8" s="0"/>
+      <c r="JJ8" s="0"/>
+      <c r="JK8" s="0"/>
+      <c r="JL8" s="0"/>
+      <c r="JM8" s="0"/>
+      <c r="JN8" s="0"/>
+      <c r="JO8" s="0"/>
+      <c r="JP8" s="0"/>
+      <c r="JQ8" s="0"/>
+      <c r="JR8" s="0"/>
+      <c r="JS8" s="0"/>
+      <c r="JT8" s="0"/>
+      <c r="JU8" s="0"/>
+      <c r="JV8" s="0"/>
+      <c r="JW8" s="0"/>
+      <c r="JX8" s="0"/>
+      <c r="JY8" s="0"/>
+      <c r="JZ8" s="0"/>
+      <c r="KA8" s="0"/>
+      <c r="KB8" s="0"/>
+      <c r="KC8" s="0"/>
+      <c r="KD8" s="0"/>
+      <c r="KE8" s="0"/>
+      <c r="KF8" s="0"/>
+      <c r="KG8" s="0"/>
+      <c r="KH8" s="0"/>
+      <c r="KI8" s="0"/>
+      <c r="KJ8" s="0"/>
+      <c r="KK8" s="0"/>
+      <c r="KL8" s="0"/>
+      <c r="KM8" s="0"/>
+      <c r="KN8" s="0"/>
+      <c r="KO8" s="0"/>
+      <c r="KP8" s="0"/>
+      <c r="KQ8" s="0"/>
+      <c r="KR8" s="0"/>
+      <c r="KS8" s="0"/>
+      <c r="KT8" s="0"/>
+      <c r="KU8" s="0"/>
+      <c r="KV8" s="0"/>
+      <c r="KW8" s="0"/>
+      <c r="KX8" s="0"/>
+      <c r="KY8" s="0"/>
+      <c r="KZ8" s="0"/>
+      <c r="LA8" s="0"/>
+      <c r="LB8" s="0"/>
+      <c r="LC8" s="0"/>
+      <c r="LD8" s="0"/>
+      <c r="LE8" s="0"/>
+      <c r="LF8" s="0"/>
+      <c r="LG8" s="0"/>
+      <c r="LH8" s="0"/>
+      <c r="LI8" s="0"/>
+      <c r="LJ8" s="0"/>
+      <c r="LK8" s="0"/>
+      <c r="LL8" s="0"/>
+      <c r="LM8" s="0"/>
+      <c r="LN8" s="0"/>
+      <c r="LO8" s="0"/>
+      <c r="LP8" s="0"/>
+      <c r="LQ8" s="0"/>
+      <c r="LR8" s="0"/>
+      <c r="LS8" s="0"/>
+      <c r="LT8" s="0"/>
+      <c r="LU8" s="0"/>
+      <c r="LV8" s="0"/>
+      <c r="LW8" s="0"/>
+      <c r="LX8" s="0"/>
+      <c r="LY8" s="0"/>
+      <c r="LZ8" s="0"/>
+      <c r="MA8" s="0"/>
+      <c r="MB8" s="0"/>
+      <c r="MC8" s="0"/>
+      <c r="MD8" s="0"/>
+      <c r="ME8" s="0"/>
+      <c r="MF8" s="0"/>
+      <c r="MG8" s="0"/>
+      <c r="MH8" s="0"/>
+      <c r="MI8" s="0"/>
+      <c r="MJ8" s="0"/>
+      <c r="MK8" s="0"/>
+      <c r="ML8" s="0"/>
+      <c r="MM8" s="0"/>
+      <c r="MN8" s="0"/>
+      <c r="MO8" s="0"/>
+      <c r="MP8" s="0"/>
+      <c r="MQ8" s="0"/>
+      <c r="MR8" s="0"/>
+      <c r="MS8" s="0"/>
+      <c r="MT8" s="0"/>
+      <c r="MU8" s="0"/>
+      <c r="MV8" s="0"/>
+      <c r="MW8" s="0"/>
+      <c r="MX8" s="0"/>
+      <c r="MY8" s="0"/>
+      <c r="MZ8" s="0"/>
+      <c r="NA8" s="0"/>
+      <c r="NB8" s="0"/>
+      <c r="NC8" s="0"/>
+      <c r="ND8" s="0"/>
+      <c r="NE8" s="0"/>
+      <c r="NF8" s="0"/>
+      <c r="NG8" s="0"/>
+      <c r="NH8" s="0"/>
+      <c r="NI8" s="0"/>
+      <c r="NJ8" s="0"/>
+      <c r="NK8" s="0"/>
+      <c r="NL8" s="0"/>
+      <c r="NM8" s="0"/>
+      <c r="NN8" s="0"/>
+      <c r="NO8" s="0"/>
+      <c r="NP8" s="0"/>
+      <c r="NQ8" s="0"/>
+      <c r="NR8" s="0"/>
+      <c r="NS8" s="0"/>
+      <c r="NT8" s="0"/>
+      <c r="NU8" s="0"/>
+      <c r="NV8" s="0"/>
+      <c r="NW8" s="0"/>
+      <c r="NX8" s="0"/>
+      <c r="NY8" s="0"/>
+      <c r="NZ8" s="0"/>
+      <c r="OA8" s="0"/>
+      <c r="OB8" s="0"/>
+      <c r="OC8" s="0"/>
+      <c r="OD8" s="0"/>
+      <c r="OE8" s="0"/>
+      <c r="OF8" s="0"/>
+      <c r="OG8" s="0"/>
+      <c r="OH8" s="0"/>
+      <c r="OI8" s="0"/>
+      <c r="OJ8" s="0"/>
+      <c r="OK8" s="0"/>
+      <c r="OL8" s="0"/>
+      <c r="OM8" s="0"/>
+      <c r="ON8" s="0"/>
+      <c r="OO8" s="0"/>
+      <c r="OP8" s="0"/>
+      <c r="OQ8" s="0"/>
+      <c r="OR8" s="0"/>
+      <c r="OS8" s="0"/>
+      <c r="OT8" s="0"/>
+      <c r="OU8" s="0"/>
+      <c r="OV8" s="0"/>
+      <c r="OW8" s="0"/>
+      <c r="OX8" s="0"/>
+      <c r="OY8" s="0"/>
+      <c r="OZ8" s="0"/>
+      <c r="PA8" s="0"/>
+      <c r="PB8" s="0"/>
+      <c r="PC8" s="0"/>
+      <c r="PD8" s="0"/>
+      <c r="PE8" s="0"/>
+      <c r="PF8" s="0"/>
+      <c r="PG8" s="0"/>
+      <c r="PH8" s="0"/>
+      <c r="PI8" s="0"/>
+      <c r="PJ8" s="0"/>
+      <c r="PK8" s="0"/>
+      <c r="PL8" s="0"/>
+      <c r="PM8" s="0"/>
+      <c r="PN8" s="0"/>
+      <c r="PO8" s="0"/>
+      <c r="PP8" s="0"/>
+      <c r="PQ8" s="0"/>
+      <c r="PR8" s="0"/>
+      <c r="PS8" s="0"/>
+      <c r="PT8" s="0"/>
+      <c r="PU8" s="0"/>
+      <c r="PV8" s="0"/>
+      <c r="PW8" s="0"/>
+      <c r="PX8" s="0"/>
+      <c r="PY8" s="0"/>
+      <c r="PZ8" s="0"/>
+      <c r="QA8" s="0"/>
+      <c r="QB8" s="0"/>
+      <c r="QC8" s="0"/>
+      <c r="QD8" s="0"/>
+      <c r="QE8" s="0"/>
+      <c r="QF8" s="0"/>
+      <c r="QG8" s="0"/>
+      <c r="QH8" s="0"/>
+      <c r="QI8" s="0"/>
+      <c r="QJ8" s="0"/>
+      <c r="QK8" s="0"/>
+      <c r="QL8" s="0"/>
+      <c r="QM8" s="0"/>
+      <c r="QN8" s="0"/>
+      <c r="QO8" s="0"/>
+      <c r="QP8" s="0"/>
+      <c r="QQ8" s="0"/>
+      <c r="QR8" s="0"/>
+      <c r="QS8" s="0"/>
+      <c r="QT8" s="0"/>
+      <c r="QU8" s="0"/>
+      <c r="QV8" s="0"/>
+      <c r="QW8" s="0"/>
+      <c r="QX8" s="0"/>
+      <c r="QY8" s="0"/>
+      <c r="QZ8" s="0"/>
+      <c r="RA8" s="0"/>
+      <c r="RB8" s="0"/>
+      <c r="RC8" s="0"/>
+      <c r="RD8" s="0"/>
+      <c r="RE8" s="0"/>
+      <c r="RF8" s="0"/>
+      <c r="RG8" s="0"/>
+      <c r="RH8" s="0"/>
+      <c r="RI8" s="0"/>
+      <c r="RJ8" s="0"/>
+      <c r="RK8" s="0"/>
+      <c r="RL8" s="0"/>
+      <c r="RM8" s="0"/>
+      <c r="RN8" s="0"/>
+      <c r="RO8" s="0"/>
+      <c r="RP8" s="0"/>
+      <c r="RQ8" s="0"/>
+      <c r="RR8" s="0"/>
+      <c r="RS8" s="0"/>
+      <c r="RT8" s="0"/>
+      <c r="RU8" s="0"/>
+      <c r="RV8" s="0"/>
+      <c r="RW8" s="0"/>
+      <c r="RX8" s="0"/>
+      <c r="RY8" s="0"/>
+      <c r="RZ8" s="0"/>
+      <c r="SA8" s="0"/>
+      <c r="SB8" s="0"/>
+      <c r="SC8" s="0"/>
+      <c r="SD8" s="0"/>
+      <c r="SE8" s="0"/>
+      <c r="SF8" s="0"/>
+      <c r="SG8" s="0"/>
+      <c r="SH8" s="0"/>
+      <c r="SI8" s="0"/>
+      <c r="SJ8" s="0"/>
+      <c r="SK8" s="0"/>
+      <c r="SL8" s="0"/>
+      <c r="SM8" s="0"/>
+      <c r="SN8" s="0"/>
+      <c r="SO8" s="0"/>
+      <c r="SP8" s="0"/>
+      <c r="SQ8" s="0"/>
+      <c r="SR8" s="0"/>
+      <c r="SS8" s="0"/>
+      <c r="ST8" s="0"/>
+      <c r="SU8" s="0"/>
+      <c r="SV8" s="0"/>
+      <c r="SW8" s="0"/>
+      <c r="SX8" s="0"/>
+      <c r="SY8" s="0"/>
+      <c r="SZ8" s="0"/>
+      <c r="TA8" s="0"/>
+      <c r="TB8" s="0"/>
+      <c r="TC8" s="0"/>
+      <c r="TD8" s="0"/>
+      <c r="TE8" s="0"/>
+      <c r="TF8" s="0"/>
+      <c r="TG8" s="0"/>
+      <c r="TH8" s="0"/>
+      <c r="TI8" s="0"/>
+      <c r="TJ8" s="0"/>
+      <c r="TK8" s="0"/>
+      <c r="TL8" s="0"/>
+      <c r="TM8" s="0"/>
+      <c r="TN8" s="0"/>
+      <c r="TO8" s="0"/>
+      <c r="TP8" s="0"/>
+      <c r="TQ8" s="0"/>
+      <c r="TR8" s="0"/>
+      <c r="TS8" s="0"/>
+      <c r="TT8" s="0"/>
+      <c r="TU8" s="0"/>
+      <c r="TV8" s="0"/>
+      <c r="TW8" s="0"/>
+      <c r="TX8" s="0"/>
+      <c r="TY8" s="0"/>
+      <c r="TZ8" s="0"/>
+      <c r="UA8" s="0"/>
+      <c r="UB8" s="0"/>
+      <c r="UC8" s="0"/>
+      <c r="UD8" s="0"/>
+      <c r="UE8" s="0"/>
+      <c r="UF8" s="0"/>
+      <c r="UG8" s="0"/>
+      <c r="UH8" s="0"/>
+      <c r="UI8" s="0"/>
+      <c r="UJ8" s="0"/>
+      <c r="UK8" s="0"/>
+      <c r="UL8" s="0"/>
+      <c r="UM8" s="0"/>
+      <c r="UN8" s="0"/>
+      <c r="UO8" s="0"/>
+      <c r="UP8" s="0"/>
+      <c r="UQ8" s="0"/>
+      <c r="UR8" s="0"/>
+      <c r="US8" s="0"/>
+      <c r="UT8" s="0"/>
+      <c r="UU8" s="0"/>
+      <c r="UV8" s="0"/>
+      <c r="UW8" s="0"/>
+      <c r="UX8" s="0"/>
+      <c r="UY8" s="0"/>
+      <c r="UZ8" s="0"/>
+      <c r="VA8" s="0"/>
+      <c r="VB8" s="0"/>
+      <c r="VC8" s="0"/>
+      <c r="VD8" s="0"/>
+      <c r="VE8" s="0"/>
+      <c r="VF8" s="0"/>
+      <c r="VG8" s="0"/>
+      <c r="VH8" s="0"/>
+      <c r="VI8" s="0"/>
+      <c r="VJ8" s="0"/>
+      <c r="VK8" s="0"/>
+      <c r="VL8" s="0"/>
+      <c r="VM8" s="0"/>
+      <c r="VN8" s="0"/>
+      <c r="VO8" s="0"/>
+      <c r="VP8" s="0"/>
+      <c r="VQ8" s="0"/>
+      <c r="VR8" s="0"/>
+      <c r="VS8" s="0"/>
+      <c r="VT8" s="0"/>
+      <c r="VU8" s="0"/>
+      <c r="VV8" s="0"/>
+      <c r="VW8" s="0"/>
+      <c r="VX8" s="0"/>
+      <c r="VY8" s="0"/>
+      <c r="VZ8" s="0"/>
+      <c r="WA8" s="0"/>
+      <c r="WB8" s="0"/>
+      <c r="WC8" s="0"/>
+      <c r="WD8" s="0"/>
+      <c r="WE8" s="0"/>
+      <c r="WF8" s="0"/>
+      <c r="WG8" s="0"/>
+      <c r="WH8" s="0"/>
+      <c r="WI8" s="0"/>
+      <c r="WJ8" s="0"/>
+      <c r="WK8" s="0"/>
+      <c r="WL8" s="0"/>
+      <c r="WM8" s="0"/>
+      <c r="WN8" s="0"/>
+      <c r="WO8" s="0"/>
+      <c r="WP8" s="0"/>
+      <c r="WQ8" s="0"/>
+      <c r="WR8" s="0"/>
+      <c r="WS8" s="0"/>
+      <c r="WT8" s="0"/>
+      <c r="WU8" s="0"/>
+      <c r="WV8" s="0"/>
+      <c r="WW8" s="0"/>
+      <c r="WX8" s="0"/>
+      <c r="WY8" s="0"/>
+      <c r="WZ8" s="0"/>
+      <c r="XA8" s="0"/>
+      <c r="XB8" s="0"/>
+      <c r="XC8" s="0"/>
+      <c r="XD8" s="0"/>
+      <c r="XE8" s="0"/>
+      <c r="XF8" s="0"/>
+      <c r="XG8" s="0"/>
+      <c r="XH8" s="0"/>
+      <c r="XI8" s="0"/>
+      <c r="XJ8" s="0"/>
+      <c r="XK8" s="0"/>
+      <c r="XL8" s="0"/>
+      <c r="XM8" s="0"/>
+      <c r="XN8" s="0"/>
+      <c r="XO8" s="0"/>
+      <c r="XP8" s="0"/>
+      <c r="XQ8" s="0"/>
+      <c r="XR8" s="0"/>
+      <c r="XS8" s="0"/>
+      <c r="XT8" s="0"/>
+      <c r="XU8" s="0"/>
+      <c r="XV8" s="0"/>
+      <c r="XW8" s="0"/>
+      <c r="XX8" s="0"/>
+      <c r="XY8" s="0"/>
+      <c r="XZ8" s="0"/>
+      <c r="YA8" s="0"/>
+      <c r="YB8" s="0"/>
+      <c r="YC8" s="0"/>
+      <c r="YD8" s="0"/>
+      <c r="YE8" s="0"/>
+      <c r="YF8" s="0"/>
+      <c r="YG8" s="0"/>
+      <c r="YH8" s="0"/>
+      <c r="YI8" s="0"/>
+      <c r="YJ8" s="0"/>
+      <c r="YK8" s="0"/>
+      <c r="YL8" s="0"/>
+      <c r="YM8" s="0"/>
+      <c r="YN8" s="0"/>
+      <c r="YO8" s="0"/>
+      <c r="YP8" s="0"/>
+      <c r="YQ8" s="0"/>
+      <c r="YR8" s="0"/>
+      <c r="YS8" s="0"/>
+      <c r="YT8" s="0"/>
+      <c r="YU8" s="0"/>
+      <c r="YV8" s="0"/>
+      <c r="YW8" s="0"/>
+      <c r="YX8" s="0"/>
+      <c r="YY8" s="0"/>
+      <c r="YZ8" s="0"/>
+      <c r="ZA8" s="0"/>
+      <c r="ZB8" s="0"/>
+      <c r="ZC8" s="0"/>
+      <c r="ZD8" s="0"/>
+      <c r="ZE8" s="0"/>
+      <c r="ZF8" s="0"/>
+      <c r="ZG8" s="0"/>
+      <c r="ZH8" s="0"/>
+      <c r="ZI8" s="0"/>
+      <c r="ZJ8" s="0"/>
+      <c r="ZK8" s="0"/>
+      <c r="ZL8" s="0"/>
+      <c r="ZM8" s="0"/>
+      <c r="ZN8" s="0"/>
+      <c r="ZO8" s="0"/>
+      <c r="ZP8" s="0"/>
+      <c r="ZQ8" s="0"/>
+      <c r="ZR8" s="0"/>
+      <c r="ZS8" s="0"/>
+      <c r="ZT8" s="0"/>
+      <c r="ZU8" s="0"/>
+      <c r="ZV8" s="0"/>
+      <c r="ZW8" s="0"/>
+      <c r="ZX8" s="0"/>
+      <c r="ZY8" s="0"/>
+      <c r="ZZ8" s="0"/>
+      <c r="AAA8" s="0"/>
+      <c r="AAB8" s="0"/>
+      <c r="AAC8" s="0"/>
+      <c r="AAD8" s="0"/>
+      <c r="AAE8" s="0"/>
+      <c r="AAF8" s="0"/>
+      <c r="AAG8" s="0"/>
+      <c r="AAH8" s="0"/>
+      <c r="AAI8" s="0"/>
+      <c r="AAJ8" s="0"/>
+      <c r="AAK8" s="0"/>
+      <c r="AAL8" s="0"/>
+      <c r="AAM8" s="0"/>
+      <c r="AAN8" s="0"/>
+      <c r="AAO8" s="0"/>
+      <c r="AAP8" s="0"/>
+      <c r="AAQ8" s="0"/>
+      <c r="AAR8" s="0"/>
+      <c r="AAS8" s="0"/>
+      <c r="AAT8" s="0"/>
+      <c r="AAU8" s="0"/>
+      <c r="AAV8" s="0"/>
+      <c r="AAW8" s="0"/>
+      <c r="AAX8" s="0"/>
+      <c r="AAY8" s="0"/>
+      <c r="AAZ8" s="0"/>
+      <c r="ABA8" s="0"/>
+      <c r="ABB8" s="0"/>
+      <c r="ABC8" s="0"/>
+      <c r="ABD8" s="0"/>
+      <c r="ABE8" s="0"/>
+      <c r="ABF8" s="0"/>
+      <c r="ABG8" s="0"/>
+      <c r="ABH8" s="0"/>
+      <c r="ABI8" s="0"/>
+      <c r="ABJ8" s="0"/>
+      <c r="ABK8" s="0"/>
+      <c r="ABL8" s="0"/>
+      <c r="ABM8" s="0"/>
+      <c r="ABN8" s="0"/>
+      <c r="ABO8" s="0"/>
+      <c r="ABP8" s="0"/>
+      <c r="ABQ8" s="0"/>
+      <c r="ABR8" s="0"/>
+      <c r="ABS8" s="0"/>
+      <c r="ABT8" s="0"/>
+      <c r="ABU8" s="0"/>
+      <c r="ABV8" s="0"/>
+      <c r="ABW8" s="0"/>
+      <c r="ABX8" s="0"/>
+      <c r="ABY8" s="0"/>
+      <c r="ABZ8" s="0"/>
+      <c r="ACA8" s="0"/>
+      <c r="ACB8" s="0"/>
+      <c r="ACC8" s="0"/>
+      <c r="ACD8" s="0"/>
+      <c r="ACE8" s="0"/>
+      <c r="ACF8" s="0"/>
+      <c r="ACG8" s="0"/>
+      <c r="ACH8" s="0"/>
+      <c r="ACI8" s="0"/>
+      <c r="ACJ8" s="0"/>
+      <c r="ACK8" s="0"/>
+      <c r="ACL8" s="0"/>
+      <c r="ACM8" s="0"/>
+      <c r="ACN8" s="0"/>
+      <c r="ACO8" s="0"/>
+      <c r="ACP8" s="0"/>
+      <c r="ACQ8" s="0"/>
+      <c r="ACR8" s="0"/>
+      <c r="ACS8" s="0"/>
+      <c r="ACT8" s="0"/>
+      <c r="ACU8" s="0"/>
+      <c r="ACV8" s="0"/>
+      <c r="ACW8" s="0"/>
+      <c r="ACX8" s="0"/>
+      <c r="ACY8" s="0"/>
+      <c r="ACZ8" s="0"/>
+      <c r="ADA8" s="0"/>
+      <c r="ADB8" s="0"/>
+      <c r="ADC8" s="0"/>
+      <c r="ADD8" s="0"/>
+      <c r="ADE8" s="0"/>
+      <c r="ADF8" s="0"/>
+      <c r="ADG8" s="0"/>
+      <c r="ADH8" s="0"/>
+      <c r="ADI8" s="0"/>
+      <c r="ADJ8" s="0"/>
+      <c r="ADK8" s="0"/>
+      <c r="ADL8" s="0"/>
+      <c r="ADM8" s="0"/>
+      <c r="ADN8" s="0"/>
+      <c r="ADO8" s="0"/>
+      <c r="ADP8" s="0"/>
+      <c r="ADQ8" s="0"/>
+      <c r="ADR8" s="0"/>
+      <c r="ADS8" s="0"/>
+      <c r="ADT8" s="0"/>
+      <c r="ADU8" s="0"/>
+      <c r="ADV8" s="0"/>
+      <c r="ADW8" s="0"/>
+      <c r="ADX8" s="0"/>
+      <c r="ADY8" s="0"/>
+      <c r="ADZ8" s="0"/>
+      <c r="AEA8" s="0"/>
+      <c r="AEB8" s="0"/>
+      <c r="AEC8" s="0"/>
+      <c r="AED8" s="0"/>
+      <c r="AEE8" s="0"/>
+      <c r="AEF8" s="0"/>
+      <c r="AEG8" s="0"/>
+      <c r="AEH8" s="0"/>
+      <c r="AEI8" s="0"/>
+      <c r="AEJ8" s="0"/>
+      <c r="AEK8" s="0"/>
+      <c r="AEL8" s="0"/>
+      <c r="AEM8" s="0"/>
+      <c r="AEN8" s="0"/>
+      <c r="AEO8" s="0"/>
+      <c r="AEP8" s="0"/>
+      <c r="AEQ8" s="0"/>
+      <c r="AER8" s="0"/>
+      <c r="AES8" s="0"/>
+      <c r="AET8" s="0"/>
+      <c r="AEU8" s="0"/>
+      <c r="AEV8" s="0"/>
+      <c r="AEW8" s="0"/>
+      <c r="AEX8" s="0"/>
+      <c r="AEY8" s="0"/>
+      <c r="AEZ8" s="0"/>
+      <c r="AFA8" s="0"/>
+      <c r="AFB8" s="0"/>
+      <c r="AFC8" s="0"/>
+      <c r="AFD8" s="0"/>
+      <c r="AFE8" s="0"/>
+      <c r="AFF8" s="0"/>
+      <c r="AFG8" s="0"/>
+      <c r="AFH8" s="0"/>
+      <c r="AFI8" s="0"/>
+      <c r="AFJ8" s="0"/>
+      <c r="AFK8" s="0"/>
+      <c r="AFL8" s="0"/>
+      <c r="AFM8" s="0"/>
+      <c r="AFN8" s="0"/>
+      <c r="AFO8" s="0"/>
+      <c r="AFP8" s="0"/>
+      <c r="AFQ8" s="0"/>
+      <c r="AFR8" s="0"/>
+      <c r="AFS8" s="0"/>
+      <c r="AFT8" s="0"/>
+      <c r="AFU8" s="0"/>
+      <c r="AFV8" s="0"/>
+      <c r="AFW8" s="0"/>
+      <c r="AFX8" s="0"/>
+      <c r="AFY8" s="0"/>
+      <c r="AFZ8" s="0"/>
+      <c r="AGA8" s="0"/>
+      <c r="AGB8" s="0"/>
+      <c r="AGC8" s="0"/>
+      <c r="AGD8" s="0"/>
+      <c r="AGE8" s="0"/>
+      <c r="AGF8" s="0"/>
+      <c r="AGG8" s="0"/>
+      <c r="AGH8" s="0"/>
+      <c r="AGI8" s="0"/>
+      <c r="AGJ8" s="0"/>
+      <c r="AGK8" s="0"/>
+      <c r="AGL8" s="0"/>
+      <c r="AGM8" s="0"/>
+      <c r="AGN8" s="0"/>
+      <c r="AGO8" s="0"/>
+      <c r="AGP8" s="0"/>
+      <c r="AGQ8" s="0"/>
+      <c r="AGR8" s="0"/>
+      <c r="AGS8" s="0"/>
+      <c r="AGT8" s="0"/>
+      <c r="AGU8" s="0"/>
+      <c r="AGV8" s="0"/>
+      <c r="AGW8" s="0"/>
+      <c r="AGX8" s="0"/>
+      <c r="AGY8" s="0"/>
+      <c r="AGZ8" s="0"/>
+      <c r="AHA8" s="0"/>
+      <c r="AHB8" s="0"/>
+      <c r="AHC8" s="0"/>
+      <c r="AHD8" s="0"/>
+      <c r="AHE8" s="0"/>
+      <c r="AHF8" s="0"/>
+      <c r="AHG8" s="0"/>
+      <c r="AHH8" s="0"/>
+      <c r="AHI8" s="0"/>
+      <c r="AHJ8" s="0"/>
+      <c r="AHK8" s="0"/>
+      <c r="AHL8" s="0"/>
+      <c r="AHM8" s="0"/>
+      <c r="AHN8" s="0"/>
+      <c r="AHO8" s="0"/>
+      <c r="AHP8" s="0"/>
+      <c r="AHQ8" s="0"/>
+      <c r="AHR8" s="0"/>
+      <c r="AHS8" s="0"/>
+      <c r="AHT8" s="0"/>
+      <c r="AHU8" s="0"/>
+      <c r="AHV8" s="0"/>
+      <c r="AHW8" s="0"/>
+      <c r="AHX8" s="0"/>
+      <c r="AHY8" s="0"/>
+      <c r="AHZ8" s="0"/>
+      <c r="AIA8" s="0"/>
+      <c r="AIB8" s="0"/>
+      <c r="AIC8" s="0"/>
+      <c r="AID8" s="0"/>
+      <c r="AIE8" s="0"/>
+      <c r="AIF8" s="0"/>
+      <c r="AIG8" s="0"/>
+      <c r="AIH8" s="0"/>
+      <c r="AII8" s="0"/>
+      <c r="AIJ8" s="0"/>
+      <c r="AIK8" s="0"/>
+      <c r="AIL8" s="0"/>
+      <c r="AIM8" s="0"/>
+      <c r="AIN8" s="0"/>
+      <c r="AIO8" s="0"/>
+      <c r="AIP8" s="0"/>
+      <c r="AIQ8" s="0"/>
+      <c r="AIR8" s="0"/>
+      <c r="AIS8" s="0"/>
+      <c r="AIT8" s="0"/>
+      <c r="AIU8" s="0"/>
+      <c r="AIV8" s="0"/>
+      <c r="AIW8" s="0"/>
+      <c r="AIX8" s="0"/>
+      <c r="AIY8" s="0"/>
+      <c r="AIZ8" s="0"/>
+      <c r="AJA8" s="0"/>
+      <c r="AJB8" s="0"/>
+      <c r="AJC8" s="0"/>
+      <c r="AJD8" s="0"/>
+      <c r="AJE8" s="0"/>
+      <c r="AJF8" s="0"/>
+      <c r="AJG8" s="0"/>
+      <c r="AJH8" s="0"/>
+      <c r="AJI8" s="0"/>
+      <c r="AJJ8" s="0"/>
+      <c r="AJK8" s="0"/>
+      <c r="AJL8" s="0"/>
+      <c r="AJM8" s="0"/>
+      <c r="AJN8" s="0"/>
+      <c r="AJO8" s="0"/>
+      <c r="AJP8" s="0"/>
+      <c r="AJQ8" s="0"/>
+      <c r="AJR8" s="0"/>
+      <c r="AJS8" s="0"/>
+      <c r="AJT8" s="0"/>
+      <c r="AJU8" s="0"/>
+      <c r="AJV8" s="0"/>
+      <c r="AJW8" s="0"/>
+      <c r="AJX8" s="0"/>
+      <c r="AJY8" s="0"/>
+      <c r="AJZ8" s="0"/>
+      <c r="AKA8" s="0"/>
+      <c r="AKB8" s="0"/>
+      <c r="AKC8" s="0"/>
+      <c r="AKD8" s="0"/>
+      <c r="AKE8" s="0"/>
+      <c r="AKF8" s="0"/>
+      <c r="AKG8" s="0"/>
+      <c r="AKH8" s="0"/>
+      <c r="AKI8" s="0"/>
+      <c r="AKJ8" s="0"/>
+      <c r="AKK8" s="0"/>
+      <c r="AKL8" s="0"/>
+      <c r="AKM8" s="0"/>
+      <c r="AKN8" s="0"/>
+      <c r="AKO8" s="0"/>
+      <c r="AKP8" s="0"/>
+      <c r="AKQ8" s="0"/>
+      <c r="AKR8" s="0"/>
+      <c r="AKS8" s="0"/>
+      <c r="AKT8" s="0"/>
+      <c r="AKU8" s="0"/>
+      <c r="AKV8" s="0"/>
+      <c r="AKW8" s="0"/>
+      <c r="AKX8" s="0"/>
+      <c r="AKY8" s="0"/>
+      <c r="AKZ8" s="0"/>
+      <c r="ALA8" s="0"/>
+      <c r="ALB8" s="0"/>
+      <c r="ALC8" s="0"/>
+      <c r="ALD8" s="0"/>
+      <c r="ALE8" s="0"/>
+      <c r="ALF8" s="0"/>
+      <c r="ALG8" s="0"/>
+      <c r="ALH8" s="0"/>
+      <c r="ALI8" s="0"/>
+      <c r="ALJ8" s="0"/>
+      <c r="ALK8" s="0"/>
+      <c r="ALL8" s="0"/>
+      <c r="ALM8" s="0"/>
+      <c r="ALN8" s="0"/>
+      <c r="ALO8" s="0"/>
+      <c r="ALP8" s="0"/>
+      <c r="ALQ8" s="0"/>
+      <c r="ALR8" s="0"/>
+      <c r="ALS8" s="0"/>
+      <c r="ALT8" s="0"/>
+      <c r="ALU8" s="0"/>
+      <c r="ALV8" s="0"/>
+      <c r="ALW8" s="0"/>
+      <c r="ALX8" s="0"/>
+      <c r="ALY8" s="0"/>
+      <c r="ALZ8" s="0"/>
+      <c r="AMA8" s="0"/>
+      <c r="AMB8" s="0"/>
+      <c r="AMC8" s="0"/>
+      <c r="AMD8" s="0"/>
+      <c r="AME8" s="0"/>
+      <c r="AMF8" s="0"/>
+      <c r="AMG8" s="0"/>
+      <c r="AMH8" s="0"/>
+      <c r="AMI8" s="0"/>
+      <c r="AMJ8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="s">
@@ -6076,38 +6926,1042 @@
       <c r="B9" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
       <c r="M9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N9" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="N9" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="O9" s="12" t="s">
-        <v>37</v>
+      <c r="O9" s="11" t="s">
+        <v>33</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="0"/>
       <c r="R9" s="0"/>
+      <c r="S9" s="0"/>
+      <c r="T9" s="0"/>
+      <c r="U9" s="0"/>
+      <c r="V9" s="0"/>
+      <c r="W9" s="0"/>
+      <c r="X9" s="0"/>
+      <c r="Y9" s="0"/>
+      <c r="Z9" s="0"/>
+      <c r="AA9" s="0"/>
+      <c r="AB9" s="0"/>
+      <c r="AC9" s="0"/>
+      <c r="AD9" s="0"/>
+      <c r="AE9" s="0"/>
+      <c r="AF9" s="0"/>
+      <c r="AG9" s="0"/>
+      <c r="AH9" s="0"/>
+      <c r="AI9" s="0"/>
+      <c r="AJ9" s="0"/>
+      <c r="AK9" s="0"/>
+      <c r="AL9" s="0"/>
+      <c r="AM9" s="0"/>
+      <c r="AN9" s="0"/>
+      <c r="AO9" s="0"/>
+      <c r="AP9" s="0"/>
+      <c r="AQ9" s="0"/>
+      <c r="AR9" s="0"/>
+      <c r="AS9" s="0"/>
+      <c r="AT9" s="0"/>
+      <c r="AU9" s="0"/>
+      <c r="AV9" s="0"/>
+      <c r="AW9" s="0"/>
+      <c r="AX9" s="0"/>
+      <c r="AY9" s="0"/>
+      <c r="AZ9" s="0"/>
+      <c r="BA9" s="0"/>
+      <c r="BB9" s="0"/>
+      <c r="BC9" s="0"/>
+      <c r="BD9" s="0"/>
+      <c r="BE9" s="0"/>
+      <c r="BF9" s="0"/>
+      <c r="BG9" s="0"/>
+      <c r="BH9" s="0"/>
+      <c r="BI9" s="0"/>
+      <c r="BJ9" s="0"/>
+      <c r="BK9" s="0"/>
+      <c r="BL9" s="0"/>
+      <c r="BM9" s="0"/>
+      <c r="BN9" s="0"/>
+      <c r="BO9" s="0"/>
+      <c r="BP9" s="0"/>
+      <c r="BQ9" s="0"/>
+      <c r="BR9" s="0"/>
+      <c r="BS9" s="0"/>
+      <c r="BT9" s="0"/>
+      <c r="BU9" s="0"/>
+      <c r="BV9" s="0"/>
+      <c r="BW9" s="0"/>
+      <c r="BX9" s="0"/>
+      <c r="BY9" s="0"/>
+      <c r="BZ9" s="0"/>
+      <c r="CA9" s="0"/>
+      <c r="CB9" s="0"/>
+      <c r="CC9" s="0"/>
+      <c r="CD9" s="0"/>
+      <c r="CE9" s="0"/>
+      <c r="CF9" s="0"/>
+      <c r="CG9" s="0"/>
+      <c r="CH9" s="0"/>
+      <c r="CI9" s="0"/>
+      <c r="CJ9" s="0"/>
+      <c r="CK9" s="0"/>
+      <c r="CL9" s="0"/>
+      <c r="CM9" s="0"/>
+      <c r="CN9" s="0"/>
+      <c r="CO9" s="0"/>
+      <c r="CP9" s="0"/>
+      <c r="CQ9" s="0"/>
+      <c r="CR9" s="0"/>
+      <c r="CS9" s="0"/>
+      <c r="CT9" s="0"/>
+      <c r="CU9" s="0"/>
+      <c r="CV9" s="0"/>
+      <c r="CW9" s="0"/>
+      <c r="CX9" s="0"/>
+      <c r="CY9" s="0"/>
+      <c r="CZ9" s="0"/>
+      <c r="DA9" s="0"/>
+      <c r="DB9" s="0"/>
+      <c r="DC9" s="0"/>
+      <c r="DD9" s="0"/>
+      <c r="DE9" s="0"/>
+      <c r="DF9" s="0"/>
+      <c r="DG9" s="0"/>
+      <c r="DH9" s="0"/>
+      <c r="DI9" s="0"/>
+      <c r="DJ9" s="0"/>
+      <c r="DK9" s="0"/>
+      <c r="DL9" s="0"/>
+      <c r="DM9" s="0"/>
+      <c r="DN9" s="0"/>
+      <c r="DO9" s="0"/>
+      <c r="DP9" s="0"/>
+      <c r="DQ9" s="0"/>
+      <c r="DR9" s="0"/>
+      <c r="DS9" s="0"/>
+      <c r="DT9" s="0"/>
+      <c r="DU9" s="0"/>
+      <c r="DV9" s="0"/>
+      <c r="DW9" s="0"/>
+      <c r="DX9" s="0"/>
+      <c r="DY9" s="0"/>
+      <c r="DZ9" s="0"/>
+      <c r="EA9" s="0"/>
+      <c r="EB9" s="0"/>
+      <c r="EC9" s="0"/>
+      <c r="ED9" s="0"/>
+      <c r="EE9" s="0"/>
+      <c r="EF9" s="0"/>
+      <c r="EG9" s="0"/>
+      <c r="EH9" s="0"/>
+      <c r="EI9" s="0"/>
+      <c r="EJ9" s="0"/>
+      <c r="EK9" s="0"/>
+      <c r="EL9" s="0"/>
+      <c r="EM9" s="0"/>
+      <c r="EN9" s="0"/>
+      <c r="EO9" s="0"/>
+      <c r="EP9" s="0"/>
+      <c r="EQ9" s="0"/>
+      <c r="ER9" s="0"/>
+      <c r="ES9" s="0"/>
+      <c r="ET9" s="0"/>
+      <c r="EU9" s="0"/>
+      <c r="EV9" s="0"/>
+      <c r="EW9" s="0"/>
+      <c r="EX9" s="0"/>
+      <c r="EY9" s="0"/>
+      <c r="EZ9" s="0"/>
+      <c r="FA9" s="0"/>
+      <c r="FB9" s="0"/>
+      <c r="FC9" s="0"/>
+      <c r="FD9" s="0"/>
+      <c r="FE9" s="0"/>
+      <c r="FF9" s="0"/>
+      <c r="FG9" s="0"/>
+      <c r="FH9" s="0"/>
+      <c r="FI9" s="0"/>
+      <c r="FJ9" s="0"/>
+      <c r="FK9" s="0"/>
+      <c r="FL9" s="0"/>
+      <c r="FM9" s="0"/>
+      <c r="FN9" s="0"/>
+      <c r="FO9" s="0"/>
+      <c r="FP9" s="0"/>
+      <c r="FQ9" s="0"/>
+      <c r="FR9" s="0"/>
+      <c r="FS9" s="0"/>
+      <c r="FT9" s="0"/>
+      <c r="FU9" s="0"/>
+      <c r="FV9" s="0"/>
+      <c r="FW9" s="0"/>
+      <c r="FX9" s="0"/>
+      <c r="FY9" s="0"/>
+      <c r="FZ9" s="0"/>
+      <c r="GA9" s="0"/>
+      <c r="GB9" s="0"/>
+      <c r="GC9" s="0"/>
+      <c r="GD9" s="0"/>
+      <c r="GE9" s="0"/>
+      <c r="GF9" s="0"/>
+      <c r="GG9" s="0"/>
+      <c r="GH9" s="0"/>
+      <c r="GI9" s="0"/>
+      <c r="GJ9" s="0"/>
+      <c r="GK9" s="0"/>
+      <c r="GL9" s="0"/>
+      <c r="GM9" s="0"/>
+      <c r="GN9" s="0"/>
+      <c r="GO9" s="0"/>
+      <c r="GP9" s="0"/>
+      <c r="GQ9" s="0"/>
+      <c r="GR9" s="0"/>
+      <c r="GS9" s="0"/>
+      <c r="GT9" s="0"/>
+      <c r="GU9" s="0"/>
+      <c r="GV9" s="0"/>
+      <c r="GW9" s="0"/>
+      <c r="GX9" s="0"/>
+      <c r="GY9" s="0"/>
+      <c r="GZ9" s="0"/>
+      <c r="HA9" s="0"/>
+      <c r="HB9" s="0"/>
+      <c r="HC9" s="0"/>
+      <c r="HD9" s="0"/>
+      <c r="HE9" s="0"/>
+      <c r="HF9" s="0"/>
+      <c r="HG9" s="0"/>
+      <c r="HH9" s="0"/>
+      <c r="HI9" s="0"/>
+      <c r="HJ9" s="0"/>
+      <c r="HK9" s="0"/>
+      <c r="HL9" s="0"/>
+      <c r="HM9" s="0"/>
+      <c r="HN9" s="0"/>
+      <c r="HO9" s="0"/>
+      <c r="HP9" s="0"/>
+      <c r="HQ9" s="0"/>
+      <c r="HR9" s="0"/>
+      <c r="HS9" s="0"/>
+      <c r="HT9" s="0"/>
+      <c r="HU9" s="0"/>
+      <c r="HV9" s="0"/>
+      <c r="HW9" s="0"/>
+      <c r="HX9" s="0"/>
+      <c r="HY9" s="0"/>
+      <c r="HZ9" s="0"/>
+      <c r="IA9" s="0"/>
+      <c r="IB9" s="0"/>
+      <c r="IC9" s="0"/>
+      <c r="ID9" s="0"/>
+      <c r="IE9" s="0"/>
+      <c r="IF9" s="0"/>
+      <c r="IG9" s="0"/>
+      <c r="IH9" s="0"/>
+      <c r="II9" s="0"/>
+      <c r="IJ9" s="0"/>
+      <c r="IK9" s="0"/>
+      <c r="IL9" s="0"/>
+      <c r="IM9" s="0"/>
+      <c r="IN9" s="0"/>
+      <c r="IO9" s="0"/>
+      <c r="IP9" s="0"/>
+      <c r="IQ9" s="0"/>
+      <c r="IR9" s="0"/>
+      <c r="IS9" s="0"/>
+      <c r="IT9" s="0"/>
+      <c r="IU9" s="0"/>
+      <c r="IV9" s="0"/>
+      <c r="IW9" s="0"/>
+      <c r="IX9" s="0"/>
+      <c r="IY9" s="0"/>
+      <c r="IZ9" s="0"/>
+      <c r="JA9" s="0"/>
+      <c r="JB9" s="0"/>
+      <c r="JC9" s="0"/>
+      <c r="JD9" s="0"/>
+      <c r="JE9" s="0"/>
+      <c r="JF9" s="0"/>
+      <c r="JG9" s="0"/>
+      <c r="JH9" s="0"/>
+      <c r="JI9" s="0"/>
+      <c r="JJ9" s="0"/>
+      <c r="JK9" s="0"/>
+      <c r="JL9" s="0"/>
+      <c r="JM9" s="0"/>
+      <c r="JN9" s="0"/>
+      <c r="JO9" s="0"/>
+      <c r="JP9" s="0"/>
+      <c r="JQ9" s="0"/>
+      <c r="JR9" s="0"/>
+      <c r="JS9" s="0"/>
+      <c r="JT9" s="0"/>
+      <c r="JU9" s="0"/>
+      <c r="JV9" s="0"/>
+      <c r="JW9" s="0"/>
+      <c r="JX9" s="0"/>
+      <c r="JY9" s="0"/>
+      <c r="JZ9" s="0"/>
+      <c r="KA9" s="0"/>
+      <c r="KB9" s="0"/>
+      <c r="KC9" s="0"/>
+      <c r="KD9" s="0"/>
+      <c r="KE9" s="0"/>
+      <c r="KF9" s="0"/>
+      <c r="KG9" s="0"/>
+      <c r="KH9" s="0"/>
+      <c r="KI9" s="0"/>
+      <c r="KJ9" s="0"/>
+      <c r="KK9" s="0"/>
+      <c r="KL9" s="0"/>
+      <c r="KM9" s="0"/>
+      <c r="KN9" s="0"/>
+      <c r="KO9" s="0"/>
+      <c r="KP9" s="0"/>
+      <c r="KQ9" s="0"/>
+      <c r="KR9" s="0"/>
+      <c r="KS9" s="0"/>
+      <c r="KT9" s="0"/>
+      <c r="KU9" s="0"/>
+      <c r="KV9" s="0"/>
+      <c r="KW9" s="0"/>
+      <c r="KX9" s="0"/>
+      <c r="KY9" s="0"/>
+      <c r="KZ9" s="0"/>
+      <c r="LA9" s="0"/>
+      <c r="LB9" s="0"/>
+      <c r="LC9" s="0"/>
+      <c r="LD9" s="0"/>
+      <c r="LE9" s="0"/>
+      <c r="LF9" s="0"/>
+      <c r="LG9" s="0"/>
+      <c r="LH9" s="0"/>
+      <c r="LI9" s="0"/>
+      <c r="LJ9" s="0"/>
+      <c r="LK9" s="0"/>
+      <c r="LL9" s="0"/>
+      <c r="LM9" s="0"/>
+      <c r="LN9" s="0"/>
+      <c r="LO9" s="0"/>
+      <c r="LP9" s="0"/>
+      <c r="LQ9" s="0"/>
+      <c r="LR9" s="0"/>
+      <c r="LS9" s="0"/>
+      <c r="LT9" s="0"/>
+      <c r="LU9" s="0"/>
+      <c r="LV9" s="0"/>
+      <c r="LW9" s="0"/>
+      <c r="LX9" s="0"/>
+      <c r="LY9" s="0"/>
+      <c r="LZ9" s="0"/>
+      <c r="MA9" s="0"/>
+      <c r="MB9" s="0"/>
+      <c r="MC9" s="0"/>
+      <c r="MD9" s="0"/>
+      <c r="ME9" s="0"/>
+      <c r="MF9" s="0"/>
+      <c r="MG9" s="0"/>
+      <c r="MH9" s="0"/>
+      <c r="MI9" s="0"/>
+      <c r="MJ9" s="0"/>
+      <c r="MK9" s="0"/>
+      <c r="ML9" s="0"/>
+      <c r="MM9" s="0"/>
+      <c r="MN9" s="0"/>
+      <c r="MO9" s="0"/>
+      <c r="MP9" s="0"/>
+      <c r="MQ9" s="0"/>
+      <c r="MR9" s="0"/>
+      <c r="MS9" s="0"/>
+      <c r="MT9" s="0"/>
+      <c r="MU9" s="0"/>
+      <c r="MV9" s="0"/>
+      <c r="MW9" s="0"/>
+      <c r="MX9" s="0"/>
+      <c r="MY9" s="0"/>
+      <c r="MZ9" s="0"/>
+      <c r="NA9" s="0"/>
+      <c r="NB9" s="0"/>
+      <c r="NC9" s="0"/>
+      <c r="ND9" s="0"/>
+      <c r="NE9" s="0"/>
+      <c r="NF9" s="0"/>
+      <c r="NG9" s="0"/>
+      <c r="NH9" s="0"/>
+      <c r="NI9" s="0"/>
+      <c r="NJ9" s="0"/>
+      <c r="NK9" s="0"/>
+      <c r="NL9" s="0"/>
+      <c r="NM9" s="0"/>
+      <c r="NN9" s="0"/>
+      <c r="NO9" s="0"/>
+      <c r="NP9" s="0"/>
+      <c r="NQ9" s="0"/>
+      <c r="NR9" s="0"/>
+      <c r="NS9" s="0"/>
+      <c r="NT9" s="0"/>
+      <c r="NU9" s="0"/>
+      <c r="NV9" s="0"/>
+      <c r="NW9" s="0"/>
+      <c r="NX9" s="0"/>
+      <c r="NY9" s="0"/>
+      <c r="NZ9" s="0"/>
+      <c r="OA9" s="0"/>
+      <c r="OB9" s="0"/>
+      <c r="OC9" s="0"/>
+      <c r="OD9" s="0"/>
+      <c r="OE9" s="0"/>
+      <c r="OF9" s="0"/>
+      <c r="OG9" s="0"/>
+      <c r="OH9" s="0"/>
+      <c r="OI9" s="0"/>
+      <c r="OJ9" s="0"/>
+      <c r="OK9" s="0"/>
+      <c r="OL9" s="0"/>
+      <c r="OM9" s="0"/>
+      <c r="ON9" s="0"/>
+      <c r="OO9" s="0"/>
+      <c r="OP9" s="0"/>
+      <c r="OQ9" s="0"/>
+      <c r="OR9" s="0"/>
+      <c r="OS9" s="0"/>
+      <c r="OT9" s="0"/>
+      <c r="OU9" s="0"/>
+      <c r="OV9" s="0"/>
+      <c r="OW9" s="0"/>
+      <c r="OX9" s="0"/>
+      <c r="OY9" s="0"/>
+      <c r="OZ9" s="0"/>
+      <c r="PA9" s="0"/>
+      <c r="PB9" s="0"/>
+      <c r="PC9" s="0"/>
+      <c r="PD9" s="0"/>
+      <c r="PE9" s="0"/>
+      <c r="PF9" s="0"/>
+      <c r="PG9" s="0"/>
+      <c r="PH9" s="0"/>
+      <c r="PI9" s="0"/>
+      <c r="PJ9" s="0"/>
+      <c r="PK9" s="0"/>
+      <c r="PL9" s="0"/>
+      <c r="PM9" s="0"/>
+      <c r="PN9" s="0"/>
+      <c r="PO9" s="0"/>
+      <c r="PP9" s="0"/>
+      <c r="PQ9" s="0"/>
+      <c r="PR9" s="0"/>
+      <c r="PS9" s="0"/>
+      <c r="PT9" s="0"/>
+      <c r="PU9" s="0"/>
+      <c r="PV9" s="0"/>
+      <c r="PW9" s="0"/>
+      <c r="PX9" s="0"/>
+      <c r="PY9" s="0"/>
+      <c r="PZ9" s="0"/>
+      <c r="QA9" s="0"/>
+      <c r="QB9" s="0"/>
+      <c r="QC9" s="0"/>
+      <c r="QD9" s="0"/>
+      <c r="QE9" s="0"/>
+      <c r="QF9" s="0"/>
+      <c r="QG9" s="0"/>
+      <c r="QH9" s="0"/>
+      <c r="QI9" s="0"/>
+      <c r="QJ9" s="0"/>
+      <c r="QK9" s="0"/>
+      <c r="QL9" s="0"/>
+      <c r="QM9" s="0"/>
+      <c r="QN9" s="0"/>
+      <c r="QO9" s="0"/>
+      <c r="QP9" s="0"/>
+      <c r="QQ9" s="0"/>
+      <c r="QR9" s="0"/>
+      <c r="QS9" s="0"/>
+      <c r="QT9" s="0"/>
+      <c r="QU9" s="0"/>
+      <c r="QV9" s="0"/>
+      <c r="QW9" s="0"/>
+      <c r="QX9" s="0"/>
+      <c r="QY9" s="0"/>
+      <c r="QZ9" s="0"/>
+      <c r="RA9" s="0"/>
+      <c r="RB9" s="0"/>
+      <c r="RC9" s="0"/>
+      <c r="RD9" s="0"/>
+      <c r="RE9" s="0"/>
+      <c r="RF9" s="0"/>
+      <c r="RG9" s="0"/>
+      <c r="RH9" s="0"/>
+      <c r="RI9" s="0"/>
+      <c r="RJ9" s="0"/>
+      <c r="RK9" s="0"/>
+      <c r="RL9" s="0"/>
+      <c r="RM9" s="0"/>
+      <c r="RN9" s="0"/>
+      <c r="RO9" s="0"/>
+      <c r="RP9" s="0"/>
+      <c r="RQ9" s="0"/>
+      <c r="RR9" s="0"/>
+      <c r="RS9" s="0"/>
+      <c r="RT9" s="0"/>
+      <c r="RU9" s="0"/>
+      <c r="RV9" s="0"/>
+      <c r="RW9" s="0"/>
+      <c r="RX9" s="0"/>
+      <c r="RY9" s="0"/>
+      <c r="RZ9" s="0"/>
+      <c r="SA9" s="0"/>
+      <c r="SB9" s="0"/>
+      <c r="SC9" s="0"/>
+      <c r="SD9" s="0"/>
+      <c r="SE9" s="0"/>
+      <c r="SF9" s="0"/>
+      <c r="SG9" s="0"/>
+      <c r="SH9" s="0"/>
+      <c r="SI9" s="0"/>
+      <c r="SJ9" s="0"/>
+      <c r="SK9" s="0"/>
+      <c r="SL9" s="0"/>
+      <c r="SM9" s="0"/>
+      <c r="SN9" s="0"/>
+      <c r="SO9" s="0"/>
+      <c r="SP9" s="0"/>
+      <c r="SQ9" s="0"/>
+      <c r="SR9" s="0"/>
+      <c r="SS9" s="0"/>
+      <c r="ST9" s="0"/>
+      <c r="SU9" s="0"/>
+      <c r="SV9" s="0"/>
+      <c r="SW9" s="0"/>
+      <c r="SX9" s="0"/>
+      <c r="SY9" s="0"/>
+      <c r="SZ9" s="0"/>
+      <c r="TA9" s="0"/>
+      <c r="TB9" s="0"/>
+      <c r="TC9" s="0"/>
+      <c r="TD9" s="0"/>
+      <c r="TE9" s="0"/>
+      <c r="TF9" s="0"/>
+      <c r="TG9" s="0"/>
+      <c r="TH9" s="0"/>
+      <c r="TI9" s="0"/>
+      <c r="TJ9" s="0"/>
+      <c r="TK9" s="0"/>
+      <c r="TL9" s="0"/>
+      <c r="TM9" s="0"/>
+      <c r="TN9" s="0"/>
+      <c r="TO9" s="0"/>
+      <c r="TP9" s="0"/>
+      <c r="TQ9" s="0"/>
+      <c r="TR9" s="0"/>
+      <c r="TS9" s="0"/>
+      <c r="TT9" s="0"/>
+      <c r="TU9" s="0"/>
+      <c r="TV9" s="0"/>
+      <c r="TW9" s="0"/>
+      <c r="TX9" s="0"/>
+      <c r="TY9" s="0"/>
+      <c r="TZ9" s="0"/>
+      <c r="UA9" s="0"/>
+      <c r="UB9" s="0"/>
+      <c r="UC9" s="0"/>
+      <c r="UD9" s="0"/>
+      <c r="UE9" s="0"/>
+      <c r="UF9" s="0"/>
+      <c r="UG9" s="0"/>
+      <c r="UH9" s="0"/>
+      <c r="UI9" s="0"/>
+      <c r="UJ9" s="0"/>
+      <c r="UK9" s="0"/>
+      <c r="UL9" s="0"/>
+      <c r="UM9" s="0"/>
+      <c r="UN9" s="0"/>
+      <c r="UO9" s="0"/>
+      <c r="UP9" s="0"/>
+      <c r="UQ9" s="0"/>
+      <c r="UR9" s="0"/>
+      <c r="US9" s="0"/>
+      <c r="UT9" s="0"/>
+      <c r="UU9" s="0"/>
+      <c r="UV9" s="0"/>
+      <c r="UW9" s="0"/>
+      <c r="UX9" s="0"/>
+      <c r="UY9" s="0"/>
+      <c r="UZ9" s="0"/>
+      <c r="VA9" s="0"/>
+      <c r="VB9" s="0"/>
+      <c r="VC9" s="0"/>
+      <c r="VD9" s="0"/>
+      <c r="VE9" s="0"/>
+      <c r="VF9" s="0"/>
+      <c r="VG9" s="0"/>
+      <c r="VH9" s="0"/>
+      <c r="VI9" s="0"/>
+      <c r="VJ9" s="0"/>
+      <c r="VK9" s="0"/>
+      <c r="VL9" s="0"/>
+      <c r="VM9" s="0"/>
+      <c r="VN9" s="0"/>
+      <c r="VO9" s="0"/>
+      <c r="VP9" s="0"/>
+      <c r="VQ9" s="0"/>
+      <c r="VR9" s="0"/>
+      <c r="VS9" s="0"/>
+      <c r="VT9" s="0"/>
+      <c r="VU9" s="0"/>
+      <c r="VV9" s="0"/>
+      <c r="VW9" s="0"/>
+      <c r="VX9" s="0"/>
+      <c r="VY9" s="0"/>
+      <c r="VZ9" s="0"/>
+      <c r="WA9" s="0"/>
+      <c r="WB9" s="0"/>
+      <c r="WC9" s="0"/>
+      <c r="WD9" s="0"/>
+      <c r="WE9" s="0"/>
+      <c r="WF9" s="0"/>
+      <c r="WG9" s="0"/>
+      <c r="WH9" s="0"/>
+      <c r="WI9" s="0"/>
+      <c r="WJ9" s="0"/>
+      <c r="WK9" s="0"/>
+      <c r="WL9" s="0"/>
+      <c r="WM9" s="0"/>
+      <c r="WN9" s="0"/>
+      <c r="WO9" s="0"/>
+      <c r="WP9" s="0"/>
+      <c r="WQ9" s="0"/>
+      <c r="WR9" s="0"/>
+      <c r="WS9" s="0"/>
+      <c r="WT9" s="0"/>
+      <c r="WU9" s="0"/>
+      <c r="WV9" s="0"/>
+      <c r="WW9" s="0"/>
+      <c r="WX9" s="0"/>
+      <c r="WY9" s="0"/>
+      <c r="WZ9" s="0"/>
+      <c r="XA9" s="0"/>
+      <c r="XB9" s="0"/>
+      <c r="XC9" s="0"/>
+      <c r="XD9" s="0"/>
+      <c r="XE9" s="0"/>
+      <c r="XF9" s="0"/>
+      <c r="XG9" s="0"/>
+      <c r="XH9" s="0"/>
+      <c r="XI9" s="0"/>
+      <c r="XJ9" s="0"/>
+      <c r="XK9" s="0"/>
+      <c r="XL9" s="0"/>
+      <c r="XM9" s="0"/>
+      <c r="XN9" s="0"/>
+      <c r="XO9" s="0"/>
+      <c r="XP9" s="0"/>
+      <c r="XQ9" s="0"/>
+      <c r="XR9" s="0"/>
+      <c r="XS9" s="0"/>
+      <c r="XT9" s="0"/>
+      <c r="XU9" s="0"/>
+      <c r="XV9" s="0"/>
+      <c r="XW9" s="0"/>
+      <c r="XX9" s="0"/>
+      <c r="XY9" s="0"/>
+      <c r="XZ9" s="0"/>
+      <c r="YA9" s="0"/>
+      <c r="YB9" s="0"/>
+      <c r="YC9" s="0"/>
+      <c r="YD9" s="0"/>
+      <c r="YE9" s="0"/>
+      <c r="YF9" s="0"/>
+      <c r="YG9" s="0"/>
+      <c r="YH9" s="0"/>
+      <c r="YI9" s="0"/>
+      <c r="YJ9" s="0"/>
+      <c r="YK9" s="0"/>
+      <c r="YL9" s="0"/>
+      <c r="YM9" s="0"/>
+      <c r="YN9" s="0"/>
+      <c r="YO9" s="0"/>
+      <c r="YP9" s="0"/>
+      <c r="YQ9" s="0"/>
+      <c r="YR9" s="0"/>
+      <c r="YS9" s="0"/>
+      <c r="YT9" s="0"/>
+      <c r="YU9" s="0"/>
+      <c r="YV9" s="0"/>
+      <c r="YW9" s="0"/>
+      <c r="YX9" s="0"/>
+      <c r="YY9" s="0"/>
+      <c r="YZ9" s="0"/>
+      <c r="ZA9" s="0"/>
+      <c r="ZB9" s="0"/>
+      <c r="ZC9" s="0"/>
+      <c r="ZD9" s="0"/>
+      <c r="ZE9" s="0"/>
+      <c r="ZF9" s="0"/>
+      <c r="ZG9" s="0"/>
+      <c r="ZH9" s="0"/>
+      <c r="ZI9" s="0"/>
+      <c r="ZJ9" s="0"/>
+      <c r="ZK9" s="0"/>
+      <c r="ZL9" s="0"/>
+      <c r="ZM9" s="0"/>
+      <c r="ZN9" s="0"/>
+      <c r="ZO9" s="0"/>
+      <c r="ZP9" s="0"/>
+      <c r="ZQ9" s="0"/>
+      <c r="ZR9" s="0"/>
+      <c r="ZS9" s="0"/>
+      <c r="ZT9" s="0"/>
+      <c r="ZU9" s="0"/>
+      <c r="ZV9" s="0"/>
+      <c r="ZW9" s="0"/>
+      <c r="ZX9" s="0"/>
+      <c r="ZY9" s="0"/>
+      <c r="ZZ9" s="0"/>
+      <c r="AAA9" s="0"/>
+      <c r="AAB9" s="0"/>
+      <c r="AAC9" s="0"/>
+      <c r="AAD9" s="0"/>
+      <c r="AAE9" s="0"/>
+      <c r="AAF9" s="0"/>
+      <c r="AAG9" s="0"/>
+      <c r="AAH9" s="0"/>
+      <c r="AAI9" s="0"/>
+      <c r="AAJ9" s="0"/>
+      <c r="AAK9" s="0"/>
+      <c r="AAL9" s="0"/>
+      <c r="AAM9" s="0"/>
+      <c r="AAN9" s="0"/>
+      <c r="AAO9" s="0"/>
+      <c r="AAP9" s="0"/>
+      <c r="AAQ9" s="0"/>
+      <c r="AAR9" s="0"/>
+      <c r="AAS9" s="0"/>
+      <c r="AAT9" s="0"/>
+      <c r="AAU9" s="0"/>
+      <c r="AAV9" s="0"/>
+      <c r="AAW9" s="0"/>
+      <c r="AAX9" s="0"/>
+      <c r="AAY9" s="0"/>
+      <c r="AAZ9" s="0"/>
+      <c r="ABA9" s="0"/>
+      <c r="ABB9" s="0"/>
+      <c r="ABC9" s="0"/>
+      <c r="ABD9" s="0"/>
+      <c r="ABE9" s="0"/>
+      <c r="ABF9" s="0"/>
+      <c r="ABG9" s="0"/>
+      <c r="ABH9" s="0"/>
+      <c r="ABI9" s="0"/>
+      <c r="ABJ9" s="0"/>
+      <c r="ABK9" s="0"/>
+      <c r="ABL9" s="0"/>
+      <c r="ABM9" s="0"/>
+      <c r="ABN9" s="0"/>
+      <c r="ABO9" s="0"/>
+      <c r="ABP9" s="0"/>
+      <c r="ABQ9" s="0"/>
+      <c r="ABR9" s="0"/>
+      <c r="ABS9" s="0"/>
+      <c r="ABT9" s="0"/>
+      <c r="ABU9" s="0"/>
+      <c r="ABV9" s="0"/>
+      <c r="ABW9" s="0"/>
+      <c r="ABX9" s="0"/>
+      <c r="ABY9" s="0"/>
+      <c r="ABZ9" s="0"/>
+      <c r="ACA9" s="0"/>
+      <c r="ACB9" s="0"/>
+      <c r="ACC9" s="0"/>
+      <c r="ACD9" s="0"/>
+      <c r="ACE9" s="0"/>
+      <c r="ACF9" s="0"/>
+      <c r="ACG9" s="0"/>
+      <c r="ACH9" s="0"/>
+      <c r="ACI9" s="0"/>
+      <c r="ACJ9" s="0"/>
+      <c r="ACK9" s="0"/>
+      <c r="ACL9" s="0"/>
+      <c r="ACM9" s="0"/>
+      <c r="ACN9" s="0"/>
+      <c r="ACO9" s="0"/>
+      <c r="ACP9" s="0"/>
+      <c r="ACQ9" s="0"/>
+      <c r="ACR9" s="0"/>
+      <c r="ACS9" s="0"/>
+      <c r="ACT9" s="0"/>
+      <c r="ACU9" s="0"/>
+      <c r="ACV9" s="0"/>
+      <c r="ACW9" s="0"/>
+      <c r="ACX9" s="0"/>
+      <c r="ACY9" s="0"/>
+      <c r="ACZ9" s="0"/>
+      <c r="ADA9" s="0"/>
+      <c r="ADB9" s="0"/>
+      <c r="ADC9" s="0"/>
+      <c r="ADD9" s="0"/>
+      <c r="ADE9" s="0"/>
+      <c r="ADF9" s="0"/>
+      <c r="ADG9" s="0"/>
+      <c r="ADH9" s="0"/>
+      <c r="ADI9" s="0"/>
+      <c r="ADJ9" s="0"/>
+      <c r="ADK9" s="0"/>
+      <c r="ADL9" s="0"/>
+      <c r="ADM9" s="0"/>
+      <c r="ADN9" s="0"/>
+      <c r="ADO9" s="0"/>
+      <c r="ADP9" s="0"/>
+      <c r="ADQ9" s="0"/>
+      <c r="ADR9" s="0"/>
+      <c r="ADS9" s="0"/>
+      <c r="ADT9" s="0"/>
+      <c r="ADU9" s="0"/>
+      <c r="ADV9" s="0"/>
+      <c r="ADW9" s="0"/>
+      <c r="ADX9" s="0"/>
+      <c r="ADY9" s="0"/>
+      <c r="ADZ9" s="0"/>
+      <c r="AEA9" s="0"/>
+      <c r="AEB9" s="0"/>
+      <c r="AEC9" s="0"/>
+      <c r="AED9" s="0"/>
+      <c r="AEE9" s="0"/>
+      <c r="AEF9" s="0"/>
+      <c r="AEG9" s="0"/>
+      <c r="AEH9" s="0"/>
+      <c r="AEI9" s="0"/>
+      <c r="AEJ9" s="0"/>
+      <c r="AEK9" s="0"/>
+      <c r="AEL9" s="0"/>
+      <c r="AEM9" s="0"/>
+      <c r="AEN9" s="0"/>
+      <c r="AEO9" s="0"/>
+      <c r="AEP9" s="0"/>
+      <c r="AEQ9" s="0"/>
+      <c r="AER9" s="0"/>
+      <c r="AES9" s="0"/>
+      <c r="AET9" s="0"/>
+      <c r="AEU9" s="0"/>
+      <c r="AEV9" s="0"/>
+      <c r="AEW9" s="0"/>
+      <c r="AEX9" s="0"/>
+      <c r="AEY9" s="0"/>
+      <c r="AEZ9" s="0"/>
+      <c r="AFA9" s="0"/>
+      <c r="AFB9" s="0"/>
+      <c r="AFC9" s="0"/>
+      <c r="AFD9" s="0"/>
+      <c r="AFE9" s="0"/>
+      <c r="AFF9" s="0"/>
+      <c r="AFG9" s="0"/>
+      <c r="AFH9" s="0"/>
+      <c r="AFI9" s="0"/>
+      <c r="AFJ9" s="0"/>
+      <c r="AFK9" s="0"/>
+      <c r="AFL9" s="0"/>
+      <c r="AFM9" s="0"/>
+      <c r="AFN9" s="0"/>
+      <c r="AFO9" s="0"/>
+      <c r="AFP9" s="0"/>
+      <c r="AFQ9" s="0"/>
+      <c r="AFR9" s="0"/>
+      <c r="AFS9" s="0"/>
+      <c r="AFT9" s="0"/>
+      <c r="AFU9" s="0"/>
+      <c r="AFV9" s="0"/>
+      <c r="AFW9" s="0"/>
+      <c r="AFX9" s="0"/>
+      <c r="AFY9" s="0"/>
+      <c r="AFZ9" s="0"/>
+      <c r="AGA9" s="0"/>
+      <c r="AGB9" s="0"/>
+      <c r="AGC9" s="0"/>
+      <c r="AGD9" s="0"/>
+      <c r="AGE9" s="0"/>
+      <c r="AGF9" s="0"/>
+      <c r="AGG9" s="0"/>
+      <c r="AGH9" s="0"/>
+      <c r="AGI9" s="0"/>
+      <c r="AGJ9" s="0"/>
+      <c r="AGK9" s="0"/>
+      <c r="AGL9" s="0"/>
+      <c r="AGM9" s="0"/>
+      <c r="AGN9" s="0"/>
+      <c r="AGO9" s="0"/>
+      <c r="AGP9" s="0"/>
+      <c r="AGQ9" s="0"/>
+      <c r="AGR9" s="0"/>
+      <c r="AGS9" s="0"/>
+      <c r="AGT9" s="0"/>
+      <c r="AGU9" s="0"/>
+      <c r="AGV9" s="0"/>
+      <c r="AGW9" s="0"/>
+      <c r="AGX9" s="0"/>
+      <c r="AGY9" s="0"/>
+      <c r="AGZ9" s="0"/>
+      <c r="AHA9" s="0"/>
+      <c r="AHB9" s="0"/>
+      <c r="AHC9" s="0"/>
+      <c r="AHD9" s="0"/>
+      <c r="AHE9" s="0"/>
+      <c r="AHF9" s="0"/>
+      <c r="AHG9" s="0"/>
+      <c r="AHH9" s="0"/>
+      <c r="AHI9" s="0"/>
+      <c r="AHJ9" s="0"/>
+      <c r="AHK9" s="0"/>
+      <c r="AHL9" s="0"/>
+      <c r="AHM9" s="0"/>
+      <c r="AHN9" s="0"/>
+      <c r="AHO9" s="0"/>
+      <c r="AHP9" s="0"/>
+      <c r="AHQ9" s="0"/>
+      <c r="AHR9" s="0"/>
+      <c r="AHS9" s="0"/>
+      <c r="AHT9" s="0"/>
+      <c r="AHU9" s="0"/>
+      <c r="AHV9" s="0"/>
+      <c r="AHW9" s="0"/>
+      <c r="AHX9" s="0"/>
+      <c r="AHY9" s="0"/>
+      <c r="AHZ9" s="0"/>
+      <c r="AIA9" s="0"/>
+      <c r="AIB9" s="0"/>
+      <c r="AIC9" s="0"/>
+      <c r="AID9" s="0"/>
+      <c r="AIE9" s="0"/>
+      <c r="AIF9" s="0"/>
+      <c r="AIG9" s="0"/>
+      <c r="AIH9" s="0"/>
+      <c r="AII9" s="0"/>
+      <c r="AIJ9" s="0"/>
+      <c r="AIK9" s="0"/>
+      <c r="AIL9" s="0"/>
+      <c r="AIM9" s="0"/>
+      <c r="AIN9" s="0"/>
+      <c r="AIO9" s="0"/>
+      <c r="AIP9" s="0"/>
+      <c r="AIQ9" s="0"/>
+      <c r="AIR9" s="0"/>
+      <c r="AIS9" s="0"/>
+      <c r="AIT9" s="0"/>
+      <c r="AIU9" s="0"/>
+      <c r="AIV9" s="0"/>
+      <c r="AIW9" s="0"/>
+      <c r="AIX9" s="0"/>
+      <c r="AIY9" s="0"/>
+      <c r="AIZ9" s="0"/>
+      <c r="AJA9" s="0"/>
+      <c r="AJB9" s="0"/>
+      <c r="AJC9" s="0"/>
+      <c r="AJD9" s="0"/>
+      <c r="AJE9" s="0"/>
+      <c r="AJF9" s="0"/>
+      <c r="AJG9" s="0"/>
+      <c r="AJH9" s="0"/>
+      <c r="AJI9" s="0"/>
+      <c r="AJJ9" s="0"/>
+      <c r="AJK9" s="0"/>
+      <c r="AJL9" s="0"/>
+      <c r="AJM9" s="0"/>
+      <c r="AJN9" s="0"/>
+      <c r="AJO9" s="0"/>
+      <c r="AJP9" s="0"/>
+      <c r="AJQ9" s="0"/>
+      <c r="AJR9" s="0"/>
+      <c r="AJS9" s="0"/>
+      <c r="AJT9" s="0"/>
+      <c r="AJU9" s="0"/>
+      <c r="AJV9" s="0"/>
+      <c r="AJW9" s="0"/>
+      <c r="AJX9" s="0"/>
+      <c r="AJY9" s="0"/>
+      <c r="AJZ9" s="0"/>
+      <c r="AKA9" s="0"/>
+      <c r="AKB9" s="0"/>
+      <c r="AKC9" s="0"/>
+      <c r="AKD9" s="0"/>
+      <c r="AKE9" s="0"/>
+      <c r="AKF9" s="0"/>
+      <c r="AKG9" s="0"/>
+      <c r="AKH9" s="0"/>
+      <c r="AKI9" s="0"/>
+      <c r="AKJ9" s="0"/>
+      <c r="AKK9" s="0"/>
+      <c r="AKL9" s="0"/>
+      <c r="AKM9" s="0"/>
+      <c r="AKN9" s="0"/>
+      <c r="AKO9" s="0"/>
+      <c r="AKP9" s="0"/>
+      <c r="AKQ9" s="0"/>
+      <c r="AKR9" s="0"/>
+      <c r="AKS9" s="0"/>
+      <c r="AKT9" s="0"/>
+      <c r="AKU9" s="0"/>
+      <c r="AKV9" s="0"/>
+      <c r="AKW9" s="0"/>
+      <c r="AKX9" s="0"/>
+      <c r="AKY9" s="0"/>
+      <c r="AKZ9" s="0"/>
+      <c r="ALA9" s="0"/>
+      <c r="ALB9" s="0"/>
+      <c r="ALC9" s="0"/>
+      <c r="ALD9" s="0"/>
+      <c r="ALE9" s="0"/>
+      <c r="ALF9" s="0"/>
+      <c r="ALG9" s="0"/>
+      <c r="ALH9" s="0"/>
+      <c r="ALI9" s="0"/>
+      <c r="ALJ9" s="0"/>
+      <c r="ALK9" s="0"/>
+      <c r="ALL9" s="0"/>
+      <c r="ALM9" s="0"/>
+      <c r="ALN9" s="0"/>
+      <c r="ALO9" s="0"/>
+      <c r="ALP9" s="0"/>
+      <c r="ALQ9" s="0"/>
+      <c r="ALR9" s="0"/>
+      <c r="ALS9" s="0"/>
+      <c r="ALT9" s="0"/>
+      <c r="ALU9" s="0"/>
+      <c r="ALV9" s="0"/>
+      <c r="ALW9" s="0"/>
+      <c r="ALX9" s="0"/>
+      <c r="ALY9" s="0"/>
+      <c r="ALZ9" s="0"/>
+      <c r="AMA9" s="0"/>
+      <c r="AMB9" s="0"/>
+      <c r="AMC9" s="0"/>
+      <c r="AMD9" s="0"/>
+      <c r="AME9" s="0"/>
+      <c r="AMF9" s="0"/>
+      <c r="AMG9" s="0"/>
+      <c r="AMH9" s="0"/>
+      <c r="AMI9" s="0"/>
+      <c r="AMJ9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="s">
@@ -6116,40 +7970,1044 @@
       <c r="B10" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="F10" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="G10" s="16"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="K10" s="16"/>
-      <c r="L10" s="16"/>
+      <c r="F10" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" s="15"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
       <c r="M10" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="O10" s="12" t="s">
-        <v>37</v>
+        <v>34</v>
+      </c>
+      <c r="O10" s="11" t="s">
+        <v>33</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="Q10" s="0"/>
       <c r="R10" s="0"/>
+      <c r="S10" s="0"/>
+      <c r="T10" s="0"/>
+      <c r="U10" s="0"/>
+      <c r="V10" s="0"/>
+      <c r="W10" s="0"/>
+      <c r="X10" s="0"/>
+      <c r="Y10" s="0"/>
+      <c r="Z10" s="0"/>
+      <c r="AA10" s="0"/>
+      <c r="AB10" s="0"/>
+      <c r="AC10" s="0"/>
+      <c r="AD10" s="0"/>
+      <c r="AE10" s="0"/>
+      <c r="AF10" s="0"/>
+      <c r="AG10" s="0"/>
+      <c r="AH10" s="0"/>
+      <c r="AI10" s="0"/>
+      <c r="AJ10" s="0"/>
+      <c r="AK10" s="0"/>
+      <c r="AL10" s="0"/>
+      <c r="AM10" s="0"/>
+      <c r="AN10" s="0"/>
+      <c r="AO10" s="0"/>
+      <c r="AP10" s="0"/>
+      <c r="AQ10" s="0"/>
+      <c r="AR10" s="0"/>
+      <c r="AS10" s="0"/>
+      <c r="AT10" s="0"/>
+      <c r="AU10" s="0"/>
+      <c r="AV10" s="0"/>
+      <c r="AW10" s="0"/>
+      <c r="AX10" s="0"/>
+      <c r="AY10" s="0"/>
+      <c r="AZ10" s="0"/>
+      <c r="BA10" s="0"/>
+      <c r="BB10" s="0"/>
+      <c r="BC10" s="0"/>
+      <c r="BD10" s="0"/>
+      <c r="BE10" s="0"/>
+      <c r="BF10" s="0"/>
+      <c r="BG10" s="0"/>
+      <c r="BH10" s="0"/>
+      <c r="BI10" s="0"/>
+      <c r="BJ10" s="0"/>
+      <c r="BK10" s="0"/>
+      <c r="BL10" s="0"/>
+      <c r="BM10" s="0"/>
+      <c r="BN10" s="0"/>
+      <c r="BO10" s="0"/>
+      <c r="BP10" s="0"/>
+      <c r="BQ10" s="0"/>
+      <c r="BR10" s="0"/>
+      <c r="BS10" s="0"/>
+      <c r="BT10" s="0"/>
+      <c r="BU10" s="0"/>
+      <c r="BV10" s="0"/>
+      <c r="BW10" s="0"/>
+      <c r="BX10" s="0"/>
+      <c r="BY10" s="0"/>
+      <c r="BZ10" s="0"/>
+      <c r="CA10" s="0"/>
+      <c r="CB10" s="0"/>
+      <c r="CC10" s="0"/>
+      <c r="CD10" s="0"/>
+      <c r="CE10" s="0"/>
+      <c r="CF10" s="0"/>
+      <c r="CG10" s="0"/>
+      <c r="CH10" s="0"/>
+      <c r="CI10" s="0"/>
+      <c r="CJ10" s="0"/>
+      <c r="CK10" s="0"/>
+      <c r="CL10" s="0"/>
+      <c r="CM10" s="0"/>
+      <c r="CN10" s="0"/>
+      <c r="CO10" s="0"/>
+      <c r="CP10" s="0"/>
+      <c r="CQ10" s="0"/>
+      <c r="CR10" s="0"/>
+      <c r="CS10" s="0"/>
+      <c r="CT10" s="0"/>
+      <c r="CU10" s="0"/>
+      <c r="CV10" s="0"/>
+      <c r="CW10" s="0"/>
+      <c r="CX10" s="0"/>
+      <c r="CY10" s="0"/>
+      <c r="CZ10" s="0"/>
+      <c r="DA10" s="0"/>
+      <c r="DB10" s="0"/>
+      <c r="DC10" s="0"/>
+      <c r="DD10" s="0"/>
+      <c r="DE10" s="0"/>
+      <c r="DF10" s="0"/>
+      <c r="DG10" s="0"/>
+      <c r="DH10" s="0"/>
+      <c r="DI10" s="0"/>
+      <c r="DJ10" s="0"/>
+      <c r="DK10" s="0"/>
+      <c r="DL10" s="0"/>
+      <c r="DM10" s="0"/>
+      <c r="DN10" s="0"/>
+      <c r="DO10" s="0"/>
+      <c r="DP10" s="0"/>
+      <c r="DQ10" s="0"/>
+      <c r="DR10" s="0"/>
+      <c r="DS10" s="0"/>
+      <c r="DT10" s="0"/>
+      <c r="DU10" s="0"/>
+      <c r="DV10" s="0"/>
+      <c r="DW10" s="0"/>
+      <c r="DX10" s="0"/>
+      <c r="DY10" s="0"/>
+      <c r="DZ10" s="0"/>
+      <c r="EA10" s="0"/>
+      <c r="EB10" s="0"/>
+      <c r="EC10" s="0"/>
+      <c r="ED10" s="0"/>
+      <c r="EE10" s="0"/>
+      <c r="EF10" s="0"/>
+      <c r="EG10" s="0"/>
+      <c r="EH10" s="0"/>
+      <c r="EI10" s="0"/>
+      <c r="EJ10" s="0"/>
+      <c r="EK10" s="0"/>
+      <c r="EL10" s="0"/>
+      <c r="EM10" s="0"/>
+      <c r="EN10" s="0"/>
+      <c r="EO10" s="0"/>
+      <c r="EP10" s="0"/>
+      <c r="EQ10" s="0"/>
+      <c r="ER10" s="0"/>
+      <c r="ES10" s="0"/>
+      <c r="ET10" s="0"/>
+      <c r="EU10" s="0"/>
+      <c r="EV10" s="0"/>
+      <c r="EW10" s="0"/>
+      <c r="EX10" s="0"/>
+      <c r="EY10" s="0"/>
+      <c r="EZ10" s="0"/>
+      <c r="FA10" s="0"/>
+      <c r="FB10" s="0"/>
+      <c r="FC10" s="0"/>
+      <c r="FD10" s="0"/>
+      <c r="FE10" s="0"/>
+      <c r="FF10" s="0"/>
+      <c r="FG10" s="0"/>
+      <c r="FH10" s="0"/>
+      <c r="FI10" s="0"/>
+      <c r="FJ10" s="0"/>
+      <c r="FK10" s="0"/>
+      <c r="FL10" s="0"/>
+      <c r="FM10" s="0"/>
+      <c r="FN10" s="0"/>
+      <c r="FO10" s="0"/>
+      <c r="FP10" s="0"/>
+      <c r="FQ10" s="0"/>
+      <c r="FR10" s="0"/>
+      <c r="FS10" s="0"/>
+      <c r="FT10" s="0"/>
+      <c r="FU10" s="0"/>
+      <c r="FV10" s="0"/>
+      <c r="FW10" s="0"/>
+      <c r="FX10" s="0"/>
+      <c r="FY10" s="0"/>
+      <c r="FZ10" s="0"/>
+      <c r="GA10" s="0"/>
+      <c r="GB10" s="0"/>
+      <c r="GC10" s="0"/>
+      <c r="GD10" s="0"/>
+      <c r="GE10" s="0"/>
+      <c r="GF10" s="0"/>
+      <c r="GG10" s="0"/>
+      <c r="GH10" s="0"/>
+      <c r="GI10" s="0"/>
+      <c r="GJ10" s="0"/>
+      <c r="GK10" s="0"/>
+      <c r="GL10" s="0"/>
+      <c r="GM10" s="0"/>
+      <c r="GN10" s="0"/>
+      <c r="GO10" s="0"/>
+      <c r="GP10" s="0"/>
+      <c r="GQ10" s="0"/>
+      <c r="GR10" s="0"/>
+      <c r="GS10" s="0"/>
+      <c r="GT10" s="0"/>
+      <c r="GU10" s="0"/>
+      <c r="GV10" s="0"/>
+      <c r="GW10" s="0"/>
+      <c r="GX10" s="0"/>
+      <c r="GY10" s="0"/>
+      <c r="GZ10" s="0"/>
+      <c r="HA10" s="0"/>
+      <c r="HB10" s="0"/>
+      <c r="HC10" s="0"/>
+      <c r="HD10" s="0"/>
+      <c r="HE10" s="0"/>
+      <c r="HF10" s="0"/>
+      <c r="HG10" s="0"/>
+      <c r="HH10" s="0"/>
+      <c r="HI10" s="0"/>
+      <c r="HJ10" s="0"/>
+      <c r="HK10" s="0"/>
+      <c r="HL10" s="0"/>
+      <c r="HM10" s="0"/>
+      <c r="HN10" s="0"/>
+      <c r="HO10" s="0"/>
+      <c r="HP10" s="0"/>
+      <c r="HQ10" s="0"/>
+      <c r="HR10" s="0"/>
+      <c r="HS10" s="0"/>
+      <c r="HT10" s="0"/>
+      <c r="HU10" s="0"/>
+      <c r="HV10" s="0"/>
+      <c r="HW10" s="0"/>
+      <c r="HX10" s="0"/>
+      <c r="HY10" s="0"/>
+      <c r="HZ10" s="0"/>
+      <c r="IA10" s="0"/>
+      <c r="IB10" s="0"/>
+      <c r="IC10" s="0"/>
+      <c r="ID10" s="0"/>
+      <c r="IE10" s="0"/>
+      <c r="IF10" s="0"/>
+      <c r="IG10" s="0"/>
+      <c r="IH10" s="0"/>
+      <c r="II10" s="0"/>
+      <c r="IJ10" s="0"/>
+      <c r="IK10" s="0"/>
+      <c r="IL10" s="0"/>
+      <c r="IM10" s="0"/>
+      <c r="IN10" s="0"/>
+      <c r="IO10" s="0"/>
+      <c r="IP10" s="0"/>
+      <c r="IQ10" s="0"/>
+      <c r="IR10" s="0"/>
+      <c r="IS10" s="0"/>
+      <c r="IT10" s="0"/>
+      <c r="IU10" s="0"/>
+      <c r="IV10" s="0"/>
+      <c r="IW10" s="0"/>
+      <c r="IX10" s="0"/>
+      <c r="IY10" s="0"/>
+      <c r="IZ10" s="0"/>
+      <c r="JA10" s="0"/>
+      <c r="JB10" s="0"/>
+      <c r="JC10" s="0"/>
+      <c r="JD10" s="0"/>
+      <c r="JE10" s="0"/>
+      <c r="JF10" s="0"/>
+      <c r="JG10" s="0"/>
+      <c r="JH10" s="0"/>
+      <c r="JI10" s="0"/>
+      <c r="JJ10" s="0"/>
+      <c r="JK10" s="0"/>
+      <c r="JL10" s="0"/>
+      <c r="JM10" s="0"/>
+      <c r="JN10" s="0"/>
+      <c r="JO10" s="0"/>
+      <c r="JP10" s="0"/>
+      <c r="JQ10" s="0"/>
+      <c r="JR10" s="0"/>
+      <c r="JS10" s="0"/>
+      <c r="JT10" s="0"/>
+      <c r="JU10" s="0"/>
+      <c r="JV10" s="0"/>
+      <c r="JW10" s="0"/>
+      <c r="JX10" s="0"/>
+      <c r="JY10" s="0"/>
+      <c r="JZ10" s="0"/>
+      <c r="KA10" s="0"/>
+      <c r="KB10" s="0"/>
+      <c r="KC10" s="0"/>
+      <c r="KD10" s="0"/>
+      <c r="KE10" s="0"/>
+      <c r="KF10" s="0"/>
+      <c r="KG10" s="0"/>
+      <c r="KH10" s="0"/>
+      <c r="KI10" s="0"/>
+      <c r="KJ10" s="0"/>
+      <c r="KK10" s="0"/>
+      <c r="KL10" s="0"/>
+      <c r="KM10" s="0"/>
+      <c r="KN10" s="0"/>
+      <c r="KO10" s="0"/>
+      <c r="KP10" s="0"/>
+      <c r="KQ10" s="0"/>
+      <c r="KR10" s="0"/>
+      <c r="KS10" s="0"/>
+      <c r="KT10" s="0"/>
+      <c r="KU10" s="0"/>
+      <c r="KV10" s="0"/>
+      <c r="KW10" s="0"/>
+      <c r="KX10" s="0"/>
+      <c r="KY10" s="0"/>
+      <c r="KZ10" s="0"/>
+      <c r="LA10" s="0"/>
+      <c r="LB10" s="0"/>
+      <c r="LC10" s="0"/>
+      <c r="LD10" s="0"/>
+      <c r="LE10" s="0"/>
+      <c r="LF10" s="0"/>
+      <c r="LG10" s="0"/>
+      <c r="LH10" s="0"/>
+      <c r="LI10" s="0"/>
+      <c r="LJ10" s="0"/>
+      <c r="LK10" s="0"/>
+      <c r="LL10" s="0"/>
+      <c r="LM10" s="0"/>
+      <c r="LN10" s="0"/>
+      <c r="LO10" s="0"/>
+      <c r="LP10" s="0"/>
+      <c r="LQ10" s="0"/>
+      <c r="LR10" s="0"/>
+      <c r="LS10" s="0"/>
+      <c r="LT10" s="0"/>
+      <c r="LU10" s="0"/>
+      <c r="LV10" s="0"/>
+      <c r="LW10" s="0"/>
+      <c r="LX10" s="0"/>
+      <c r="LY10" s="0"/>
+      <c r="LZ10" s="0"/>
+      <c r="MA10" s="0"/>
+      <c r="MB10" s="0"/>
+      <c r="MC10" s="0"/>
+      <c r="MD10" s="0"/>
+      <c r="ME10" s="0"/>
+      <c r="MF10" s="0"/>
+      <c r="MG10" s="0"/>
+      <c r="MH10" s="0"/>
+      <c r="MI10" s="0"/>
+      <c r="MJ10" s="0"/>
+      <c r="MK10" s="0"/>
+      <c r="ML10" s="0"/>
+      <c r="MM10" s="0"/>
+      <c r="MN10" s="0"/>
+      <c r="MO10" s="0"/>
+      <c r="MP10" s="0"/>
+      <c r="MQ10" s="0"/>
+      <c r="MR10" s="0"/>
+      <c r="MS10" s="0"/>
+      <c r="MT10" s="0"/>
+      <c r="MU10" s="0"/>
+      <c r="MV10" s="0"/>
+      <c r="MW10" s="0"/>
+      <c r="MX10" s="0"/>
+      <c r="MY10" s="0"/>
+      <c r="MZ10" s="0"/>
+      <c r="NA10" s="0"/>
+      <c r="NB10" s="0"/>
+      <c r="NC10" s="0"/>
+      <c r="ND10" s="0"/>
+      <c r="NE10" s="0"/>
+      <c r="NF10" s="0"/>
+      <c r="NG10" s="0"/>
+      <c r="NH10" s="0"/>
+      <c r="NI10" s="0"/>
+      <c r="NJ10" s="0"/>
+      <c r="NK10" s="0"/>
+      <c r="NL10" s="0"/>
+      <c r="NM10" s="0"/>
+      <c r="NN10" s="0"/>
+      <c r="NO10" s="0"/>
+      <c r="NP10" s="0"/>
+      <c r="NQ10" s="0"/>
+      <c r="NR10" s="0"/>
+      <c r="NS10" s="0"/>
+      <c r="NT10" s="0"/>
+      <c r="NU10" s="0"/>
+      <c r="NV10" s="0"/>
+      <c r="NW10" s="0"/>
+      <c r="NX10" s="0"/>
+      <c r="NY10" s="0"/>
+      <c r="NZ10" s="0"/>
+      <c r="OA10" s="0"/>
+      <c r="OB10" s="0"/>
+      <c r="OC10" s="0"/>
+      <c r="OD10" s="0"/>
+      <c r="OE10" s="0"/>
+      <c r="OF10" s="0"/>
+      <c r="OG10" s="0"/>
+      <c r="OH10" s="0"/>
+      <c r="OI10" s="0"/>
+      <c r="OJ10" s="0"/>
+      <c r="OK10" s="0"/>
+      <c r="OL10" s="0"/>
+      <c r="OM10" s="0"/>
+      <c r="ON10" s="0"/>
+      <c r="OO10" s="0"/>
+      <c r="OP10" s="0"/>
+      <c r="OQ10" s="0"/>
+      <c r="OR10" s="0"/>
+      <c r="OS10" s="0"/>
+      <c r="OT10" s="0"/>
+      <c r="OU10" s="0"/>
+      <c r="OV10" s="0"/>
+      <c r="OW10" s="0"/>
+      <c r="OX10" s="0"/>
+      <c r="OY10" s="0"/>
+      <c r="OZ10" s="0"/>
+      <c r="PA10" s="0"/>
+      <c r="PB10" s="0"/>
+      <c r="PC10" s="0"/>
+      <c r="PD10" s="0"/>
+      <c r="PE10" s="0"/>
+      <c r="PF10" s="0"/>
+      <c r="PG10" s="0"/>
+      <c r="PH10" s="0"/>
+      <c r="PI10" s="0"/>
+      <c r="PJ10" s="0"/>
+      <c r="PK10" s="0"/>
+      <c r="PL10" s="0"/>
+      <c r="PM10" s="0"/>
+      <c r="PN10" s="0"/>
+      <c r="PO10" s="0"/>
+      <c r="PP10" s="0"/>
+      <c r="PQ10" s="0"/>
+      <c r="PR10" s="0"/>
+      <c r="PS10" s="0"/>
+      <c r="PT10" s="0"/>
+      <c r="PU10" s="0"/>
+      <c r="PV10" s="0"/>
+      <c r="PW10" s="0"/>
+      <c r="PX10" s="0"/>
+      <c r="PY10" s="0"/>
+      <c r="PZ10" s="0"/>
+      <c r="QA10" s="0"/>
+      <c r="QB10" s="0"/>
+      <c r="QC10" s="0"/>
+      <c r="QD10" s="0"/>
+      <c r="QE10" s="0"/>
+      <c r="QF10" s="0"/>
+      <c r="QG10" s="0"/>
+      <c r="QH10" s="0"/>
+      <c r="QI10" s="0"/>
+      <c r="QJ10" s="0"/>
+      <c r="QK10" s="0"/>
+      <c r="QL10" s="0"/>
+      <c r="QM10" s="0"/>
+      <c r="QN10" s="0"/>
+      <c r="QO10" s="0"/>
+      <c r="QP10" s="0"/>
+      <c r="QQ10" s="0"/>
+      <c r="QR10" s="0"/>
+      <c r="QS10" s="0"/>
+      <c r="QT10" s="0"/>
+      <c r="QU10" s="0"/>
+      <c r="QV10" s="0"/>
+      <c r="QW10" s="0"/>
+      <c r="QX10" s="0"/>
+      <c r="QY10" s="0"/>
+      <c r="QZ10" s="0"/>
+      <c r="RA10" s="0"/>
+      <c r="RB10" s="0"/>
+      <c r="RC10" s="0"/>
+      <c r="RD10" s="0"/>
+      <c r="RE10" s="0"/>
+      <c r="RF10" s="0"/>
+      <c r="RG10" s="0"/>
+      <c r="RH10" s="0"/>
+      <c r="RI10" s="0"/>
+      <c r="RJ10" s="0"/>
+      <c r="RK10" s="0"/>
+      <c r="RL10" s="0"/>
+      <c r="RM10" s="0"/>
+      <c r="RN10" s="0"/>
+      <c r="RO10" s="0"/>
+      <c r="RP10" s="0"/>
+      <c r="RQ10" s="0"/>
+      <c r="RR10" s="0"/>
+      <c r="RS10" s="0"/>
+      <c r="RT10" s="0"/>
+      <c r="RU10" s="0"/>
+      <c r="RV10" s="0"/>
+      <c r="RW10" s="0"/>
+      <c r="RX10" s="0"/>
+      <c r="RY10" s="0"/>
+      <c r="RZ10" s="0"/>
+      <c r="SA10" s="0"/>
+      <c r="SB10" s="0"/>
+      <c r="SC10" s="0"/>
+      <c r="SD10" s="0"/>
+      <c r="SE10" s="0"/>
+      <c r="SF10" s="0"/>
+      <c r="SG10" s="0"/>
+      <c r="SH10" s="0"/>
+      <c r="SI10" s="0"/>
+      <c r="SJ10" s="0"/>
+      <c r="SK10" s="0"/>
+      <c r="SL10" s="0"/>
+      <c r="SM10" s="0"/>
+      <c r="SN10" s="0"/>
+      <c r="SO10" s="0"/>
+      <c r="SP10" s="0"/>
+      <c r="SQ10" s="0"/>
+      <c r="SR10" s="0"/>
+      <c r="SS10" s="0"/>
+      <c r="ST10" s="0"/>
+      <c r="SU10" s="0"/>
+      <c r="SV10" s="0"/>
+      <c r="SW10" s="0"/>
+      <c r="SX10" s="0"/>
+      <c r="SY10" s="0"/>
+      <c r="SZ10" s="0"/>
+      <c r="TA10" s="0"/>
+      <c r="TB10" s="0"/>
+      <c r="TC10" s="0"/>
+      <c r="TD10" s="0"/>
+      <c r="TE10" s="0"/>
+      <c r="TF10" s="0"/>
+      <c r="TG10" s="0"/>
+      <c r="TH10" s="0"/>
+      <c r="TI10" s="0"/>
+      <c r="TJ10" s="0"/>
+      <c r="TK10" s="0"/>
+      <c r="TL10" s="0"/>
+      <c r="TM10" s="0"/>
+      <c r="TN10" s="0"/>
+      <c r="TO10" s="0"/>
+      <c r="TP10" s="0"/>
+      <c r="TQ10" s="0"/>
+      <c r="TR10" s="0"/>
+      <c r="TS10" s="0"/>
+      <c r="TT10" s="0"/>
+      <c r="TU10" s="0"/>
+      <c r="TV10" s="0"/>
+      <c r="TW10" s="0"/>
+      <c r="TX10" s="0"/>
+      <c r="TY10" s="0"/>
+      <c r="TZ10" s="0"/>
+      <c r="UA10" s="0"/>
+      <c r="UB10" s="0"/>
+      <c r="UC10" s="0"/>
+      <c r="UD10" s="0"/>
+      <c r="UE10" s="0"/>
+      <c r="UF10" s="0"/>
+      <c r="UG10" s="0"/>
+      <c r="UH10" s="0"/>
+      <c r="UI10" s="0"/>
+      <c r="UJ10" s="0"/>
+      <c r="UK10" s="0"/>
+      <c r="UL10" s="0"/>
+      <c r="UM10" s="0"/>
+      <c r="UN10" s="0"/>
+      <c r="UO10" s="0"/>
+      <c r="UP10" s="0"/>
+      <c r="UQ10" s="0"/>
+      <c r="UR10" s="0"/>
+      <c r="US10" s="0"/>
+      <c r="UT10" s="0"/>
+      <c r="UU10" s="0"/>
+      <c r="UV10" s="0"/>
+      <c r="UW10" s="0"/>
+      <c r="UX10" s="0"/>
+      <c r="UY10" s="0"/>
+      <c r="UZ10" s="0"/>
+      <c r="VA10" s="0"/>
+      <c r="VB10" s="0"/>
+      <c r="VC10" s="0"/>
+      <c r="VD10" s="0"/>
+      <c r="VE10" s="0"/>
+      <c r="VF10" s="0"/>
+      <c r="VG10" s="0"/>
+      <c r="VH10" s="0"/>
+      <c r="VI10" s="0"/>
+      <c r="VJ10" s="0"/>
+      <c r="VK10" s="0"/>
+      <c r="VL10" s="0"/>
+      <c r="VM10" s="0"/>
+      <c r="VN10" s="0"/>
+      <c r="VO10" s="0"/>
+      <c r="VP10" s="0"/>
+      <c r="VQ10" s="0"/>
+      <c r="VR10" s="0"/>
+      <c r="VS10" s="0"/>
+      <c r="VT10" s="0"/>
+      <c r="VU10" s="0"/>
+      <c r="VV10" s="0"/>
+      <c r="VW10" s="0"/>
+      <c r="VX10" s="0"/>
+      <c r="VY10" s="0"/>
+      <c r="VZ10" s="0"/>
+      <c r="WA10" s="0"/>
+      <c r="WB10" s="0"/>
+      <c r="WC10" s="0"/>
+      <c r="WD10" s="0"/>
+      <c r="WE10" s="0"/>
+      <c r="WF10" s="0"/>
+      <c r="WG10" s="0"/>
+      <c r="WH10" s="0"/>
+      <c r="WI10" s="0"/>
+      <c r="WJ10" s="0"/>
+      <c r="WK10" s="0"/>
+      <c r="WL10" s="0"/>
+      <c r="WM10" s="0"/>
+      <c r="WN10" s="0"/>
+      <c r="WO10" s="0"/>
+      <c r="WP10" s="0"/>
+      <c r="WQ10" s="0"/>
+      <c r="WR10" s="0"/>
+      <c r="WS10" s="0"/>
+      <c r="WT10" s="0"/>
+      <c r="WU10" s="0"/>
+      <c r="WV10" s="0"/>
+      <c r="WW10" s="0"/>
+      <c r="WX10" s="0"/>
+      <c r="WY10" s="0"/>
+      <c r="WZ10" s="0"/>
+      <c r="XA10" s="0"/>
+      <c r="XB10" s="0"/>
+      <c r="XC10" s="0"/>
+      <c r="XD10" s="0"/>
+      <c r="XE10" s="0"/>
+      <c r="XF10" s="0"/>
+      <c r="XG10" s="0"/>
+      <c r="XH10" s="0"/>
+      <c r="XI10" s="0"/>
+      <c r="XJ10" s="0"/>
+      <c r="XK10" s="0"/>
+      <c r="XL10" s="0"/>
+      <c r="XM10" s="0"/>
+      <c r="XN10" s="0"/>
+      <c r="XO10" s="0"/>
+      <c r="XP10" s="0"/>
+      <c r="XQ10" s="0"/>
+      <c r="XR10" s="0"/>
+      <c r="XS10" s="0"/>
+      <c r="XT10" s="0"/>
+      <c r="XU10" s="0"/>
+      <c r="XV10" s="0"/>
+      <c r="XW10" s="0"/>
+      <c r="XX10" s="0"/>
+      <c r="XY10" s="0"/>
+      <c r="XZ10" s="0"/>
+      <c r="YA10" s="0"/>
+      <c r="YB10" s="0"/>
+      <c r="YC10" s="0"/>
+      <c r="YD10" s="0"/>
+      <c r="YE10" s="0"/>
+      <c r="YF10" s="0"/>
+      <c r="YG10" s="0"/>
+      <c r="YH10" s="0"/>
+      <c r="YI10" s="0"/>
+      <c r="YJ10" s="0"/>
+      <c r="YK10" s="0"/>
+      <c r="YL10" s="0"/>
+      <c r="YM10" s="0"/>
+      <c r="YN10" s="0"/>
+      <c r="YO10" s="0"/>
+      <c r="YP10" s="0"/>
+      <c r="YQ10" s="0"/>
+      <c r="YR10" s="0"/>
+      <c r="YS10" s="0"/>
+      <c r="YT10" s="0"/>
+      <c r="YU10" s="0"/>
+      <c r="YV10" s="0"/>
+      <c r="YW10" s="0"/>
+      <c r="YX10" s="0"/>
+      <c r="YY10" s="0"/>
+      <c r="YZ10" s="0"/>
+      <c r="ZA10" s="0"/>
+      <c r="ZB10" s="0"/>
+      <c r="ZC10" s="0"/>
+      <c r="ZD10" s="0"/>
+      <c r="ZE10" s="0"/>
+      <c r="ZF10" s="0"/>
+      <c r="ZG10" s="0"/>
+      <c r="ZH10" s="0"/>
+      <c r="ZI10" s="0"/>
+      <c r="ZJ10" s="0"/>
+      <c r="ZK10" s="0"/>
+      <c r="ZL10" s="0"/>
+      <c r="ZM10" s="0"/>
+      <c r="ZN10" s="0"/>
+      <c r="ZO10" s="0"/>
+      <c r="ZP10" s="0"/>
+      <c r="ZQ10" s="0"/>
+      <c r="ZR10" s="0"/>
+      <c r="ZS10" s="0"/>
+      <c r="ZT10" s="0"/>
+      <c r="ZU10" s="0"/>
+      <c r="ZV10" s="0"/>
+      <c r="ZW10" s="0"/>
+      <c r="ZX10" s="0"/>
+      <c r="ZY10" s="0"/>
+      <c r="ZZ10" s="0"/>
+      <c r="AAA10" s="0"/>
+      <c r="AAB10" s="0"/>
+      <c r="AAC10" s="0"/>
+      <c r="AAD10" s="0"/>
+      <c r="AAE10" s="0"/>
+      <c r="AAF10" s="0"/>
+      <c r="AAG10" s="0"/>
+      <c r="AAH10" s="0"/>
+      <c r="AAI10" s="0"/>
+      <c r="AAJ10" s="0"/>
+      <c r="AAK10" s="0"/>
+      <c r="AAL10" s="0"/>
+      <c r="AAM10" s="0"/>
+      <c r="AAN10" s="0"/>
+      <c r="AAO10" s="0"/>
+      <c r="AAP10" s="0"/>
+      <c r="AAQ10" s="0"/>
+      <c r="AAR10" s="0"/>
+      <c r="AAS10" s="0"/>
+      <c r="AAT10" s="0"/>
+      <c r="AAU10" s="0"/>
+      <c r="AAV10" s="0"/>
+      <c r="AAW10" s="0"/>
+      <c r="AAX10" s="0"/>
+      <c r="AAY10" s="0"/>
+      <c r="AAZ10" s="0"/>
+      <c r="ABA10" s="0"/>
+      <c r="ABB10" s="0"/>
+      <c r="ABC10" s="0"/>
+      <c r="ABD10" s="0"/>
+      <c r="ABE10" s="0"/>
+      <c r="ABF10" s="0"/>
+      <c r="ABG10" s="0"/>
+      <c r="ABH10" s="0"/>
+      <c r="ABI10" s="0"/>
+      <c r="ABJ10" s="0"/>
+      <c r="ABK10" s="0"/>
+      <c r="ABL10" s="0"/>
+      <c r="ABM10" s="0"/>
+      <c r="ABN10" s="0"/>
+      <c r="ABO10" s="0"/>
+      <c r="ABP10" s="0"/>
+      <c r="ABQ10" s="0"/>
+      <c r="ABR10" s="0"/>
+      <c r="ABS10" s="0"/>
+      <c r="ABT10" s="0"/>
+      <c r="ABU10" s="0"/>
+      <c r="ABV10" s="0"/>
+      <c r="ABW10" s="0"/>
+      <c r="ABX10" s="0"/>
+      <c r="ABY10" s="0"/>
+      <c r="ABZ10" s="0"/>
+      <c r="ACA10" s="0"/>
+      <c r="ACB10" s="0"/>
+      <c r="ACC10" s="0"/>
+      <c r="ACD10" s="0"/>
+      <c r="ACE10" s="0"/>
+      <c r="ACF10" s="0"/>
+      <c r="ACG10" s="0"/>
+      <c r="ACH10" s="0"/>
+      <c r="ACI10" s="0"/>
+      <c r="ACJ10" s="0"/>
+      <c r="ACK10" s="0"/>
+      <c r="ACL10" s="0"/>
+      <c r="ACM10" s="0"/>
+      <c r="ACN10" s="0"/>
+      <c r="ACO10" s="0"/>
+      <c r="ACP10" s="0"/>
+      <c r="ACQ10" s="0"/>
+      <c r="ACR10" s="0"/>
+      <c r="ACS10" s="0"/>
+      <c r="ACT10" s="0"/>
+      <c r="ACU10" s="0"/>
+      <c r="ACV10" s="0"/>
+      <c r="ACW10" s="0"/>
+      <c r="ACX10" s="0"/>
+      <c r="ACY10" s="0"/>
+      <c r="ACZ10" s="0"/>
+      <c r="ADA10" s="0"/>
+      <c r="ADB10" s="0"/>
+      <c r="ADC10" s="0"/>
+      <c r="ADD10" s="0"/>
+      <c r="ADE10" s="0"/>
+      <c r="ADF10" s="0"/>
+      <c r="ADG10" s="0"/>
+      <c r="ADH10" s="0"/>
+      <c r="ADI10" s="0"/>
+      <c r="ADJ10" s="0"/>
+      <c r="ADK10" s="0"/>
+      <c r="ADL10" s="0"/>
+      <c r="ADM10" s="0"/>
+      <c r="ADN10" s="0"/>
+      <c r="ADO10" s="0"/>
+      <c r="ADP10" s="0"/>
+      <c r="ADQ10" s="0"/>
+      <c r="ADR10" s="0"/>
+      <c r="ADS10" s="0"/>
+      <c r="ADT10" s="0"/>
+      <c r="ADU10" s="0"/>
+      <c r="ADV10" s="0"/>
+      <c r="ADW10" s="0"/>
+      <c r="ADX10" s="0"/>
+      <c r="ADY10" s="0"/>
+      <c r="ADZ10" s="0"/>
+      <c r="AEA10" s="0"/>
+      <c r="AEB10" s="0"/>
+      <c r="AEC10" s="0"/>
+      <c r="AED10" s="0"/>
+      <c r="AEE10" s="0"/>
+      <c r="AEF10" s="0"/>
+      <c r="AEG10" s="0"/>
+      <c r="AEH10" s="0"/>
+      <c r="AEI10" s="0"/>
+      <c r="AEJ10" s="0"/>
+      <c r="AEK10" s="0"/>
+      <c r="AEL10" s="0"/>
+      <c r="AEM10" s="0"/>
+      <c r="AEN10" s="0"/>
+      <c r="AEO10" s="0"/>
+      <c r="AEP10" s="0"/>
+      <c r="AEQ10" s="0"/>
+      <c r="AER10" s="0"/>
+      <c r="AES10" s="0"/>
+      <c r="AET10" s="0"/>
+      <c r="AEU10" s="0"/>
+      <c r="AEV10" s="0"/>
+      <c r="AEW10" s="0"/>
+      <c r="AEX10" s="0"/>
+      <c r="AEY10" s="0"/>
+      <c r="AEZ10" s="0"/>
+      <c r="AFA10" s="0"/>
+      <c r="AFB10" s="0"/>
+      <c r="AFC10" s="0"/>
+      <c r="AFD10" s="0"/>
+      <c r="AFE10" s="0"/>
+      <c r="AFF10" s="0"/>
+      <c r="AFG10" s="0"/>
+      <c r="AFH10" s="0"/>
+      <c r="AFI10" s="0"/>
+      <c r="AFJ10" s="0"/>
+      <c r="AFK10" s="0"/>
+      <c r="AFL10" s="0"/>
+      <c r="AFM10" s="0"/>
+      <c r="AFN10" s="0"/>
+      <c r="AFO10" s="0"/>
+      <c r="AFP10" s="0"/>
+      <c r="AFQ10" s="0"/>
+      <c r="AFR10" s="0"/>
+      <c r="AFS10" s="0"/>
+      <c r="AFT10" s="0"/>
+      <c r="AFU10" s="0"/>
+      <c r="AFV10" s="0"/>
+      <c r="AFW10" s="0"/>
+      <c r="AFX10" s="0"/>
+      <c r="AFY10" s="0"/>
+      <c r="AFZ10" s="0"/>
+      <c r="AGA10" s="0"/>
+      <c r="AGB10" s="0"/>
+      <c r="AGC10" s="0"/>
+      <c r="AGD10" s="0"/>
+      <c r="AGE10" s="0"/>
+      <c r="AGF10" s="0"/>
+      <c r="AGG10" s="0"/>
+      <c r="AGH10" s="0"/>
+      <c r="AGI10" s="0"/>
+      <c r="AGJ10" s="0"/>
+      <c r="AGK10" s="0"/>
+      <c r="AGL10" s="0"/>
+      <c r="AGM10" s="0"/>
+      <c r="AGN10" s="0"/>
+      <c r="AGO10" s="0"/>
+      <c r="AGP10" s="0"/>
+      <c r="AGQ10" s="0"/>
+      <c r="AGR10" s="0"/>
+      <c r="AGS10" s="0"/>
+      <c r="AGT10" s="0"/>
+      <c r="AGU10" s="0"/>
+      <c r="AGV10" s="0"/>
+      <c r="AGW10" s="0"/>
+      <c r="AGX10" s="0"/>
+      <c r="AGY10" s="0"/>
+      <c r="AGZ10" s="0"/>
+      <c r="AHA10" s="0"/>
+      <c r="AHB10" s="0"/>
+      <c r="AHC10" s="0"/>
+      <c r="AHD10" s="0"/>
+      <c r="AHE10" s="0"/>
+      <c r="AHF10" s="0"/>
+      <c r="AHG10" s="0"/>
+      <c r="AHH10" s="0"/>
+      <c r="AHI10" s="0"/>
+      <c r="AHJ10" s="0"/>
+      <c r="AHK10" s="0"/>
+      <c r="AHL10" s="0"/>
+      <c r="AHM10" s="0"/>
+      <c r="AHN10" s="0"/>
+      <c r="AHO10" s="0"/>
+      <c r="AHP10" s="0"/>
+      <c r="AHQ10" s="0"/>
+      <c r="AHR10" s="0"/>
+      <c r="AHS10" s="0"/>
+      <c r="AHT10" s="0"/>
+      <c r="AHU10" s="0"/>
+      <c r="AHV10" s="0"/>
+      <c r="AHW10" s="0"/>
+      <c r="AHX10" s="0"/>
+      <c r="AHY10" s="0"/>
+      <c r="AHZ10" s="0"/>
+      <c r="AIA10" s="0"/>
+      <c r="AIB10" s="0"/>
+      <c r="AIC10" s="0"/>
+      <c r="AID10" s="0"/>
+      <c r="AIE10" s="0"/>
+      <c r="AIF10" s="0"/>
+      <c r="AIG10" s="0"/>
+      <c r="AIH10" s="0"/>
+      <c r="AII10" s="0"/>
+      <c r="AIJ10" s="0"/>
+      <c r="AIK10" s="0"/>
+      <c r="AIL10" s="0"/>
+      <c r="AIM10" s="0"/>
+      <c r="AIN10" s="0"/>
+      <c r="AIO10" s="0"/>
+      <c r="AIP10" s="0"/>
+      <c r="AIQ10" s="0"/>
+      <c r="AIR10" s="0"/>
+      <c r="AIS10" s="0"/>
+      <c r="AIT10" s="0"/>
+      <c r="AIU10" s="0"/>
+      <c r="AIV10" s="0"/>
+      <c r="AIW10" s="0"/>
+      <c r="AIX10" s="0"/>
+      <c r="AIY10" s="0"/>
+      <c r="AIZ10" s="0"/>
+      <c r="AJA10" s="0"/>
+      <c r="AJB10" s="0"/>
+      <c r="AJC10" s="0"/>
+      <c r="AJD10" s="0"/>
+      <c r="AJE10" s="0"/>
+      <c r="AJF10" s="0"/>
+      <c r="AJG10" s="0"/>
+      <c r="AJH10" s="0"/>
+      <c r="AJI10" s="0"/>
+      <c r="AJJ10" s="0"/>
+      <c r="AJK10" s="0"/>
+      <c r="AJL10" s="0"/>
+      <c r="AJM10" s="0"/>
+      <c r="AJN10" s="0"/>
+      <c r="AJO10" s="0"/>
+      <c r="AJP10" s="0"/>
+      <c r="AJQ10" s="0"/>
+      <c r="AJR10" s="0"/>
+      <c r="AJS10" s="0"/>
+      <c r="AJT10" s="0"/>
+      <c r="AJU10" s="0"/>
+      <c r="AJV10" s="0"/>
+      <c r="AJW10" s="0"/>
+      <c r="AJX10" s="0"/>
+      <c r="AJY10" s="0"/>
+      <c r="AJZ10" s="0"/>
+      <c r="AKA10" s="0"/>
+      <c r="AKB10" s="0"/>
+      <c r="AKC10" s="0"/>
+      <c r="AKD10" s="0"/>
+      <c r="AKE10" s="0"/>
+      <c r="AKF10" s="0"/>
+      <c r="AKG10" s="0"/>
+      <c r="AKH10" s="0"/>
+      <c r="AKI10" s="0"/>
+      <c r="AKJ10" s="0"/>
+      <c r="AKK10" s="0"/>
+      <c r="AKL10" s="0"/>
+      <c r="AKM10" s="0"/>
+      <c r="AKN10" s="0"/>
+      <c r="AKO10" s="0"/>
+      <c r="AKP10" s="0"/>
+      <c r="AKQ10" s="0"/>
+      <c r="AKR10" s="0"/>
+      <c r="AKS10" s="0"/>
+      <c r="AKT10" s="0"/>
+      <c r="AKU10" s="0"/>
+      <c r="AKV10" s="0"/>
+      <c r="AKW10" s="0"/>
+      <c r="AKX10" s="0"/>
+      <c r="AKY10" s="0"/>
+      <c r="AKZ10" s="0"/>
+      <c r="ALA10" s="0"/>
+      <c r="ALB10" s="0"/>
+      <c r="ALC10" s="0"/>
+      <c r="ALD10" s="0"/>
+      <c r="ALE10" s="0"/>
+      <c r="ALF10" s="0"/>
+      <c r="ALG10" s="0"/>
+      <c r="ALH10" s="0"/>
+      <c r="ALI10" s="0"/>
+      <c r="ALJ10" s="0"/>
+      <c r="ALK10" s="0"/>
+      <c r="ALL10" s="0"/>
+      <c r="ALM10" s="0"/>
+      <c r="ALN10" s="0"/>
+      <c r="ALO10" s="0"/>
+      <c r="ALP10" s="0"/>
+      <c r="ALQ10" s="0"/>
+      <c r="ALR10" s="0"/>
+      <c r="ALS10" s="0"/>
+      <c r="ALT10" s="0"/>
+      <c r="ALU10" s="0"/>
+      <c r="ALV10" s="0"/>
+      <c r="ALW10" s="0"/>
+      <c r="ALX10" s="0"/>
+      <c r="ALY10" s="0"/>
+      <c r="ALZ10" s="0"/>
+      <c r="AMA10" s="0"/>
+      <c r="AMB10" s="0"/>
+      <c r="AMC10" s="0"/>
+      <c r="AMD10" s="0"/>
+      <c r="AME10" s="0"/>
+      <c r="AMF10" s="0"/>
+      <c r="AMG10" s="0"/>
+      <c r="AMH10" s="0"/>
+      <c r="AMI10" s="0"/>
+      <c r="AMJ10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="s">
@@ -6158,1407 +9016,1044 @@
       <c r="B11" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="F11" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="G11" s="16"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="K11" s="16"/>
-      <c r="L11" s="16"/>
+      <c r="F11" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11" s="15"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
       <c r="M11" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="O11" s="12" t="s">
-        <v>37</v>
+        <v>34</v>
+      </c>
+      <c r="O11" s="11" t="s">
+        <v>33</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="Q11" s="0"/>
       <c r="R11" s="0"/>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="12"/>
-      <c r="B12" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" s="15"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="I12" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="J12" s="15"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="N12" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="O12" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="P12" s="18" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" s="19" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" s="14"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="N13" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="O13" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="P13" s="18" t="s">
-        <v>36</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="1:12"/>
-  <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="21" width="54.1326530612245"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="21" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="21" width="6.75"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="21" width="9.44897959183673"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="21" width="6.61224489795918"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="22" width="22.2755102040816"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="21" width="20.3826530612245"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="21" width="17.5510204081633"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="21" width="21.1938775510204"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="21" width="11.3418367346939"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="26" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="C1" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="D1" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="E1" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="F1" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="G1" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="H1" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="I1" s="25" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="0"/>
-      <c r="K2" s="0"/>
-      <c r="L2" s="0"/>
-      <c r="M2" s="0"/>
-      <c r="N2" s="0"/>
-      <c r="O2" s="0"/>
-      <c r="P2" s="0"/>
-      <c r="Q2" s="0"/>
-      <c r="R2" s="0"/>
-      <c r="S2" s="0"/>
-      <c r="T2" s="0"/>
-      <c r="U2" s="0"/>
-      <c r="V2" s="0"/>
-      <c r="W2" s="0"/>
-      <c r="X2" s="0"/>
-      <c r="Y2" s="0"/>
-      <c r="Z2" s="0"/>
-      <c r="AA2" s="0"/>
-      <c r="AB2" s="0"/>
-      <c r="AC2" s="0"/>
-      <c r="AD2" s="0"/>
-      <c r="AE2" s="0"/>
-      <c r="AF2" s="0"/>
-      <c r="AG2" s="0"/>
-      <c r="AH2" s="0"/>
-      <c r="AI2" s="0"/>
-      <c r="AJ2" s="0"/>
-      <c r="AK2" s="0"/>
-      <c r="AL2" s="0"/>
-      <c r="AM2" s="0"/>
-      <c r="AN2" s="0"/>
-      <c r="AO2" s="0"/>
-      <c r="AP2" s="0"/>
-      <c r="AQ2" s="0"/>
-      <c r="AR2" s="0"/>
-      <c r="AS2" s="0"/>
-      <c r="AT2" s="0"/>
-      <c r="AU2" s="0"/>
-      <c r="AV2" s="0"/>
-      <c r="AW2" s="0"/>
-      <c r="AX2" s="0"/>
-      <c r="AY2" s="0"/>
-      <c r="AZ2" s="0"/>
-      <c r="BA2" s="0"/>
-      <c r="BB2" s="0"/>
-      <c r="BC2" s="0"/>
-      <c r="BD2" s="0"/>
-      <c r="BE2" s="0"/>
-      <c r="BF2" s="0"/>
-      <c r="BG2" s="0"/>
-      <c r="BH2" s="0"/>
-      <c r="BI2" s="0"/>
-      <c r="BJ2" s="0"/>
-      <c r="BK2" s="0"/>
-      <c r="BL2" s="0"/>
-      <c r="BM2" s="0"/>
-      <c r="BN2" s="0"/>
-      <c r="BO2" s="0"/>
-      <c r="BP2" s="0"/>
-      <c r="BQ2" s="0"/>
-      <c r="BR2" s="0"/>
-      <c r="BS2" s="0"/>
-      <c r="BT2" s="0"/>
-      <c r="BU2" s="0"/>
-      <c r="BV2" s="0"/>
-      <c r="BW2" s="0"/>
-      <c r="BX2" s="0"/>
-      <c r="BY2" s="0"/>
-      <c r="BZ2" s="0"/>
-      <c r="CA2" s="0"/>
-      <c r="CB2" s="0"/>
-      <c r="CC2" s="0"/>
-      <c r="CD2" s="0"/>
-      <c r="CE2" s="0"/>
-      <c r="CF2" s="0"/>
-      <c r="CG2" s="0"/>
-      <c r="CH2" s="0"/>
-      <c r="CI2" s="0"/>
-      <c r="CJ2" s="0"/>
-      <c r="CK2" s="0"/>
-      <c r="CL2" s="0"/>
-      <c r="CM2" s="0"/>
-      <c r="CN2" s="0"/>
-      <c r="CO2" s="0"/>
-      <c r="CP2" s="0"/>
-      <c r="CQ2" s="0"/>
-      <c r="CR2" s="0"/>
-      <c r="CS2" s="0"/>
-      <c r="CT2" s="0"/>
-      <c r="CU2" s="0"/>
-      <c r="CV2" s="0"/>
-      <c r="CW2" s="0"/>
-      <c r="CX2" s="0"/>
-      <c r="CY2" s="0"/>
-      <c r="CZ2" s="0"/>
-      <c r="DA2" s="0"/>
-      <c r="DB2" s="0"/>
-      <c r="DC2" s="0"/>
-      <c r="DD2" s="0"/>
-      <c r="DE2" s="0"/>
-      <c r="DF2" s="0"/>
-      <c r="DG2" s="0"/>
-      <c r="DH2" s="0"/>
-      <c r="DI2" s="0"/>
-      <c r="DJ2" s="0"/>
-      <c r="DK2" s="0"/>
-      <c r="DL2" s="0"/>
-      <c r="DM2" s="0"/>
-      <c r="DN2" s="0"/>
-      <c r="DO2" s="0"/>
-      <c r="DP2" s="0"/>
-      <c r="DQ2" s="0"/>
-      <c r="DR2" s="0"/>
-      <c r="DS2" s="0"/>
-      <c r="DT2" s="0"/>
-      <c r="DU2" s="0"/>
-      <c r="DV2" s="0"/>
-      <c r="DW2" s="0"/>
-      <c r="DX2" s="0"/>
-      <c r="DY2" s="0"/>
-      <c r="DZ2" s="0"/>
-      <c r="EA2" s="0"/>
-      <c r="EB2" s="0"/>
-      <c r="EC2" s="0"/>
-      <c r="ED2" s="0"/>
-      <c r="EE2" s="0"/>
-      <c r="EF2" s="0"/>
-      <c r="EG2" s="0"/>
-      <c r="EH2" s="0"/>
-      <c r="EI2" s="0"/>
-      <c r="EJ2" s="0"/>
-      <c r="EK2" s="0"/>
-      <c r="EL2" s="0"/>
-      <c r="EM2" s="0"/>
-      <c r="EN2" s="0"/>
-      <c r="EO2" s="0"/>
-      <c r="EP2" s="0"/>
-      <c r="EQ2" s="0"/>
-      <c r="ER2" s="0"/>
-      <c r="ES2" s="0"/>
-      <c r="ET2" s="0"/>
-      <c r="EU2" s="0"/>
-      <c r="EV2" s="0"/>
-      <c r="EW2" s="0"/>
-      <c r="EX2" s="0"/>
-      <c r="EY2" s="0"/>
-      <c r="EZ2" s="0"/>
-      <c r="FA2" s="0"/>
-      <c r="FB2" s="0"/>
-      <c r="FC2" s="0"/>
-      <c r="FD2" s="0"/>
-      <c r="FE2" s="0"/>
-      <c r="FF2" s="0"/>
-      <c r="FG2" s="0"/>
-      <c r="FH2" s="0"/>
-      <c r="FI2" s="0"/>
-      <c r="FJ2" s="0"/>
-      <c r="FK2" s="0"/>
-      <c r="FL2" s="0"/>
-      <c r="FM2" s="0"/>
-      <c r="FN2" s="0"/>
-      <c r="FO2" s="0"/>
-      <c r="FP2" s="0"/>
-      <c r="FQ2" s="0"/>
-      <c r="FR2" s="0"/>
-      <c r="FS2" s="0"/>
-      <c r="FT2" s="0"/>
-      <c r="FU2" s="0"/>
-      <c r="FV2" s="0"/>
-      <c r="FW2" s="0"/>
-      <c r="FX2" s="0"/>
-      <c r="FY2" s="0"/>
-      <c r="FZ2" s="0"/>
-      <c r="GA2" s="0"/>
-      <c r="GB2" s="0"/>
-      <c r="GC2" s="0"/>
-      <c r="GD2" s="0"/>
-      <c r="GE2" s="0"/>
-      <c r="GF2" s="0"/>
-      <c r="GG2" s="0"/>
-      <c r="GH2" s="0"/>
-      <c r="GI2" s="0"/>
-      <c r="GJ2" s="0"/>
-      <c r="GK2" s="0"/>
-      <c r="GL2" s="0"/>
-      <c r="GM2" s="0"/>
-      <c r="GN2" s="0"/>
-      <c r="GO2" s="0"/>
-      <c r="GP2" s="0"/>
-      <c r="GQ2" s="0"/>
-      <c r="GR2" s="0"/>
-      <c r="GS2" s="0"/>
-      <c r="GT2" s="0"/>
-      <c r="GU2" s="0"/>
-      <c r="GV2" s="0"/>
-      <c r="GW2" s="0"/>
-      <c r="GX2" s="0"/>
-      <c r="GY2" s="0"/>
-      <c r="GZ2" s="0"/>
-      <c r="HA2" s="0"/>
-      <c r="HB2" s="0"/>
-      <c r="HC2" s="0"/>
-      <c r="HD2" s="0"/>
-      <c r="HE2" s="0"/>
-      <c r="HF2" s="0"/>
-      <c r="HG2" s="0"/>
-      <c r="HH2" s="0"/>
-      <c r="HI2" s="0"/>
-      <c r="HJ2" s="0"/>
-      <c r="HK2" s="0"/>
-      <c r="HL2" s="0"/>
-      <c r="HM2" s="0"/>
-      <c r="HN2" s="0"/>
-      <c r="HO2" s="0"/>
-      <c r="HP2" s="0"/>
-      <c r="HQ2" s="0"/>
-      <c r="HR2" s="0"/>
-      <c r="HS2" s="0"/>
-      <c r="HT2" s="0"/>
-      <c r="HU2" s="0"/>
-      <c r="HV2" s="0"/>
-      <c r="HW2" s="0"/>
-      <c r="HX2" s="0"/>
-      <c r="HY2" s="0"/>
-      <c r="HZ2" s="0"/>
-      <c r="IA2" s="0"/>
-      <c r="IB2" s="0"/>
-      <c r="IC2" s="0"/>
-      <c r="ID2" s="0"/>
-      <c r="IE2" s="0"/>
-      <c r="IF2" s="0"/>
-      <c r="IG2" s="0"/>
-      <c r="IH2" s="0"/>
-      <c r="II2" s="0"/>
-      <c r="IJ2" s="0"/>
-      <c r="IK2" s="0"/>
-      <c r="IL2" s="0"/>
-      <c r="IM2" s="0"/>
-      <c r="IN2" s="0"/>
-      <c r="IO2" s="0"/>
-      <c r="IP2" s="0"/>
-      <c r="IQ2" s="0"/>
-      <c r="IR2" s="0"/>
-      <c r="IS2" s="0"/>
-      <c r="IT2" s="0"/>
-      <c r="IU2" s="0"/>
-      <c r="IV2" s="0"/>
-      <c r="IW2" s="0"/>
-      <c r="IX2" s="0"/>
-      <c r="IY2" s="0"/>
-      <c r="IZ2" s="0"/>
-      <c r="JA2" s="0"/>
-      <c r="JB2" s="0"/>
-      <c r="JC2" s="0"/>
-      <c r="JD2" s="0"/>
-      <c r="JE2" s="0"/>
-      <c r="JF2" s="0"/>
-      <c r="JG2" s="0"/>
-      <c r="JH2" s="0"/>
-      <c r="JI2" s="0"/>
-      <c r="JJ2" s="0"/>
-      <c r="JK2" s="0"/>
-      <c r="JL2" s="0"/>
-      <c r="JM2" s="0"/>
-      <c r="JN2" s="0"/>
-      <c r="JO2" s="0"/>
-      <c r="JP2" s="0"/>
-      <c r="JQ2" s="0"/>
-      <c r="JR2" s="0"/>
-      <c r="JS2" s="0"/>
-      <c r="JT2" s="0"/>
-      <c r="JU2" s="0"/>
-      <c r="JV2" s="0"/>
-      <c r="JW2" s="0"/>
-      <c r="JX2" s="0"/>
-      <c r="JY2" s="0"/>
-      <c r="JZ2" s="0"/>
-      <c r="KA2" s="0"/>
-      <c r="KB2" s="0"/>
-      <c r="KC2" s="0"/>
-      <c r="KD2" s="0"/>
-      <c r="KE2" s="0"/>
-      <c r="KF2" s="0"/>
-      <c r="KG2" s="0"/>
-      <c r="KH2" s="0"/>
-      <c r="KI2" s="0"/>
-      <c r="KJ2" s="0"/>
-      <c r="KK2" s="0"/>
-      <c r="KL2" s="0"/>
-      <c r="KM2" s="0"/>
-      <c r="KN2" s="0"/>
-      <c r="KO2" s="0"/>
-      <c r="KP2" s="0"/>
-      <c r="KQ2" s="0"/>
-      <c r="KR2" s="0"/>
-      <c r="KS2" s="0"/>
-      <c r="KT2" s="0"/>
-      <c r="KU2" s="0"/>
-      <c r="KV2" s="0"/>
-      <c r="KW2" s="0"/>
-      <c r="KX2" s="0"/>
-      <c r="KY2" s="0"/>
-      <c r="KZ2" s="0"/>
-      <c r="LA2" s="0"/>
-      <c r="LB2" s="0"/>
-      <c r="LC2" s="0"/>
-      <c r="LD2" s="0"/>
-      <c r="LE2" s="0"/>
-      <c r="LF2" s="0"/>
-      <c r="LG2" s="0"/>
-      <c r="LH2" s="0"/>
-      <c r="LI2" s="0"/>
-      <c r="LJ2" s="0"/>
-      <c r="LK2" s="0"/>
-      <c r="LL2" s="0"/>
-      <c r="LM2" s="0"/>
-      <c r="LN2" s="0"/>
-      <c r="LO2" s="0"/>
-      <c r="LP2" s="0"/>
-      <c r="LQ2" s="0"/>
-      <c r="LR2" s="0"/>
-      <c r="LS2" s="0"/>
-      <c r="LT2" s="0"/>
-      <c r="LU2" s="0"/>
-      <c r="LV2" s="0"/>
-      <c r="LW2" s="0"/>
-      <c r="LX2" s="0"/>
-      <c r="LY2" s="0"/>
-      <c r="LZ2" s="0"/>
-      <c r="MA2" s="0"/>
-      <c r="MB2" s="0"/>
-      <c r="MC2" s="0"/>
-      <c r="MD2" s="0"/>
-      <c r="ME2" s="0"/>
-      <c r="MF2" s="0"/>
-      <c r="MG2" s="0"/>
-      <c r="MH2" s="0"/>
-      <c r="MI2" s="0"/>
-      <c r="MJ2" s="0"/>
-      <c r="MK2" s="0"/>
-      <c r="ML2" s="0"/>
-      <c r="MM2" s="0"/>
-      <c r="MN2" s="0"/>
-      <c r="MO2" s="0"/>
-      <c r="MP2" s="0"/>
-      <c r="MQ2" s="0"/>
-      <c r="MR2" s="0"/>
-      <c r="MS2" s="0"/>
-      <c r="MT2" s="0"/>
-      <c r="MU2" s="0"/>
-      <c r="MV2" s="0"/>
-      <c r="MW2" s="0"/>
-      <c r="MX2" s="0"/>
-      <c r="MY2" s="0"/>
-      <c r="MZ2" s="0"/>
-      <c r="NA2" s="0"/>
-      <c r="NB2" s="0"/>
-      <c r="NC2" s="0"/>
-      <c r="ND2" s="0"/>
-      <c r="NE2" s="0"/>
-      <c r="NF2" s="0"/>
-      <c r="NG2" s="0"/>
-      <c r="NH2" s="0"/>
-      <c r="NI2" s="0"/>
-      <c r="NJ2" s="0"/>
-      <c r="NK2" s="0"/>
-      <c r="NL2" s="0"/>
-      <c r="NM2" s="0"/>
-      <c r="NN2" s="0"/>
-      <c r="NO2" s="0"/>
-      <c r="NP2" s="0"/>
-      <c r="NQ2" s="0"/>
-      <c r="NR2" s="0"/>
-      <c r="NS2" s="0"/>
-      <c r="NT2" s="0"/>
-      <c r="NU2" s="0"/>
-      <c r="NV2" s="0"/>
-      <c r="NW2" s="0"/>
-      <c r="NX2" s="0"/>
-      <c r="NY2" s="0"/>
-      <c r="NZ2" s="0"/>
-      <c r="OA2" s="0"/>
-      <c r="OB2" s="0"/>
-      <c r="OC2" s="0"/>
-      <c r="OD2" s="0"/>
-      <c r="OE2" s="0"/>
-      <c r="OF2" s="0"/>
-      <c r="OG2" s="0"/>
-      <c r="OH2" s="0"/>
-      <c r="OI2" s="0"/>
-      <c r="OJ2" s="0"/>
-      <c r="OK2" s="0"/>
-      <c r="OL2" s="0"/>
-      <c r="OM2" s="0"/>
-      <c r="ON2" s="0"/>
-      <c r="OO2" s="0"/>
-      <c r="OP2" s="0"/>
-      <c r="OQ2" s="0"/>
-      <c r="OR2" s="0"/>
-      <c r="OS2" s="0"/>
-      <c r="OT2" s="0"/>
-      <c r="OU2" s="0"/>
-      <c r="OV2" s="0"/>
-      <c r="OW2" s="0"/>
-      <c r="OX2" s="0"/>
-      <c r="OY2" s="0"/>
-      <c r="OZ2" s="0"/>
-      <c r="PA2" s="0"/>
-      <c r="PB2" s="0"/>
-      <c r="PC2" s="0"/>
-      <c r="PD2" s="0"/>
-      <c r="PE2" s="0"/>
-      <c r="PF2" s="0"/>
-      <c r="PG2" s="0"/>
-      <c r="PH2" s="0"/>
-      <c r="PI2" s="0"/>
-      <c r="PJ2" s="0"/>
-      <c r="PK2" s="0"/>
-      <c r="PL2" s="0"/>
-      <c r="PM2" s="0"/>
-      <c r="PN2" s="0"/>
-      <c r="PO2" s="0"/>
-      <c r="PP2" s="0"/>
-      <c r="PQ2" s="0"/>
-      <c r="PR2" s="0"/>
-      <c r="PS2" s="0"/>
-      <c r="PT2" s="0"/>
-      <c r="PU2" s="0"/>
-      <c r="PV2" s="0"/>
-      <c r="PW2" s="0"/>
-      <c r="PX2" s="0"/>
-      <c r="PY2" s="0"/>
-      <c r="PZ2" s="0"/>
-      <c r="QA2" s="0"/>
-      <c r="QB2" s="0"/>
-      <c r="QC2" s="0"/>
-      <c r="QD2" s="0"/>
-      <c r="QE2" s="0"/>
-      <c r="QF2" s="0"/>
-      <c r="QG2" s="0"/>
-      <c r="QH2" s="0"/>
-      <c r="QI2" s="0"/>
-      <c r="QJ2" s="0"/>
-      <c r="QK2" s="0"/>
-      <c r="QL2" s="0"/>
-      <c r="QM2" s="0"/>
-      <c r="QN2" s="0"/>
-      <c r="QO2" s="0"/>
-      <c r="QP2" s="0"/>
-      <c r="QQ2" s="0"/>
-      <c r="QR2" s="0"/>
-      <c r="QS2" s="0"/>
-      <c r="QT2" s="0"/>
-      <c r="QU2" s="0"/>
-      <c r="QV2" s="0"/>
-      <c r="QW2" s="0"/>
-      <c r="QX2" s="0"/>
-      <c r="QY2" s="0"/>
-      <c r="QZ2" s="0"/>
-      <c r="RA2" s="0"/>
-      <c r="RB2" s="0"/>
-      <c r="RC2" s="0"/>
-      <c r="RD2" s="0"/>
-      <c r="RE2" s="0"/>
-      <c r="RF2" s="0"/>
-      <c r="RG2" s="0"/>
-      <c r="RH2" s="0"/>
-      <c r="RI2" s="0"/>
-      <c r="RJ2" s="0"/>
-      <c r="RK2" s="0"/>
-      <c r="RL2" s="0"/>
-      <c r="RM2" s="0"/>
-      <c r="RN2" s="0"/>
-      <c r="RO2" s="0"/>
-      <c r="RP2" s="0"/>
-      <c r="RQ2" s="0"/>
-      <c r="RR2" s="0"/>
-      <c r="RS2" s="0"/>
-      <c r="RT2" s="0"/>
-      <c r="RU2" s="0"/>
-      <c r="RV2" s="0"/>
-      <c r="RW2" s="0"/>
-      <c r="RX2" s="0"/>
-      <c r="RY2" s="0"/>
-      <c r="RZ2" s="0"/>
-      <c r="SA2" s="0"/>
-      <c r="SB2" s="0"/>
-      <c r="SC2" s="0"/>
-      <c r="SD2" s="0"/>
-      <c r="SE2" s="0"/>
-      <c r="SF2" s="0"/>
-      <c r="SG2" s="0"/>
-      <c r="SH2" s="0"/>
-      <c r="SI2" s="0"/>
-      <c r="SJ2" s="0"/>
-      <c r="SK2" s="0"/>
-      <c r="SL2" s="0"/>
-      <c r="SM2" s="0"/>
-      <c r="SN2" s="0"/>
-      <c r="SO2" s="0"/>
-      <c r="SP2" s="0"/>
-      <c r="SQ2" s="0"/>
-      <c r="SR2" s="0"/>
-      <c r="SS2" s="0"/>
-      <c r="ST2" s="0"/>
-      <c r="SU2" s="0"/>
-      <c r="SV2" s="0"/>
-      <c r="SW2" s="0"/>
-      <c r="SX2" s="0"/>
-      <c r="SY2" s="0"/>
-      <c r="SZ2" s="0"/>
-      <c r="TA2" s="0"/>
-      <c r="TB2" s="0"/>
-      <c r="TC2" s="0"/>
-      <c r="TD2" s="0"/>
-      <c r="TE2" s="0"/>
-      <c r="TF2" s="0"/>
-      <c r="TG2" s="0"/>
-      <c r="TH2" s="0"/>
-      <c r="TI2" s="0"/>
-      <c r="TJ2" s="0"/>
-      <c r="TK2" s="0"/>
-      <c r="TL2" s="0"/>
-      <c r="TM2" s="0"/>
-      <c r="TN2" s="0"/>
-      <c r="TO2" s="0"/>
-      <c r="TP2" s="0"/>
-      <c r="TQ2" s="0"/>
-      <c r="TR2" s="0"/>
-      <c r="TS2" s="0"/>
-      <c r="TT2" s="0"/>
-      <c r="TU2" s="0"/>
-      <c r="TV2" s="0"/>
-      <c r="TW2" s="0"/>
-      <c r="TX2" s="0"/>
-      <c r="TY2" s="0"/>
-      <c r="TZ2" s="0"/>
-      <c r="UA2" s="0"/>
-      <c r="UB2" s="0"/>
-      <c r="UC2" s="0"/>
-      <c r="UD2" s="0"/>
-      <c r="UE2" s="0"/>
-      <c r="UF2" s="0"/>
-      <c r="UG2" s="0"/>
-      <c r="UH2" s="0"/>
-      <c r="UI2" s="0"/>
-      <c r="UJ2" s="0"/>
-      <c r="UK2" s="0"/>
-      <c r="UL2" s="0"/>
-      <c r="UM2" s="0"/>
-      <c r="UN2" s="0"/>
-      <c r="UO2" s="0"/>
-      <c r="UP2" s="0"/>
-      <c r="UQ2" s="0"/>
-      <c r="UR2" s="0"/>
-      <c r="US2" s="0"/>
-      <c r="UT2" s="0"/>
-      <c r="UU2" s="0"/>
-      <c r="UV2" s="0"/>
-      <c r="UW2" s="0"/>
-      <c r="UX2" s="0"/>
-      <c r="UY2" s="0"/>
-      <c r="UZ2" s="0"/>
-      <c r="VA2" s="0"/>
-      <c r="VB2" s="0"/>
-      <c r="VC2" s="0"/>
-      <c r="VD2" s="0"/>
-      <c r="VE2" s="0"/>
-      <c r="VF2" s="0"/>
-      <c r="VG2" s="0"/>
-      <c r="VH2" s="0"/>
-      <c r="VI2" s="0"/>
-      <c r="VJ2" s="0"/>
-      <c r="VK2" s="0"/>
-      <c r="VL2" s="0"/>
-      <c r="VM2" s="0"/>
-      <c r="VN2" s="0"/>
-      <c r="VO2" s="0"/>
-      <c r="VP2" s="0"/>
-      <c r="VQ2" s="0"/>
-      <c r="VR2" s="0"/>
-      <c r="VS2" s="0"/>
-      <c r="VT2" s="0"/>
-      <c r="VU2" s="0"/>
-      <c r="VV2" s="0"/>
-      <c r="VW2" s="0"/>
-      <c r="VX2" s="0"/>
-      <c r="VY2" s="0"/>
-      <c r="VZ2" s="0"/>
-      <c r="WA2" s="0"/>
-      <c r="WB2" s="0"/>
-      <c r="WC2" s="0"/>
-      <c r="WD2" s="0"/>
-      <c r="WE2" s="0"/>
-      <c r="WF2" s="0"/>
-      <c r="WG2" s="0"/>
-      <c r="WH2" s="0"/>
-      <c r="WI2" s="0"/>
-      <c r="WJ2" s="0"/>
-      <c r="WK2" s="0"/>
-      <c r="WL2" s="0"/>
-      <c r="WM2" s="0"/>
-      <c r="WN2" s="0"/>
-      <c r="WO2" s="0"/>
-      <c r="WP2" s="0"/>
-      <c r="WQ2" s="0"/>
-      <c r="WR2" s="0"/>
-      <c r="WS2" s="0"/>
-      <c r="WT2" s="0"/>
-      <c r="WU2" s="0"/>
-      <c r="WV2" s="0"/>
-      <c r="WW2" s="0"/>
-      <c r="WX2" s="0"/>
-      <c r="WY2" s="0"/>
-      <c r="WZ2" s="0"/>
-      <c r="XA2" s="0"/>
-      <c r="XB2" s="0"/>
-      <c r="XC2" s="0"/>
-      <c r="XD2" s="0"/>
-      <c r="XE2" s="0"/>
-      <c r="XF2" s="0"/>
-      <c r="XG2" s="0"/>
-      <c r="XH2" s="0"/>
-      <c r="XI2" s="0"/>
-      <c r="XJ2" s="0"/>
-      <c r="XK2" s="0"/>
-      <c r="XL2" s="0"/>
-      <c r="XM2" s="0"/>
-      <c r="XN2" s="0"/>
-      <c r="XO2" s="0"/>
-      <c r="XP2" s="0"/>
-      <c r="XQ2" s="0"/>
-      <c r="XR2" s="0"/>
-      <c r="XS2" s="0"/>
-      <c r="XT2" s="0"/>
-      <c r="XU2" s="0"/>
-      <c r="XV2" s="0"/>
-      <c r="XW2" s="0"/>
-      <c r="XX2" s="0"/>
-      <c r="XY2" s="0"/>
-      <c r="XZ2" s="0"/>
-      <c r="YA2" s="0"/>
-      <c r="YB2" s="0"/>
-      <c r="YC2" s="0"/>
-      <c r="YD2" s="0"/>
-      <c r="YE2" s="0"/>
-      <c r="YF2" s="0"/>
-      <c r="YG2" s="0"/>
-      <c r="YH2" s="0"/>
-      <c r="YI2" s="0"/>
-      <c r="YJ2" s="0"/>
-      <c r="YK2" s="0"/>
-      <c r="YL2" s="0"/>
-      <c r="YM2" s="0"/>
-      <c r="YN2" s="0"/>
-      <c r="YO2" s="0"/>
-      <c r="YP2" s="0"/>
-      <c r="YQ2" s="0"/>
-      <c r="YR2" s="0"/>
-      <c r="YS2" s="0"/>
-      <c r="YT2" s="0"/>
-      <c r="YU2" s="0"/>
-      <c r="YV2" s="0"/>
-      <c r="YW2" s="0"/>
-      <c r="YX2" s="0"/>
-      <c r="YY2" s="0"/>
-      <c r="YZ2" s="0"/>
-      <c r="ZA2" s="0"/>
-      <c r="ZB2" s="0"/>
-      <c r="ZC2" s="0"/>
-      <c r="ZD2" s="0"/>
-      <c r="ZE2" s="0"/>
-      <c r="ZF2" s="0"/>
-      <c r="ZG2" s="0"/>
-      <c r="ZH2" s="0"/>
-      <c r="ZI2" s="0"/>
-      <c r="ZJ2" s="0"/>
-      <c r="ZK2" s="0"/>
-      <c r="ZL2" s="0"/>
-      <c r="ZM2" s="0"/>
-      <c r="ZN2" s="0"/>
-      <c r="ZO2" s="0"/>
-      <c r="ZP2" s="0"/>
-      <c r="ZQ2" s="0"/>
-      <c r="ZR2" s="0"/>
-      <c r="ZS2" s="0"/>
-      <c r="ZT2" s="0"/>
-      <c r="ZU2" s="0"/>
-      <c r="ZV2" s="0"/>
-      <c r="ZW2" s="0"/>
-      <c r="ZX2" s="0"/>
-      <c r="ZY2" s="0"/>
-      <c r="ZZ2" s="0"/>
-      <c r="AAA2" s="0"/>
-      <c r="AAB2" s="0"/>
-      <c r="AAC2" s="0"/>
-      <c r="AAD2" s="0"/>
-      <c r="AAE2" s="0"/>
-      <c r="AAF2" s="0"/>
-      <c r="AAG2" s="0"/>
-      <c r="AAH2" s="0"/>
-      <c r="AAI2" s="0"/>
-      <c r="AAJ2" s="0"/>
-      <c r="AAK2" s="0"/>
-      <c r="AAL2" s="0"/>
-      <c r="AAM2" s="0"/>
-      <c r="AAN2" s="0"/>
-      <c r="AAO2" s="0"/>
-      <c r="AAP2" s="0"/>
-      <c r="AAQ2" s="0"/>
-      <c r="AAR2" s="0"/>
-      <c r="AAS2" s="0"/>
-      <c r="AAT2" s="0"/>
-      <c r="AAU2" s="0"/>
-      <c r="AAV2" s="0"/>
-      <c r="AAW2" s="0"/>
-      <c r="AAX2" s="0"/>
-      <c r="AAY2" s="0"/>
-      <c r="AAZ2" s="0"/>
-      <c r="ABA2" s="0"/>
-      <c r="ABB2" s="0"/>
-      <c r="ABC2" s="0"/>
-      <c r="ABD2" s="0"/>
-      <c r="ABE2" s="0"/>
-      <c r="ABF2" s="0"/>
-      <c r="ABG2" s="0"/>
-      <c r="ABH2" s="0"/>
-      <c r="ABI2" s="0"/>
-      <c r="ABJ2" s="0"/>
-      <c r="ABK2" s="0"/>
-      <c r="ABL2" s="0"/>
-      <c r="ABM2" s="0"/>
-      <c r="ABN2" s="0"/>
-      <c r="ABO2" s="0"/>
-      <c r="ABP2" s="0"/>
-      <c r="ABQ2" s="0"/>
-      <c r="ABR2" s="0"/>
-      <c r="ABS2" s="0"/>
-      <c r="ABT2" s="0"/>
-      <c r="ABU2" s="0"/>
-      <c r="ABV2" s="0"/>
-      <c r="ABW2" s="0"/>
-      <c r="ABX2" s="0"/>
-      <c r="ABY2" s="0"/>
-      <c r="ABZ2" s="0"/>
-      <c r="ACA2" s="0"/>
-      <c r="ACB2" s="0"/>
-      <c r="ACC2" s="0"/>
-      <c r="ACD2" s="0"/>
-      <c r="ACE2" s="0"/>
-      <c r="ACF2" s="0"/>
-      <c r="ACG2" s="0"/>
-      <c r="ACH2" s="0"/>
-      <c r="ACI2" s="0"/>
-      <c r="ACJ2" s="0"/>
-      <c r="ACK2" s="0"/>
-      <c r="ACL2" s="0"/>
-      <c r="ACM2" s="0"/>
-      <c r="ACN2" s="0"/>
-      <c r="ACO2" s="0"/>
-      <c r="ACP2" s="0"/>
-      <c r="ACQ2" s="0"/>
-      <c r="ACR2" s="0"/>
-      <c r="ACS2" s="0"/>
-      <c r="ACT2" s="0"/>
-      <c r="ACU2" s="0"/>
-      <c r="ACV2" s="0"/>
-      <c r="ACW2" s="0"/>
-      <c r="ACX2" s="0"/>
-      <c r="ACY2" s="0"/>
-      <c r="ACZ2" s="0"/>
-      <c r="ADA2" s="0"/>
-      <c r="ADB2" s="0"/>
-      <c r="ADC2" s="0"/>
-      <c r="ADD2" s="0"/>
-      <c r="ADE2" s="0"/>
-      <c r="ADF2" s="0"/>
-      <c r="ADG2" s="0"/>
-      <c r="ADH2" s="0"/>
-      <c r="ADI2" s="0"/>
-      <c r="ADJ2" s="0"/>
-      <c r="ADK2" s="0"/>
-      <c r="ADL2" s="0"/>
-      <c r="ADM2" s="0"/>
-      <c r="ADN2" s="0"/>
-      <c r="ADO2" s="0"/>
-      <c r="ADP2" s="0"/>
-      <c r="ADQ2" s="0"/>
-      <c r="ADR2" s="0"/>
-      <c r="ADS2" s="0"/>
-      <c r="ADT2" s="0"/>
-      <c r="ADU2" s="0"/>
-      <c r="ADV2" s="0"/>
-      <c r="ADW2" s="0"/>
-      <c r="ADX2" s="0"/>
-      <c r="ADY2" s="0"/>
-      <c r="ADZ2" s="0"/>
-      <c r="AEA2" s="0"/>
-      <c r="AEB2" s="0"/>
-      <c r="AEC2" s="0"/>
-      <c r="AED2" s="0"/>
-      <c r="AEE2" s="0"/>
-      <c r="AEF2" s="0"/>
-      <c r="AEG2" s="0"/>
-      <c r="AEH2" s="0"/>
-      <c r="AEI2" s="0"/>
-      <c r="AEJ2" s="0"/>
-      <c r="AEK2" s="0"/>
-      <c r="AEL2" s="0"/>
-      <c r="AEM2" s="0"/>
-      <c r="AEN2" s="0"/>
-      <c r="AEO2" s="0"/>
-      <c r="AEP2" s="0"/>
-      <c r="AEQ2" s="0"/>
-      <c r="AER2" s="0"/>
-      <c r="AES2" s="0"/>
-      <c r="AET2" s="0"/>
-      <c r="AEU2" s="0"/>
-      <c r="AEV2" s="0"/>
-      <c r="AEW2" s="0"/>
-      <c r="AEX2" s="0"/>
-      <c r="AEY2" s="0"/>
-      <c r="AEZ2" s="0"/>
-      <c r="AFA2" s="0"/>
-      <c r="AFB2" s="0"/>
-      <c r="AFC2" s="0"/>
-      <c r="AFD2" s="0"/>
-      <c r="AFE2" s="0"/>
-      <c r="AFF2" s="0"/>
-      <c r="AFG2" s="0"/>
-      <c r="AFH2" s="0"/>
-      <c r="AFI2" s="0"/>
-      <c r="AFJ2" s="0"/>
-      <c r="AFK2" s="0"/>
-      <c r="AFL2" s="0"/>
-      <c r="AFM2" s="0"/>
-      <c r="AFN2" s="0"/>
-      <c r="AFO2" s="0"/>
-      <c r="AFP2" s="0"/>
-      <c r="AFQ2" s="0"/>
-      <c r="AFR2" s="0"/>
-      <c r="AFS2" s="0"/>
-      <c r="AFT2" s="0"/>
-      <c r="AFU2" s="0"/>
-      <c r="AFV2" s="0"/>
-      <c r="AFW2" s="0"/>
-      <c r="AFX2" s="0"/>
-      <c r="AFY2" s="0"/>
-      <c r="AFZ2" s="0"/>
-      <c r="AGA2" s="0"/>
-      <c r="AGB2" s="0"/>
-      <c r="AGC2" s="0"/>
-      <c r="AGD2" s="0"/>
-      <c r="AGE2" s="0"/>
-      <c r="AGF2" s="0"/>
-      <c r="AGG2" s="0"/>
-      <c r="AGH2" s="0"/>
-      <c r="AGI2" s="0"/>
-      <c r="AGJ2" s="0"/>
-      <c r="AGK2" s="0"/>
-      <c r="AGL2" s="0"/>
-      <c r="AGM2" s="0"/>
-      <c r="AGN2" s="0"/>
-      <c r="AGO2" s="0"/>
-      <c r="AGP2" s="0"/>
-      <c r="AGQ2" s="0"/>
-      <c r="AGR2" s="0"/>
-      <c r="AGS2" s="0"/>
-      <c r="AGT2" s="0"/>
-      <c r="AGU2" s="0"/>
-      <c r="AGV2" s="0"/>
-      <c r="AGW2" s="0"/>
-      <c r="AGX2" s="0"/>
-      <c r="AGY2" s="0"/>
-      <c r="AGZ2" s="0"/>
-      <c r="AHA2" s="0"/>
-      <c r="AHB2" s="0"/>
-      <c r="AHC2" s="0"/>
-      <c r="AHD2" s="0"/>
-      <c r="AHE2" s="0"/>
-      <c r="AHF2" s="0"/>
-      <c r="AHG2" s="0"/>
-      <c r="AHH2" s="0"/>
-      <c r="AHI2" s="0"/>
-      <c r="AHJ2" s="0"/>
-      <c r="AHK2" s="0"/>
-      <c r="AHL2" s="0"/>
-      <c r="AHM2" s="0"/>
-      <c r="AHN2" s="0"/>
-      <c r="AHO2" s="0"/>
-      <c r="AHP2" s="0"/>
-      <c r="AHQ2" s="0"/>
-      <c r="AHR2" s="0"/>
-      <c r="AHS2" s="0"/>
-      <c r="AHT2" s="0"/>
-      <c r="AHU2" s="0"/>
-      <c r="AHV2" s="0"/>
-      <c r="AHW2" s="0"/>
-      <c r="AHX2" s="0"/>
-      <c r="AHY2" s="0"/>
-      <c r="AHZ2" s="0"/>
-      <c r="AIA2" s="0"/>
-      <c r="AIB2" s="0"/>
-      <c r="AIC2" s="0"/>
-      <c r="AID2" s="0"/>
-      <c r="AIE2" s="0"/>
-      <c r="AIF2" s="0"/>
-      <c r="AIG2" s="0"/>
-      <c r="AIH2" s="0"/>
-      <c r="AII2" s="0"/>
-      <c r="AIJ2" s="0"/>
-      <c r="AIK2" s="0"/>
-      <c r="AIL2" s="0"/>
-      <c r="AIM2" s="0"/>
-      <c r="AIN2" s="0"/>
-      <c r="AIO2" s="0"/>
-      <c r="AIP2" s="0"/>
-      <c r="AIQ2" s="0"/>
-      <c r="AIR2" s="0"/>
-      <c r="AIS2" s="0"/>
-      <c r="AIT2" s="0"/>
-      <c r="AIU2" s="0"/>
-      <c r="AIV2" s="0"/>
-      <c r="AIW2" s="0"/>
-      <c r="AIX2" s="0"/>
-      <c r="AIY2" s="0"/>
-      <c r="AIZ2" s="0"/>
-      <c r="AJA2" s="0"/>
-      <c r="AJB2" s="0"/>
-      <c r="AJC2" s="0"/>
-      <c r="AJD2" s="0"/>
-      <c r="AJE2" s="0"/>
-      <c r="AJF2" s="0"/>
-      <c r="AJG2" s="0"/>
-      <c r="AJH2" s="0"/>
-      <c r="AJI2" s="0"/>
-      <c r="AJJ2" s="0"/>
-      <c r="AJK2" s="0"/>
-      <c r="AJL2" s="0"/>
-      <c r="AJM2" s="0"/>
-      <c r="AJN2" s="0"/>
-      <c r="AJO2" s="0"/>
-      <c r="AJP2" s="0"/>
-      <c r="AJQ2" s="0"/>
-      <c r="AJR2" s="0"/>
-      <c r="AJS2" s="0"/>
-      <c r="AJT2" s="0"/>
-      <c r="AJU2" s="0"/>
-      <c r="AJV2" s="0"/>
-      <c r="AJW2" s="0"/>
-      <c r="AJX2" s="0"/>
-      <c r="AJY2" s="0"/>
-      <c r="AJZ2" s="0"/>
-      <c r="AKA2" s="0"/>
-      <c r="AKB2" s="0"/>
-      <c r="AKC2" s="0"/>
-      <c r="AKD2" s="0"/>
-      <c r="AKE2" s="0"/>
-      <c r="AKF2" s="0"/>
-      <c r="AKG2" s="0"/>
-      <c r="AKH2" s="0"/>
-      <c r="AKI2" s="0"/>
-      <c r="AKJ2" s="0"/>
-      <c r="AKK2" s="0"/>
-      <c r="AKL2" s="0"/>
-      <c r="AKM2" s="0"/>
-      <c r="AKN2" s="0"/>
-      <c r="AKO2" s="0"/>
-      <c r="AKP2" s="0"/>
-      <c r="AKQ2" s="0"/>
-      <c r="AKR2" s="0"/>
-      <c r="AKS2" s="0"/>
-      <c r="AKT2" s="0"/>
-      <c r="AKU2" s="0"/>
-      <c r="AKV2" s="0"/>
-      <c r="AKW2" s="0"/>
-      <c r="AKX2" s="0"/>
-      <c r="AKY2" s="0"/>
-      <c r="AKZ2" s="0"/>
-      <c r="ALA2" s="0"/>
-      <c r="ALB2" s="0"/>
-      <c r="ALC2" s="0"/>
-      <c r="ALD2" s="0"/>
-      <c r="ALE2" s="0"/>
-      <c r="ALF2" s="0"/>
-      <c r="ALG2" s="0"/>
-      <c r="ALH2" s="0"/>
-      <c r="ALI2" s="0"/>
-      <c r="ALJ2" s="0"/>
-      <c r="ALK2" s="0"/>
-      <c r="ALL2" s="0"/>
-      <c r="ALM2" s="0"/>
-      <c r="ALN2" s="0"/>
-      <c r="ALO2" s="0"/>
-      <c r="ALP2" s="0"/>
-      <c r="ALQ2" s="0"/>
-      <c r="ALR2" s="0"/>
-      <c r="ALS2" s="0"/>
-      <c r="ALT2" s="0"/>
-      <c r="ALU2" s="0"/>
-      <c r="ALV2" s="0"/>
-      <c r="ALW2" s="0"/>
-      <c r="ALX2" s="0"/>
-      <c r="ALY2" s="0"/>
-      <c r="ALZ2" s="0"/>
-      <c r="AMA2" s="0"/>
-      <c r="AMB2" s="0"/>
-      <c r="AMC2" s="0"/>
-      <c r="AMD2" s="0"/>
-      <c r="AME2" s="0"/>
-      <c r="AMF2" s="0"/>
-      <c r="AMG2" s="0"/>
-      <c r="AMH2" s="0"/>
-      <c r="AMI2" s="0"/>
-      <c r="AMJ2" s="0"/>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="0"/>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="0"/>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="0"/>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="0"/>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="C7" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="0"/>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="B8" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="C8" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="0"/>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="B9" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="C9" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="31"/>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="B10" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="C10" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="E10" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="29"/>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="C11" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="21" t="s">
-        <v>18</v>
-      </c>
+      <c r="S11" s="0"/>
+      <c r="T11" s="0"/>
+      <c r="U11" s="0"/>
+      <c r="V11" s="0"/>
+      <c r="W11" s="0"/>
+      <c r="X11" s="0"/>
+      <c r="Y11" s="0"/>
+      <c r="Z11" s="0"/>
+      <c r="AA11" s="0"/>
+      <c r="AB11" s="0"/>
+      <c r="AC11" s="0"/>
+      <c r="AD11" s="0"/>
+      <c r="AE11" s="0"/>
+      <c r="AF11" s="0"/>
+      <c r="AG11" s="0"/>
+      <c r="AH11" s="0"/>
+      <c r="AI11" s="0"/>
+      <c r="AJ11" s="0"/>
+      <c r="AK11" s="0"/>
+      <c r="AL11" s="0"/>
+      <c r="AM11" s="0"/>
+      <c r="AN11" s="0"/>
+      <c r="AO11" s="0"/>
+      <c r="AP11" s="0"/>
+      <c r="AQ11" s="0"/>
+      <c r="AR11" s="0"/>
+      <c r="AS11" s="0"/>
+      <c r="AT11" s="0"/>
+      <c r="AU11" s="0"/>
+      <c r="AV11" s="0"/>
+      <c r="AW11" s="0"/>
+      <c r="AX11" s="0"/>
+      <c r="AY11" s="0"/>
+      <c r="AZ11" s="0"/>
+      <c r="BA11" s="0"/>
+      <c r="BB11" s="0"/>
+      <c r="BC11" s="0"/>
+      <c r="BD11" s="0"/>
+      <c r="BE11" s="0"/>
+      <c r="BF11" s="0"/>
+      <c r="BG11" s="0"/>
+      <c r="BH11" s="0"/>
+      <c r="BI11" s="0"/>
+      <c r="BJ11" s="0"/>
+      <c r="BK11" s="0"/>
+      <c r="BL11" s="0"/>
+      <c r="BM11" s="0"/>
+      <c r="BN11" s="0"/>
+      <c r="BO11" s="0"/>
+      <c r="BP11" s="0"/>
+      <c r="BQ11" s="0"/>
+      <c r="BR11" s="0"/>
+      <c r="BS11" s="0"/>
+      <c r="BT11" s="0"/>
+      <c r="BU11" s="0"/>
+      <c r="BV11" s="0"/>
+      <c r="BW11" s="0"/>
+      <c r="BX11" s="0"/>
+      <c r="BY11" s="0"/>
+      <c r="BZ11" s="0"/>
+      <c r="CA11" s="0"/>
+      <c r="CB11" s="0"/>
+      <c r="CC11" s="0"/>
+      <c r="CD11" s="0"/>
+      <c r="CE11" s="0"/>
+      <c r="CF11" s="0"/>
+      <c r="CG11" s="0"/>
+      <c r="CH11" s="0"/>
+      <c r="CI11" s="0"/>
+      <c r="CJ11" s="0"/>
+      <c r="CK11" s="0"/>
+      <c r="CL11" s="0"/>
+      <c r="CM11" s="0"/>
+      <c r="CN11" s="0"/>
+      <c r="CO11" s="0"/>
+      <c r="CP11" s="0"/>
+      <c r="CQ11" s="0"/>
+      <c r="CR11" s="0"/>
+      <c r="CS11" s="0"/>
+      <c r="CT11" s="0"/>
+      <c r="CU11" s="0"/>
+      <c r="CV11" s="0"/>
+      <c r="CW11" s="0"/>
+      <c r="CX11" s="0"/>
+      <c r="CY11" s="0"/>
+      <c r="CZ11" s="0"/>
+      <c r="DA11" s="0"/>
+      <c r="DB11" s="0"/>
+      <c r="DC11" s="0"/>
+      <c r="DD11" s="0"/>
+      <c r="DE11" s="0"/>
+      <c r="DF11" s="0"/>
+      <c r="DG11" s="0"/>
+      <c r="DH11" s="0"/>
+      <c r="DI11" s="0"/>
+      <c r="DJ11" s="0"/>
+      <c r="DK11" s="0"/>
+      <c r="DL11" s="0"/>
+      <c r="DM11" s="0"/>
+      <c r="DN11" s="0"/>
+      <c r="DO11" s="0"/>
+      <c r="DP11" s="0"/>
+      <c r="DQ11" s="0"/>
+      <c r="DR11" s="0"/>
+      <c r="DS11" s="0"/>
+      <c r="DT11" s="0"/>
+      <c r="DU11" s="0"/>
+      <c r="DV11" s="0"/>
+      <c r="DW11" s="0"/>
+      <c r="DX11" s="0"/>
+      <c r="DY11" s="0"/>
+      <c r="DZ11" s="0"/>
+      <c r="EA11" s="0"/>
+      <c r="EB11" s="0"/>
+      <c r="EC11" s="0"/>
+      <c r="ED11" s="0"/>
+      <c r="EE11" s="0"/>
+      <c r="EF11" s="0"/>
+      <c r="EG11" s="0"/>
+      <c r="EH11" s="0"/>
+      <c r="EI11" s="0"/>
+      <c r="EJ11" s="0"/>
+      <c r="EK11" s="0"/>
+      <c r="EL11" s="0"/>
+      <c r="EM11" s="0"/>
+      <c r="EN11" s="0"/>
+      <c r="EO11" s="0"/>
+      <c r="EP11" s="0"/>
+      <c r="EQ11" s="0"/>
+      <c r="ER11" s="0"/>
+      <c r="ES11" s="0"/>
+      <c r="ET11" s="0"/>
+      <c r="EU11" s="0"/>
+      <c r="EV11" s="0"/>
+      <c r="EW11" s="0"/>
+      <c r="EX11" s="0"/>
+      <c r="EY11" s="0"/>
+      <c r="EZ11" s="0"/>
+      <c r="FA11" s="0"/>
+      <c r="FB11" s="0"/>
+      <c r="FC11" s="0"/>
+      <c r="FD11" s="0"/>
+      <c r="FE11" s="0"/>
+      <c r="FF11" s="0"/>
+      <c r="FG11" s="0"/>
+      <c r="FH11" s="0"/>
+      <c r="FI11" s="0"/>
+      <c r="FJ11" s="0"/>
+      <c r="FK11" s="0"/>
+      <c r="FL11" s="0"/>
+      <c r="FM11" s="0"/>
+      <c r="FN11" s="0"/>
+      <c r="FO11" s="0"/>
+      <c r="FP11" s="0"/>
+      <c r="FQ11" s="0"/>
+      <c r="FR11" s="0"/>
+      <c r="FS11" s="0"/>
+      <c r="FT11" s="0"/>
+      <c r="FU11" s="0"/>
+      <c r="FV11" s="0"/>
+      <c r="FW11" s="0"/>
+      <c r="FX11" s="0"/>
+      <c r="FY11" s="0"/>
+      <c r="FZ11" s="0"/>
+      <c r="GA11" s="0"/>
+      <c r="GB11" s="0"/>
+      <c r="GC11" s="0"/>
+      <c r="GD11" s="0"/>
+      <c r="GE11" s="0"/>
+      <c r="GF11" s="0"/>
+      <c r="GG11" s="0"/>
+      <c r="GH11" s="0"/>
+      <c r="GI11" s="0"/>
+      <c r="GJ11" s="0"/>
+      <c r="GK11" s="0"/>
+      <c r="GL11" s="0"/>
+      <c r="GM11" s="0"/>
+      <c r="GN11" s="0"/>
+      <c r="GO11" s="0"/>
+      <c r="GP11" s="0"/>
+      <c r="GQ11" s="0"/>
+      <c r="GR11" s="0"/>
+      <c r="GS11" s="0"/>
+      <c r="GT11" s="0"/>
+      <c r="GU11" s="0"/>
+      <c r="GV11" s="0"/>
+      <c r="GW11" s="0"/>
+      <c r="GX11" s="0"/>
+      <c r="GY11" s="0"/>
+      <c r="GZ11" s="0"/>
+      <c r="HA11" s="0"/>
+      <c r="HB11" s="0"/>
+      <c r="HC11" s="0"/>
+      <c r="HD11" s="0"/>
+      <c r="HE11" s="0"/>
+      <c r="HF11" s="0"/>
+      <c r="HG11" s="0"/>
+      <c r="HH11" s="0"/>
+      <c r="HI11" s="0"/>
+      <c r="HJ11" s="0"/>
+      <c r="HK11" s="0"/>
+      <c r="HL11" s="0"/>
+      <c r="HM11" s="0"/>
+      <c r="HN11" s="0"/>
+      <c r="HO11" s="0"/>
+      <c r="HP11" s="0"/>
+      <c r="HQ11" s="0"/>
+      <c r="HR11" s="0"/>
+      <c r="HS11" s="0"/>
+      <c r="HT11" s="0"/>
+      <c r="HU11" s="0"/>
+      <c r="HV11" s="0"/>
+      <c r="HW11" s="0"/>
+      <c r="HX11" s="0"/>
+      <c r="HY11" s="0"/>
+      <c r="HZ11" s="0"/>
+      <c r="IA11" s="0"/>
+      <c r="IB11" s="0"/>
+      <c r="IC11" s="0"/>
+      <c r="ID11" s="0"/>
+      <c r="IE11" s="0"/>
+      <c r="IF11" s="0"/>
+      <c r="IG11" s="0"/>
+      <c r="IH11" s="0"/>
+      <c r="II11" s="0"/>
+      <c r="IJ11" s="0"/>
+      <c r="IK11" s="0"/>
+      <c r="IL11" s="0"/>
+      <c r="IM11" s="0"/>
+      <c r="IN11" s="0"/>
+      <c r="IO11" s="0"/>
+      <c r="IP11" s="0"/>
+      <c r="IQ11" s="0"/>
+      <c r="IR11" s="0"/>
+      <c r="IS11" s="0"/>
+      <c r="IT11" s="0"/>
+      <c r="IU11" s="0"/>
+      <c r="IV11" s="0"/>
+      <c r="IW11" s="0"/>
+      <c r="IX11" s="0"/>
+      <c r="IY11" s="0"/>
+      <c r="IZ11" s="0"/>
+      <c r="JA11" s="0"/>
+      <c r="JB11" s="0"/>
+      <c r="JC11" s="0"/>
+      <c r="JD11" s="0"/>
+      <c r="JE11" s="0"/>
+      <c r="JF11" s="0"/>
+      <c r="JG11" s="0"/>
+      <c r="JH11" s="0"/>
+      <c r="JI11" s="0"/>
+      <c r="JJ11" s="0"/>
+      <c r="JK11" s="0"/>
+      <c r="JL11" s="0"/>
+      <c r="JM11" s="0"/>
+      <c r="JN11" s="0"/>
+      <c r="JO11" s="0"/>
+      <c r="JP11" s="0"/>
+      <c r="JQ11" s="0"/>
+      <c r="JR11" s="0"/>
+      <c r="JS11" s="0"/>
+      <c r="JT11" s="0"/>
+      <c r="JU11" s="0"/>
+      <c r="JV11" s="0"/>
+      <c r="JW11" s="0"/>
+      <c r="JX11" s="0"/>
+      <c r="JY11" s="0"/>
+      <c r="JZ11" s="0"/>
+      <c r="KA11" s="0"/>
+      <c r="KB11" s="0"/>
+      <c r="KC11" s="0"/>
+      <c r="KD11" s="0"/>
+      <c r="KE11" s="0"/>
+      <c r="KF11" s="0"/>
+      <c r="KG11" s="0"/>
+      <c r="KH11" s="0"/>
+      <c r="KI11" s="0"/>
+      <c r="KJ11" s="0"/>
+      <c r="KK11" s="0"/>
+      <c r="KL11" s="0"/>
+      <c r="KM11" s="0"/>
+      <c r="KN11" s="0"/>
+      <c r="KO11" s="0"/>
+      <c r="KP11" s="0"/>
+      <c r="KQ11" s="0"/>
+      <c r="KR11" s="0"/>
+      <c r="KS11" s="0"/>
+      <c r="KT11" s="0"/>
+      <c r="KU11" s="0"/>
+      <c r="KV11" s="0"/>
+      <c r="KW11" s="0"/>
+      <c r="KX11" s="0"/>
+      <c r="KY11" s="0"/>
+      <c r="KZ11" s="0"/>
+      <c r="LA11" s="0"/>
+      <c r="LB11" s="0"/>
+      <c r="LC11" s="0"/>
+      <c r="LD11" s="0"/>
+      <c r="LE11" s="0"/>
+      <c r="LF11" s="0"/>
+      <c r="LG11" s="0"/>
+      <c r="LH11" s="0"/>
+      <c r="LI11" s="0"/>
+      <c r="LJ11" s="0"/>
+      <c r="LK11" s="0"/>
+      <c r="LL11" s="0"/>
+      <c r="LM11" s="0"/>
+      <c r="LN11" s="0"/>
+      <c r="LO11" s="0"/>
+      <c r="LP11" s="0"/>
+      <c r="LQ11" s="0"/>
+      <c r="LR11" s="0"/>
+      <c r="LS11" s="0"/>
+      <c r="LT11" s="0"/>
+      <c r="LU11" s="0"/>
+      <c r="LV11" s="0"/>
+      <c r="LW11" s="0"/>
+      <c r="LX11" s="0"/>
+      <c r="LY11" s="0"/>
+      <c r="LZ11" s="0"/>
+      <c r="MA11" s="0"/>
+      <c r="MB11" s="0"/>
+      <c r="MC11" s="0"/>
+      <c r="MD11" s="0"/>
+      <c r="ME11" s="0"/>
+      <c r="MF11" s="0"/>
+      <c r="MG11" s="0"/>
+      <c r="MH11" s="0"/>
+      <c r="MI11" s="0"/>
+      <c r="MJ11" s="0"/>
+      <c r="MK11" s="0"/>
+      <c r="ML11" s="0"/>
+      <c r="MM11" s="0"/>
+      <c r="MN11" s="0"/>
+      <c r="MO11" s="0"/>
+      <c r="MP11" s="0"/>
+      <c r="MQ11" s="0"/>
+      <c r="MR11" s="0"/>
+      <c r="MS11" s="0"/>
+      <c r="MT11" s="0"/>
+      <c r="MU11" s="0"/>
+      <c r="MV11" s="0"/>
+      <c r="MW11" s="0"/>
+      <c r="MX11" s="0"/>
+      <c r="MY11" s="0"/>
+      <c r="MZ11" s="0"/>
+      <c r="NA11" s="0"/>
+      <c r="NB11" s="0"/>
+      <c r="NC11" s="0"/>
+      <c r="ND11" s="0"/>
+      <c r="NE11" s="0"/>
+      <c r="NF11" s="0"/>
+      <c r="NG11" s="0"/>
+      <c r="NH11" s="0"/>
+      <c r="NI11" s="0"/>
+      <c r="NJ11" s="0"/>
+      <c r="NK11" s="0"/>
+      <c r="NL11" s="0"/>
+      <c r="NM11" s="0"/>
+      <c r="NN11" s="0"/>
+      <c r="NO11" s="0"/>
+      <c r="NP11" s="0"/>
+      <c r="NQ11" s="0"/>
+      <c r="NR11" s="0"/>
+      <c r="NS11" s="0"/>
+      <c r="NT11" s="0"/>
+      <c r="NU11" s="0"/>
+      <c r="NV11" s="0"/>
+      <c r="NW11" s="0"/>
+      <c r="NX11" s="0"/>
+      <c r="NY11" s="0"/>
+      <c r="NZ11" s="0"/>
+      <c r="OA11" s="0"/>
+      <c r="OB11" s="0"/>
+      <c r="OC11" s="0"/>
+      <c r="OD11" s="0"/>
+      <c r="OE11" s="0"/>
+      <c r="OF11" s="0"/>
+      <c r="OG11" s="0"/>
+      <c r="OH11" s="0"/>
+      <c r="OI11" s="0"/>
+      <c r="OJ11" s="0"/>
+      <c r="OK11" s="0"/>
+      <c r="OL11" s="0"/>
+      <c r="OM11" s="0"/>
+      <c r="ON11" s="0"/>
+      <c r="OO11" s="0"/>
+      <c r="OP11" s="0"/>
+      <c r="OQ11" s="0"/>
+      <c r="OR11" s="0"/>
+      <c r="OS11" s="0"/>
+      <c r="OT11" s="0"/>
+      <c r="OU11" s="0"/>
+      <c r="OV11" s="0"/>
+      <c r="OW11" s="0"/>
+      <c r="OX11" s="0"/>
+      <c r="OY11" s="0"/>
+      <c r="OZ11" s="0"/>
+      <c r="PA11" s="0"/>
+      <c r="PB11" s="0"/>
+      <c r="PC11" s="0"/>
+      <c r="PD11" s="0"/>
+      <c r="PE11" s="0"/>
+      <c r="PF11" s="0"/>
+      <c r="PG11" s="0"/>
+      <c r="PH11" s="0"/>
+      <c r="PI11" s="0"/>
+      <c r="PJ11" s="0"/>
+      <c r="PK11" s="0"/>
+      <c r="PL11" s="0"/>
+      <c r="PM11" s="0"/>
+      <c r="PN11" s="0"/>
+      <c r="PO11" s="0"/>
+      <c r="PP11" s="0"/>
+      <c r="PQ11" s="0"/>
+      <c r="PR11" s="0"/>
+      <c r="PS11" s="0"/>
+      <c r="PT11" s="0"/>
+      <c r="PU11" s="0"/>
+      <c r="PV11" s="0"/>
+      <c r="PW11" s="0"/>
+      <c r="PX11" s="0"/>
+      <c r="PY11" s="0"/>
+      <c r="PZ11" s="0"/>
+      <c r="QA11" s="0"/>
+      <c r="QB11" s="0"/>
+      <c r="QC11" s="0"/>
+      <c r="QD11" s="0"/>
+      <c r="QE11" s="0"/>
+      <c r="QF11" s="0"/>
+      <c r="QG11" s="0"/>
+      <c r="QH11" s="0"/>
+      <c r="QI11" s="0"/>
+      <c r="QJ11" s="0"/>
+      <c r="QK11" s="0"/>
+      <c r="QL11" s="0"/>
+      <c r="QM11" s="0"/>
+      <c r="QN11" s="0"/>
+      <c r="QO11" s="0"/>
+      <c r="QP11" s="0"/>
+      <c r="QQ11" s="0"/>
+      <c r="QR11" s="0"/>
+      <c r="QS11" s="0"/>
+      <c r="QT11" s="0"/>
+      <c r="QU11" s="0"/>
+      <c r="QV11" s="0"/>
+      <c r="QW11" s="0"/>
+      <c r="QX11" s="0"/>
+      <c r="QY11" s="0"/>
+      <c r="QZ11" s="0"/>
+      <c r="RA11" s="0"/>
+      <c r="RB11" s="0"/>
+      <c r="RC11" s="0"/>
+      <c r="RD11" s="0"/>
+      <c r="RE11" s="0"/>
+      <c r="RF11" s="0"/>
+      <c r="RG11" s="0"/>
+      <c r="RH11" s="0"/>
+      <c r="RI11" s="0"/>
+      <c r="RJ11" s="0"/>
+      <c r="RK11" s="0"/>
+      <c r="RL11" s="0"/>
+      <c r="RM11" s="0"/>
+      <c r="RN11" s="0"/>
+      <c r="RO11" s="0"/>
+      <c r="RP11" s="0"/>
+      <c r="RQ11" s="0"/>
+      <c r="RR11" s="0"/>
+      <c r="RS11" s="0"/>
+      <c r="RT11" s="0"/>
+      <c r="RU11" s="0"/>
+      <c r="RV11" s="0"/>
+      <c r="RW11" s="0"/>
+      <c r="RX11" s="0"/>
+      <c r="RY11" s="0"/>
+      <c r="RZ11" s="0"/>
+      <c r="SA11" s="0"/>
+      <c r="SB11" s="0"/>
+      <c r="SC11" s="0"/>
+      <c r="SD11" s="0"/>
+      <c r="SE11" s="0"/>
+      <c r="SF11" s="0"/>
+      <c r="SG11" s="0"/>
+      <c r="SH11" s="0"/>
+      <c r="SI11" s="0"/>
+      <c r="SJ11" s="0"/>
+      <c r="SK11" s="0"/>
+      <c r="SL11" s="0"/>
+      <c r="SM11" s="0"/>
+      <c r="SN11" s="0"/>
+      <c r="SO11" s="0"/>
+      <c r="SP11" s="0"/>
+      <c r="SQ11" s="0"/>
+      <c r="SR11" s="0"/>
+      <c r="SS11" s="0"/>
+      <c r="ST11" s="0"/>
+      <c r="SU11" s="0"/>
+      <c r="SV11" s="0"/>
+      <c r="SW11" s="0"/>
+      <c r="SX11" s="0"/>
+      <c r="SY11" s="0"/>
+      <c r="SZ11" s="0"/>
+      <c r="TA11" s="0"/>
+      <c r="TB11" s="0"/>
+      <c r="TC11" s="0"/>
+      <c r="TD11" s="0"/>
+      <c r="TE11" s="0"/>
+      <c r="TF11" s="0"/>
+      <c r="TG11" s="0"/>
+      <c r="TH11" s="0"/>
+      <c r="TI11" s="0"/>
+      <c r="TJ11" s="0"/>
+      <c r="TK11" s="0"/>
+      <c r="TL11" s="0"/>
+      <c r="TM11" s="0"/>
+      <c r="TN11" s="0"/>
+      <c r="TO11" s="0"/>
+      <c r="TP11" s="0"/>
+      <c r="TQ11" s="0"/>
+      <c r="TR11" s="0"/>
+      <c r="TS11" s="0"/>
+      <c r="TT11" s="0"/>
+      <c r="TU11" s="0"/>
+      <c r="TV11" s="0"/>
+      <c r="TW11" s="0"/>
+      <c r="TX11" s="0"/>
+      <c r="TY11" s="0"/>
+      <c r="TZ11" s="0"/>
+      <c r="UA11" s="0"/>
+      <c r="UB11" s="0"/>
+      <c r="UC11" s="0"/>
+      <c r="UD11" s="0"/>
+      <c r="UE11" s="0"/>
+      <c r="UF11" s="0"/>
+      <c r="UG11" s="0"/>
+      <c r="UH11" s="0"/>
+      <c r="UI11" s="0"/>
+      <c r="UJ11" s="0"/>
+      <c r="UK11" s="0"/>
+      <c r="UL11" s="0"/>
+      <c r="UM11" s="0"/>
+      <c r="UN11" s="0"/>
+      <c r="UO11" s="0"/>
+      <c r="UP11" s="0"/>
+      <c r="UQ11" s="0"/>
+      <c r="UR11" s="0"/>
+      <c r="US11" s="0"/>
+      <c r="UT11" s="0"/>
+      <c r="UU11" s="0"/>
+      <c r="UV11" s="0"/>
+      <c r="UW11" s="0"/>
+      <c r="UX11" s="0"/>
+      <c r="UY11" s="0"/>
+      <c r="UZ11" s="0"/>
+      <c r="VA11" s="0"/>
+      <c r="VB11" s="0"/>
+      <c r="VC11" s="0"/>
+      <c r="VD11" s="0"/>
+      <c r="VE11" s="0"/>
+      <c r="VF11" s="0"/>
+      <c r="VG11" s="0"/>
+      <c r="VH11" s="0"/>
+      <c r="VI11" s="0"/>
+      <c r="VJ11" s="0"/>
+      <c r="VK11" s="0"/>
+      <c r="VL11" s="0"/>
+      <c r="VM11" s="0"/>
+      <c r="VN11" s="0"/>
+      <c r="VO11" s="0"/>
+      <c r="VP11" s="0"/>
+      <c r="VQ11" s="0"/>
+      <c r="VR11" s="0"/>
+      <c r="VS11" s="0"/>
+      <c r="VT11" s="0"/>
+      <c r="VU11" s="0"/>
+      <c r="VV11" s="0"/>
+      <c r="VW11" s="0"/>
+      <c r="VX11" s="0"/>
+      <c r="VY11" s="0"/>
+      <c r="VZ11" s="0"/>
+      <c r="WA11" s="0"/>
+      <c r="WB11" s="0"/>
+      <c r="WC11" s="0"/>
+      <c r="WD11" s="0"/>
+      <c r="WE11" s="0"/>
+      <c r="WF11" s="0"/>
+      <c r="WG11" s="0"/>
+      <c r="WH11" s="0"/>
+      <c r="WI11" s="0"/>
+      <c r="WJ11" s="0"/>
+      <c r="WK11" s="0"/>
+      <c r="WL11" s="0"/>
+      <c r="WM11" s="0"/>
+      <c r="WN11" s="0"/>
+      <c r="WO11" s="0"/>
+      <c r="WP11" s="0"/>
+      <c r="WQ11" s="0"/>
+      <c r="WR11" s="0"/>
+      <c r="WS11" s="0"/>
+      <c r="WT11" s="0"/>
+      <c r="WU11" s="0"/>
+      <c r="WV11" s="0"/>
+      <c r="WW11" s="0"/>
+      <c r="WX11" s="0"/>
+      <c r="WY11" s="0"/>
+      <c r="WZ11" s="0"/>
+      <c r="XA11" s="0"/>
+      <c r="XB11" s="0"/>
+      <c r="XC11" s="0"/>
+      <c r="XD11" s="0"/>
+      <c r="XE11" s="0"/>
+      <c r="XF11" s="0"/>
+      <c r="XG11" s="0"/>
+      <c r="XH11" s="0"/>
+      <c r="XI11" s="0"/>
+      <c r="XJ11" s="0"/>
+      <c r="XK11" s="0"/>
+      <c r="XL11" s="0"/>
+      <c r="XM11" s="0"/>
+      <c r="XN11" s="0"/>
+      <c r="XO11" s="0"/>
+      <c r="XP11" s="0"/>
+      <c r="XQ11" s="0"/>
+      <c r="XR11" s="0"/>
+      <c r="XS11" s="0"/>
+      <c r="XT11" s="0"/>
+      <c r="XU11" s="0"/>
+      <c r="XV11" s="0"/>
+      <c r="XW11" s="0"/>
+      <c r="XX11" s="0"/>
+      <c r="XY11" s="0"/>
+      <c r="XZ11" s="0"/>
+      <c r="YA11" s="0"/>
+      <c r="YB11" s="0"/>
+      <c r="YC11" s="0"/>
+      <c r="YD11" s="0"/>
+      <c r="YE11" s="0"/>
+      <c r="YF11" s="0"/>
+      <c r="YG11" s="0"/>
+      <c r="YH11" s="0"/>
+      <c r="YI11" s="0"/>
+      <c r="YJ11" s="0"/>
+      <c r="YK11" s="0"/>
+      <c r="YL11" s="0"/>
+      <c r="YM11" s="0"/>
+      <c r="YN11" s="0"/>
+      <c r="YO11" s="0"/>
+      <c r="YP11" s="0"/>
+      <c r="YQ11" s="0"/>
+      <c r="YR11" s="0"/>
+      <c r="YS11" s="0"/>
+      <c r="YT11" s="0"/>
+      <c r="YU11" s="0"/>
+      <c r="YV11" s="0"/>
+      <c r="YW11" s="0"/>
+      <c r="YX11" s="0"/>
+      <c r="YY11" s="0"/>
+      <c r="YZ11" s="0"/>
+      <c r="ZA11" s="0"/>
+      <c r="ZB11" s="0"/>
+      <c r="ZC11" s="0"/>
+      <c r="ZD11" s="0"/>
+      <c r="ZE11" s="0"/>
+      <c r="ZF11" s="0"/>
+      <c r="ZG11" s="0"/>
+      <c r="ZH11" s="0"/>
+      <c r="ZI11" s="0"/>
+      <c r="ZJ11" s="0"/>
+      <c r="ZK11" s="0"/>
+      <c r="ZL11" s="0"/>
+      <c r="ZM11" s="0"/>
+      <c r="ZN11" s="0"/>
+      <c r="ZO11" s="0"/>
+      <c r="ZP11" s="0"/>
+      <c r="ZQ11" s="0"/>
+      <c r="ZR11" s="0"/>
+      <c r="ZS11" s="0"/>
+      <c r="ZT11" s="0"/>
+      <c r="ZU11" s="0"/>
+      <c r="ZV11" s="0"/>
+      <c r="ZW11" s="0"/>
+      <c r="ZX11" s="0"/>
+      <c r="ZY11" s="0"/>
+      <c r="ZZ11" s="0"/>
+      <c r="AAA11" s="0"/>
+      <c r="AAB11" s="0"/>
+      <c r="AAC11" s="0"/>
+      <c r="AAD11" s="0"/>
+      <c r="AAE11" s="0"/>
+      <c r="AAF11" s="0"/>
+      <c r="AAG11" s="0"/>
+      <c r="AAH11" s="0"/>
+      <c r="AAI11" s="0"/>
+      <c r="AAJ11" s="0"/>
+      <c r="AAK11" s="0"/>
+      <c r="AAL11" s="0"/>
+      <c r="AAM11" s="0"/>
+      <c r="AAN11" s="0"/>
+      <c r="AAO11" s="0"/>
+      <c r="AAP11" s="0"/>
+      <c r="AAQ11" s="0"/>
+      <c r="AAR11" s="0"/>
+      <c r="AAS11" s="0"/>
+      <c r="AAT11" s="0"/>
+      <c r="AAU11" s="0"/>
+      <c r="AAV11" s="0"/>
+      <c r="AAW11" s="0"/>
+      <c r="AAX11" s="0"/>
+      <c r="AAY11" s="0"/>
+      <c r="AAZ11" s="0"/>
+      <c r="ABA11" s="0"/>
+      <c r="ABB11" s="0"/>
+      <c r="ABC11" s="0"/>
+      <c r="ABD11" s="0"/>
+      <c r="ABE11" s="0"/>
+      <c r="ABF11" s="0"/>
+      <c r="ABG11" s="0"/>
+      <c r="ABH11" s="0"/>
+      <c r="ABI11" s="0"/>
+      <c r="ABJ11" s="0"/>
+      <c r="ABK11" s="0"/>
+      <c r="ABL11" s="0"/>
+      <c r="ABM11" s="0"/>
+      <c r="ABN11" s="0"/>
+      <c r="ABO11" s="0"/>
+      <c r="ABP11" s="0"/>
+      <c r="ABQ11" s="0"/>
+      <c r="ABR11" s="0"/>
+      <c r="ABS11" s="0"/>
+      <c r="ABT11" s="0"/>
+      <c r="ABU11" s="0"/>
+      <c r="ABV11" s="0"/>
+      <c r="ABW11" s="0"/>
+      <c r="ABX11" s="0"/>
+      <c r="ABY11" s="0"/>
+      <c r="ABZ11" s="0"/>
+      <c r="ACA11" s="0"/>
+      <c r="ACB11" s="0"/>
+      <c r="ACC11" s="0"/>
+      <c r="ACD11" s="0"/>
+      <c r="ACE11" s="0"/>
+      <c r="ACF11" s="0"/>
+      <c r="ACG11" s="0"/>
+      <c r="ACH11" s="0"/>
+      <c r="ACI11" s="0"/>
+      <c r="ACJ11" s="0"/>
+      <c r="ACK11" s="0"/>
+      <c r="ACL11" s="0"/>
+      <c r="ACM11" s="0"/>
+      <c r="ACN11" s="0"/>
+      <c r="ACO11" s="0"/>
+      <c r="ACP11" s="0"/>
+      <c r="ACQ11" s="0"/>
+      <c r="ACR11" s="0"/>
+      <c r="ACS11" s="0"/>
+      <c r="ACT11" s="0"/>
+      <c r="ACU11" s="0"/>
+      <c r="ACV11" s="0"/>
+      <c r="ACW11" s="0"/>
+      <c r="ACX11" s="0"/>
+      <c r="ACY11" s="0"/>
+      <c r="ACZ11" s="0"/>
+      <c r="ADA11" s="0"/>
+      <c r="ADB11" s="0"/>
+      <c r="ADC11" s="0"/>
+      <c r="ADD11" s="0"/>
+      <c r="ADE11" s="0"/>
+      <c r="ADF11" s="0"/>
+      <c r="ADG11" s="0"/>
+      <c r="ADH11" s="0"/>
+      <c r="ADI11" s="0"/>
+      <c r="ADJ11" s="0"/>
+      <c r="ADK11" s="0"/>
+      <c r="ADL11" s="0"/>
+      <c r="ADM11" s="0"/>
+      <c r="ADN11" s="0"/>
+      <c r="ADO11" s="0"/>
+      <c r="ADP11" s="0"/>
+      <c r="ADQ11" s="0"/>
+      <c r="ADR11" s="0"/>
+      <c r="ADS11" s="0"/>
+      <c r="ADT11" s="0"/>
+      <c r="ADU11" s="0"/>
+      <c r="ADV11" s="0"/>
+      <c r="ADW11" s="0"/>
+      <c r="ADX11" s="0"/>
+      <c r="ADY11" s="0"/>
+      <c r="ADZ11" s="0"/>
+      <c r="AEA11" s="0"/>
+      <c r="AEB11" s="0"/>
+      <c r="AEC11" s="0"/>
+      <c r="AED11" s="0"/>
+      <c r="AEE11" s="0"/>
+      <c r="AEF11" s="0"/>
+      <c r="AEG11" s="0"/>
+      <c r="AEH11" s="0"/>
+      <c r="AEI11" s="0"/>
+      <c r="AEJ11" s="0"/>
+      <c r="AEK11" s="0"/>
+      <c r="AEL11" s="0"/>
+      <c r="AEM11" s="0"/>
+      <c r="AEN11" s="0"/>
+      <c r="AEO11" s="0"/>
+      <c r="AEP11" s="0"/>
+      <c r="AEQ11" s="0"/>
+      <c r="AER11" s="0"/>
+      <c r="AES11" s="0"/>
+      <c r="AET11" s="0"/>
+      <c r="AEU11" s="0"/>
+      <c r="AEV11" s="0"/>
+      <c r="AEW11" s="0"/>
+      <c r="AEX11" s="0"/>
+      <c r="AEY11" s="0"/>
+      <c r="AEZ11" s="0"/>
+      <c r="AFA11" s="0"/>
+      <c r="AFB11" s="0"/>
+      <c r="AFC11" s="0"/>
+      <c r="AFD11" s="0"/>
+      <c r="AFE11" s="0"/>
+      <c r="AFF11" s="0"/>
+      <c r="AFG11" s="0"/>
+      <c r="AFH11" s="0"/>
+      <c r="AFI11" s="0"/>
+      <c r="AFJ11" s="0"/>
+      <c r="AFK11" s="0"/>
+      <c r="AFL11" s="0"/>
+      <c r="AFM11" s="0"/>
+      <c r="AFN11" s="0"/>
+      <c r="AFO11" s="0"/>
+      <c r="AFP11" s="0"/>
+      <c r="AFQ11" s="0"/>
+      <c r="AFR11" s="0"/>
+      <c r="AFS11" s="0"/>
+      <c r="AFT11" s="0"/>
+      <c r="AFU11" s="0"/>
+      <c r="AFV11" s="0"/>
+      <c r="AFW11" s="0"/>
+      <c r="AFX11" s="0"/>
+      <c r="AFY11" s="0"/>
+      <c r="AFZ11" s="0"/>
+      <c r="AGA11" s="0"/>
+      <c r="AGB11" s="0"/>
+      <c r="AGC11" s="0"/>
+      <c r="AGD11" s="0"/>
+      <c r="AGE11" s="0"/>
+      <c r="AGF11" s="0"/>
+      <c r="AGG11" s="0"/>
+      <c r="AGH11" s="0"/>
+      <c r="AGI11" s="0"/>
+      <c r="AGJ11" s="0"/>
+      <c r="AGK11" s="0"/>
+      <c r="AGL11" s="0"/>
+      <c r="AGM11" s="0"/>
+      <c r="AGN11" s="0"/>
+      <c r="AGO11" s="0"/>
+      <c r="AGP11" s="0"/>
+      <c r="AGQ11" s="0"/>
+      <c r="AGR11" s="0"/>
+      <c r="AGS11" s="0"/>
+      <c r="AGT11" s="0"/>
+      <c r="AGU11" s="0"/>
+      <c r="AGV11" s="0"/>
+      <c r="AGW11" s="0"/>
+      <c r="AGX11" s="0"/>
+      <c r="AGY11" s="0"/>
+      <c r="AGZ11" s="0"/>
+      <c r="AHA11" s="0"/>
+      <c r="AHB11" s="0"/>
+      <c r="AHC11" s="0"/>
+      <c r="AHD11" s="0"/>
+      <c r="AHE11" s="0"/>
+      <c r="AHF11" s="0"/>
+      <c r="AHG11" s="0"/>
+      <c r="AHH11" s="0"/>
+      <c r="AHI11" s="0"/>
+      <c r="AHJ11" s="0"/>
+      <c r="AHK11" s="0"/>
+      <c r="AHL11" s="0"/>
+      <c r="AHM11" s="0"/>
+      <c r="AHN11" s="0"/>
+      <c r="AHO11" s="0"/>
+      <c r="AHP11" s="0"/>
+      <c r="AHQ11" s="0"/>
+      <c r="AHR11" s="0"/>
+      <c r="AHS11" s="0"/>
+      <c r="AHT11" s="0"/>
+      <c r="AHU11" s="0"/>
+      <c r="AHV11" s="0"/>
+      <c r="AHW11" s="0"/>
+      <c r="AHX11" s="0"/>
+      <c r="AHY11" s="0"/>
+      <c r="AHZ11" s="0"/>
+      <c r="AIA11" s="0"/>
+      <c r="AIB11" s="0"/>
+      <c r="AIC11" s="0"/>
+      <c r="AID11" s="0"/>
+      <c r="AIE11" s="0"/>
+      <c r="AIF11" s="0"/>
+      <c r="AIG11" s="0"/>
+      <c r="AIH11" s="0"/>
+      <c r="AII11" s="0"/>
+      <c r="AIJ11" s="0"/>
+      <c r="AIK11" s="0"/>
+      <c r="AIL11" s="0"/>
+      <c r="AIM11" s="0"/>
+      <c r="AIN11" s="0"/>
+      <c r="AIO11" s="0"/>
+      <c r="AIP11" s="0"/>
+      <c r="AIQ11" s="0"/>
+      <c r="AIR11" s="0"/>
+      <c r="AIS11" s="0"/>
+      <c r="AIT11" s="0"/>
+      <c r="AIU11" s="0"/>
+      <c r="AIV11" s="0"/>
+      <c r="AIW11" s="0"/>
+      <c r="AIX11" s="0"/>
+      <c r="AIY11" s="0"/>
+      <c r="AIZ11" s="0"/>
+      <c r="AJA11" s="0"/>
+      <c r="AJB11" s="0"/>
+      <c r="AJC11" s="0"/>
+      <c r="AJD11" s="0"/>
+      <c r="AJE11" s="0"/>
+      <c r="AJF11" s="0"/>
+      <c r="AJG11" s="0"/>
+      <c r="AJH11" s="0"/>
+      <c r="AJI11" s="0"/>
+      <c r="AJJ11" s="0"/>
+      <c r="AJK11" s="0"/>
+      <c r="AJL11" s="0"/>
+      <c r="AJM11" s="0"/>
+      <c r="AJN11" s="0"/>
+      <c r="AJO11" s="0"/>
+      <c r="AJP11" s="0"/>
+      <c r="AJQ11" s="0"/>
+      <c r="AJR11" s="0"/>
+      <c r="AJS11" s="0"/>
+      <c r="AJT11" s="0"/>
+      <c r="AJU11" s="0"/>
+      <c r="AJV11" s="0"/>
+      <c r="AJW11" s="0"/>
+      <c r="AJX11" s="0"/>
+      <c r="AJY11" s="0"/>
+      <c r="AJZ11" s="0"/>
+      <c r="AKA11" s="0"/>
+      <c r="AKB11" s="0"/>
+      <c r="AKC11" s="0"/>
+      <c r="AKD11" s="0"/>
+      <c r="AKE11" s="0"/>
+      <c r="AKF11" s="0"/>
+      <c r="AKG11" s="0"/>
+      <c r="AKH11" s="0"/>
+      <c r="AKI11" s="0"/>
+      <c r="AKJ11" s="0"/>
+      <c r="AKK11" s="0"/>
+      <c r="AKL11" s="0"/>
+      <c r="AKM11" s="0"/>
+      <c r="AKN11" s="0"/>
+      <c r="AKO11" s="0"/>
+      <c r="AKP11" s="0"/>
+      <c r="AKQ11" s="0"/>
+      <c r="AKR11" s="0"/>
+      <c r="AKS11" s="0"/>
+      <c r="AKT11" s="0"/>
+      <c r="AKU11" s="0"/>
+      <c r="AKV11" s="0"/>
+      <c r="AKW11" s="0"/>
+      <c r="AKX11" s="0"/>
+      <c r="AKY11" s="0"/>
+      <c r="AKZ11" s="0"/>
+      <c r="ALA11" s="0"/>
+      <c r="ALB11" s="0"/>
+      <c r="ALC11" s="0"/>
+      <c r="ALD11" s="0"/>
+      <c r="ALE11" s="0"/>
+      <c r="ALF11" s="0"/>
+      <c r="ALG11" s="0"/>
+      <c r="ALH11" s="0"/>
+      <c r="ALI11" s="0"/>
+      <c r="ALJ11" s="0"/>
+      <c r="ALK11" s="0"/>
+      <c r="ALL11" s="0"/>
+      <c r="ALM11" s="0"/>
+      <c r="ALN11" s="0"/>
+      <c r="ALO11" s="0"/>
+      <c r="ALP11" s="0"/>
+      <c r="ALQ11" s="0"/>
+      <c r="ALR11" s="0"/>
+      <c r="ALS11" s="0"/>
+      <c r="ALT11" s="0"/>
+      <c r="ALU11" s="0"/>
+      <c r="ALV11" s="0"/>
+      <c r="ALW11" s="0"/>
+      <c r="ALX11" s="0"/>
+      <c r="ALY11" s="0"/>
+      <c r="ALZ11" s="0"/>
+      <c r="AMA11" s="0"/>
+      <c r="AMB11" s="0"/>
+      <c r="AMC11" s="0"/>
+      <c r="AMD11" s="0"/>
+      <c r="AME11" s="0"/>
+      <c r="AMF11" s="0"/>
+      <c r="AMG11" s="0"/>
+      <c r="AMH11" s="0"/>
+      <c r="AMI11" s="0"/>
+      <c r="AMJ11" s="0"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/Projects/CARLSBRGHK/Data/Template.xlsx
+++ b/Projects/CARLSBRGHK/Data/Template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="kpis" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="38">
   <si>
     <t xml:space="preserve">kpi_name</t>
   </si>
@@ -167,7 +167,7 @@
       <family val="0"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -207,13 +207,19 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC5C2F5"/>
-        <bgColor rgb="FFC0C0C0"/>
+        <bgColor rgb="FF99CCFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF977D"/>
         <bgColor rgb="FFF69ABE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFC2E8FB"/>
       </patternFill>
     </fill>
   </fills>
@@ -258,7 +264,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -323,6 +329,10 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -352,7 +362,7 @@
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FFDDDDDD"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
@@ -406,16 +416,16 @@
   </sheetPr>
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B3 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="110.826530612245"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="105.969387755102"/>
     <col collapsed="false" hidden="false" max="3" min="2" style="0" width="8.50510204081633"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="21.734693877551"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="20.5204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -551,24 +561,26 @@
   </sheetPr>
   <dimension ref="1:11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="7" width="58.3520408163265"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="7" width="59.530612244898"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="7" width="11.6071428571429"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="7" width="10.2602040816327"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="7" width="8.10204081632653"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="7" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="7" width="29.0255102040816"/>
-    <col collapsed="false" hidden="false" max="12" min="11" style="7" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="7" width="11.6071428571429"/>
-    <col collapsed="false" hidden="false" max="17" min="15" style="7" width="19.4387755102041"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="7" width="11.6071428571429"/>
-    <col collapsed="false" hidden="false" max="1025" min="19" style="7" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="7" width="51.4336734693878"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="7" width="60.2040816326531"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="7" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="7" width="9.71938775510204"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="7" width="7.56122448979592"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="7" width="12.6887755102041"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="7" width="7.29081632653061"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="7" width="7.69387755102041"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="7" width="7.29081632653061"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="7" width="7.1530612244898"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="7" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="17" min="15" style="7" width="18.3571428571429"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="7" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="1025" min="19" style="7" width="9.85204081632653"/>
   </cols>
   <sheetData>
     <row r="1" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -632,14 +644,14 @@
       <c r="D2" s="13"/>
       <c r="E2" s="14"/>
       <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
+      <c r="G2" s="16"/>
       <c r="H2" s="12" t="s">
         <v>31</v>
       </c>
       <c r="I2" s="13"/>
       <c r="J2" s="14"/>
       <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
+      <c r="L2" s="16"/>
       <c r="M2" s="2" t="s">
         <v>30</v>
       </c>
@@ -1662,7 +1674,7 @@
       <c r="AMJ2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="17" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -1676,14 +1688,14 @@
       </c>
       <c r="E3" s="14"/>
       <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
+      <c r="G3" s="16"/>
       <c r="H3" s="12" t="s">
         <v>31</v>
       </c>
       <c r="I3" s="13"/>
       <c r="J3" s="14"/>
       <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
+      <c r="L3" s="16"/>
       <c r="M3" s="2" t="s">
         <v>30</v>
       </c>
@@ -2706,7 +2718,7 @@
       <c r="AMJ3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="17" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -2720,12 +2732,12 @@
       </c>
       <c r="E4" s="14"/>
       <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
+      <c r="G4" s="16"/>
       <c r="H4" s="12"/>
       <c r="I4" s="13"/>
       <c r="J4" s="14"/>
       <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
+      <c r="L4" s="16"/>
       <c r="M4" s="2" t="s">
         <v>30</v>
       </c>
@@ -3748,7 +3760,7 @@
       <c r="AMJ4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="17" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -3764,12 +3776,12 @@
         <v>35</v>
       </c>
       <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
+      <c r="G5" s="16"/>
       <c r="H5" s="12"/>
       <c r="I5" s="13"/>
       <c r="J5" s="14"/>
       <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
+      <c r="L5" s="16"/>
       <c r="M5" s="2" t="s">
         <v>35</v>
       </c>
@@ -4792,7 +4804,7 @@
       <c r="AMJ5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="17" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -4810,12 +4822,12 @@
       <c r="F6" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="G6" s="15"/>
+      <c r="G6" s="16"/>
       <c r="H6" s="12"/>
       <c r="I6" s="13"/>
       <c r="J6" s="14"/>
       <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
+      <c r="L6" s="16"/>
       <c r="M6" s="2" t="s">
         <v>36</v>
       </c>
@@ -5850,14 +5862,14 @@
       </c>
       <c r="E7" s="14"/>
       <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
+      <c r="G7" s="16"/>
       <c r="H7" s="12" t="s">
         <v>31</v>
       </c>
       <c r="I7" s="13"/>
       <c r="J7" s="14"/>
       <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
+      <c r="L7" s="16"/>
       <c r="M7" s="2" t="s">
         <v>30</v>
       </c>
@@ -5890,14 +5902,14 @@
         <v>34</v>
       </c>
       <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
+      <c r="G8" s="16"/>
       <c r="H8" s="12" t="s">
         <v>31</v>
       </c>
       <c r="I8" s="13"/>
       <c r="J8" s="14"/>
       <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
+      <c r="L8" s="16"/>
       <c r="M8" s="2" t="s">
         <v>30</v>
       </c>
@@ -6936,12 +6948,12 @@
         <v>34</v>
       </c>
       <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
+      <c r="G9" s="16"/>
       <c r="H9" s="12"/>
       <c r="I9" s="13"/>
       <c r="J9" s="14"/>
       <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
+      <c r="L9" s="16"/>
       <c r="M9" s="2" t="s">
         <v>30</v>
       </c>
@@ -7982,12 +7994,12 @@
       <c r="F10" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="G10" s="15"/>
+      <c r="G10" s="16"/>
       <c r="H10" s="12"/>
       <c r="I10" s="13"/>
       <c r="J10" s="14"/>
       <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
+      <c r="L10" s="16"/>
       <c r="M10" s="2" t="s">
         <v>35</v>
       </c>
@@ -9028,12 +9040,14 @@
       <c r="F11" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="G11" s="15"/>
+      <c r="G11" s="16" t="s">
+        <v>36</v>
+      </c>
       <c r="H11" s="12"/>
       <c r="I11" s="13"/>
       <c r="J11" s="14"/>
       <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
+      <c r="L11" s="16"/>
       <c r="M11" s="2" t="s">
         <v>36</v>
       </c>

--- a/Projects/CARLSBRGHK/Data/Template.xlsx
+++ b/Projects/CARLSBRGHK/Data/Template.xlsx
@@ -116,7 +116,7 @@
     <t xml:space="preserve">manufacturer</t>
   </si>
   <si>
-    <t xml:space="preserve">Diageo</t>
+    <t xml:space="preserve">Carlsberg Brewery Hong Kong Ltd</t>
   </si>
   <si>
     <t xml:space="preserve">store</t>
@@ -417,15 +417,16 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B3 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="105.969387755102"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="20.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="104.755102040816"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="7" min="4" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="20.25"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -562,25 +563,25 @@
   <dimension ref="1:11"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="B31" activeCellId="0" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="7" width="51.4336734693878"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="7" width="60.2040816326531"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="7" width="10.6632653061225"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="7" width="9.71938775510204"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="7" width="7.56122448979592"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="7" width="12.6887755102041"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="7" width="7.29081632653061"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="7" width="7.69387755102041"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="7" width="7.29081632653061"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="7" width="7.1530612244898"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="7" width="10.6632653061225"/>
-    <col collapsed="false" hidden="false" max="17" min="15" style="7" width="18.3571428571429"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="7" width="10.6632653061225"/>
-    <col collapsed="false" hidden="false" max="1025" min="19" style="7" width="9.85204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="7" width="52.0102040816327"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="7" width="59.3979591836735"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="7" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="7" width="9.58673469387755"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="7" width="7.4234693877551"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="7" width="28.7959183673469"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="7" width="7.1530612244898"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="7" width="7.56122448979592"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="7" width="7.1530612244898"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="7" width="7.02040816326531"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="7" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="17" min="15" style="7" width="18.0867346938776"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="7" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="1025" min="19" style="7" width="9.71938775510204"/>
   </cols>
   <sheetData>
     <row r="1" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Projects/CARLSBRGHK/Data/Template.xlsx
+++ b/Projects/CARLSBRGHK/Data/Template.xlsx
@@ -122,7 +122,7 @@
     <t xml:space="preserve">store</t>
   </si>
   <si>
-    <t xml:space="preserve">Off Trade, On Trade</t>
+    <t xml:space="preserve">PNS, WLC, Test</t>
   </si>
   <si>
     <t xml:space="preserve">scene_type</t>
@@ -422,11 +422,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="104.755102040816"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="7" min="4" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="20.25"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="103.540816326531"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="7" min="4" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="19.9795918367347"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -562,26 +563,26 @@
   </sheetPr>
   <dimension ref="1:11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B31" activeCellId="0" sqref="B31"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="7" width="52.0102040816327"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="7" width="59.3979591836735"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="7" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="7" width="9.58673469387755"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="7" width="7.4234693877551"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="7" width="28.7959183673469"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="7" width="7.1530612244898"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="7" width="7.56122448979592"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="7" width="7.1530612244898"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="7" width="7.02040816326531"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="7" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="17" min="15" style="7" width="18.0867346938776"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="7" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="19" style="7" width="9.71938775510204"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="7" width="51.4336734693878"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="7" width="58.719387755102"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="7" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="7" width="9.44897959183673"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="7" width="7.29081632653061"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="7" width="28.484693877551"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="7" width="7.02040816326531"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="7" width="7.4234693877551"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="7" width="7.02040816326531"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="7" width="6.88265306122449"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="7" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="17" min="15" style="7" width="17.8214285714286"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="7" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="1025" min="19" style="7" width="9.58673469387755"/>
   </cols>
   <sheetData>
     <row r="1" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Projects/CARLSBRGHK/Data/Template.xlsx
+++ b/Projects/CARLSBRGHK/Data/Template.xlsx
@@ -422,12 +422,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="103.540816326531"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="7" min="4" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="19.9795918367347"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="102.459183673469"/>
+    <col collapsed="false" hidden="false" max="7" min="4" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="19.7091836734694"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -564,25 +563,25 @@
   <dimension ref="1:11"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
+      <selection pane="topLeft" activeCell="H20" activeCellId="0" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="7" width="51.4336734693878"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="7" width="58.719387755102"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="7" width="10.3928571428571"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="7" width="9.44897959183673"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="7" width="7.29081632653061"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="7" width="28.484693877551"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="7" width="7.02040816326531"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="7" width="7.4234693877551"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="7" width="7.02040816326531"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="7" width="6.88265306122449"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="7" width="10.3928571428571"/>
-    <col collapsed="false" hidden="false" max="17" min="15" style="7" width="17.8214285714286"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="7" width="10.3928571428571"/>
-    <col collapsed="false" hidden="false" max="1025" min="19" style="7" width="9.58673469387755"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="7" width="50.7551020408163"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="7" width="58.0459183673469"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="7" width="10.2602040816327"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="7" width="9.31632653061224"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="7" width="7.1530612244898"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="7" width="28.0765306122449"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="7" width="6.88265306122449"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="7" width="7.29081632653061"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="7" width="6.88265306122449"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="7" width="6.75"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="7" width="10.2602040816327"/>
+    <col collapsed="false" hidden="false" max="17" min="15" style="7" width="17.5510204081633"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="7" width="10.2602040816327"/>
+    <col collapsed="false" hidden="false" max="1025" min="19" style="7" width="9.44897959183673"/>
   </cols>
   <sheetData>
     <row r="1" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6957,7 +6956,7 @@
       <c r="K9" s="15"/>
       <c r="L9" s="16"/>
       <c r="M9" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="N9" s="2" t="s">
         <v>34</v>
@@ -8003,7 +8002,7 @@
       <c r="K10" s="15"/>
       <c r="L10" s="16"/>
       <c r="M10" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="N10" s="2" t="s">
         <v>34</v>
